--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -442,25 +442,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>50</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -480,25 +480,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -536,7 +536,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>204</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>205</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -685,10 +685,10 @@
         <v>206</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -714,19 +714,19 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -752,19 +752,19 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -822,25 +822,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -860,25 +860,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -936,25 +936,25 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -974,25 +974,25 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1012,25 +1012,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1050,25 +1050,25 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1088,25 +1088,25 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1164,25 +1164,25 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1202,25 +1202,25 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="F22">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1240,25 +1240,25 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1278,25 +1278,25 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1316,25 +1316,25 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1354,25 +1354,25 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1392,25 +1392,25 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
       <c r="F27">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1430,25 +1430,25 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1468,25 +1468,25 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>5</v>
       </c>
       <c r="F29">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1506,25 +1506,25 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1544,25 +1544,25 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
       <c r="F31">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1574,766 +1574,6 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>170</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>230</v>
-      </c>
-      <c r="G32">
-        <v>7</v>
-      </c>
-      <c r="H32">
-        <v>50</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>171</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>231</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33">
-        <v>50</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>172</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>232</v>
-      </c>
-      <c r="G34">
-        <v>7</v>
-      </c>
-      <c r="H34">
-        <v>50</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>173</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>233</v>
-      </c>
-      <c r="G35">
-        <v>7</v>
-      </c>
-      <c r="H35">
-        <v>50</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>174</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>234</v>
-      </c>
-      <c r="G36">
-        <v>7</v>
-      </c>
-      <c r="H36">
-        <v>50</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>15</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>175</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>235</v>
-      </c>
-      <c r="G37">
-        <v>7</v>
-      </c>
-      <c r="H37">
-        <v>50</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>176</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>236</v>
-      </c>
-      <c r="G38">
-        <v>7</v>
-      </c>
-      <c r="H38">
-        <v>50</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>15</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>177</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>237</v>
-      </c>
-      <c r="G39">
-        <v>7</v>
-      </c>
-      <c r="H39">
-        <v>50</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>15</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>178</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>238</v>
-      </c>
-      <c r="G40">
-        <v>7</v>
-      </c>
-      <c r="H40">
-        <v>50</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>15</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>179</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41">
-        <v>239</v>
-      </c>
-      <c r="G41">
-        <v>7</v>
-      </c>
-      <c r="H41">
-        <v>50</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>15</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>180</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <v>240</v>
-      </c>
-      <c r="G42">
-        <v>7</v>
-      </c>
-      <c r="H42">
-        <v>50</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>15</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>181</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>241</v>
-      </c>
-      <c r="G43">
-        <v>7</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>15</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>182</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>242</v>
-      </c>
-      <c r="G44">
-        <v>7</v>
-      </c>
-      <c r="H44">
-        <v>50</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>15</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>183</v>
-      </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
-      <c r="F45">
-        <v>243</v>
-      </c>
-      <c r="G45">
-        <v>7</v>
-      </c>
-      <c r="H45">
-        <v>50</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>15</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>184</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <v>244</v>
-      </c>
-      <c r="G46">
-        <v>7</v>
-      </c>
-      <c r="H46">
-        <v>50</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>15</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>185</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-      <c r="F47">
-        <v>245</v>
-      </c>
-      <c r="G47">
-        <v>7</v>
-      </c>
-      <c r="H47">
-        <v>50</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>186</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-      <c r="F48">
-        <v>246</v>
-      </c>
-      <c r="G48">
-        <v>7</v>
-      </c>
-      <c r="H48">
-        <v>50</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>15</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>187</v>
-      </c>
-      <c r="E49">
-        <v>5</v>
-      </c>
-      <c r="F49">
-        <v>247</v>
-      </c>
-      <c r="G49">
-        <v>7</v>
-      </c>
-      <c r="H49">
-        <v>50</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>15</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>188</v>
-      </c>
-      <c r="E50">
-        <v>5</v>
-      </c>
-      <c r="F50">
-        <v>248</v>
-      </c>
-      <c r="G50">
-        <v>7</v>
-      </c>
-      <c r="H50">
-        <v>50</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>15</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>189</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51">
-        <v>249</v>
-      </c>
-      <c r="G51">
-        <v>7</v>
-      </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
         <v>0</v>
       </c>
     </row>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,10 +489,10 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>30050</v>
+        <v>30030</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,19 +57,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10101,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101,0,20,40,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10201:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:20:40:60:100:150:200:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10103:0:20:40:60:100:150:200:300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -398,7 +407,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -414,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -455,7 +464,7 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -475,7 +484,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -495,7 +504,7 @@
         <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -514,6 +523,9 @@
       <c r="E5">
         <v>-100</v>
       </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -530,6 +542,9 @@
       </c>
       <c r="E6">
         <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -548,6 +563,9 @@
       <c r="E7">
         <v>100</v>
       </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -565,6 +583,9 @@
       <c r="E8">
         <v>100</v>
       </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -582,6 +603,9 @@
       <c r="E9">
         <v>100</v>
       </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -599,6 +623,9 @@
       <c r="E10">
         <v>100</v>
       </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -615,6 +642,12 @@
       </c>
       <c r="E11">
         <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10201:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10101:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +74,18 @@
   </si>
   <si>
     <t>10103:0:20:40:60:100:150:200:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20101:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20301:130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +415,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -464,7 +472,7 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -484,7 +492,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -504,7 +512,7 @@
         <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -524,7 +532,7 @@
         <v>-100</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -544,7 +552,7 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -564,7 +572,7 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -584,7 +592,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -595,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>10100</v>
@@ -604,7 +612,10 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -624,7 +635,10 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -644,10 +658,10 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>20301:130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +419,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,6 +478,9 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>10501:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:45:90:135:180:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:45:90:135:225:270:315</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,12 +427,13 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="10" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+    <col min="7" max="10" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -476,7 +485,7 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -499,7 +508,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>10102:0:45:90:135:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +431,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,6 +683,9 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>10801:250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10301:30:270:180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +435,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,6 +578,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>10301:30:270:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:90:150:220:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10601:90:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +447,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,6 +613,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -621,6 +636,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -643,6 +661,9 @@
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20301:130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10501:180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +114,18 @@
   </si>
   <si>
     <t>10701:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:2:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20301:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +455,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,10 +513,10 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -528,7 +536,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -591,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -614,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -637,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -657,12 +665,15 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -712,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>10102:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:270</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +463,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,6 +526,9 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -538,6 +549,9 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -558,6 +572,9 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -673,7 +690,7 @@
       <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>24</v>
       </c>
     </row>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,10 +601,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>10100</v>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>30100:1:0:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002:180:270</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,6 +751,1542 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10100</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10100</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10100</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10100</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10100</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10100</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10100</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10100</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>10100</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>10100</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10100</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>10100</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10100</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10100</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10100</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10100</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10100</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10100</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>10100</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10100</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10100</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10100</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10100</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10100</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10100</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10100</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>10100</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10100</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10100</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>10100</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10100</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>10100</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>10100</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>10100</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>10100</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>10100</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>10100</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>10100</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>10100</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>10100</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>10100</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>10100</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>10100</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>10100</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>10100</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>10100</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>10100</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>10100</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>10100</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>10100</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>10100</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>10100</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>10100</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>10100</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>10100</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>10100</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>10100</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>10100</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>10100</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>10100</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>10100</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>10100</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>10100</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>10100</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>10100</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>10100</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>10100</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>10100</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>10100</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>10100</v>
+      </c>
+      <c r="E81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>10100</v>
+      </c>
+      <c r="E82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>10100</v>
+      </c>
+      <c r="E83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>10100</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>10100</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>10100</v>
+      </c>
+      <c r="E86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>10100</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>10100</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>10100</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>10100</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>10100</v>
+      </c>
+      <c r="E91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>10100</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>10100</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>10100</v>
+      </c>
+      <c r="E94">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>10100</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>10100</v>
+      </c>
+      <c r="E96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>10100</v>
+      </c>
+      <c r="E97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>10100</v>
+      </c>
+      <c r="E98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>10100</v>
+      </c>
+      <c r="E99">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>10100</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>10100</v>
+      </c>
+      <c r="E101">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1111,7 @@
         <v>10100</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C3496-325B-4210-9398-1D9307EED52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,13 +143,85 @@
   </si>
   <si>
     <t>11002:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:20:40:60:80:100:-20:-40:-60:-80:-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:20:40:60:80:100:-20:-40:-60:-80:-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:45:135:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:30:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:20:40:60:80:100:120:140:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:180:200:220:240:260:280:300:320:340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:20:60:100:140:180:220:260:300:340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:120:240</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,7 +878,7 @@
         <v>10100</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -813,16 +886,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>10100</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -830,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -839,83 +912,98 @@
         <v>10100</v>
       </c>
       <c r="E16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>10100</v>
       </c>
       <c r="E17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -924,180 +1012,228 @@
         <v>10100</v>
       </c>
       <c r="E21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>10100</v>
       </c>
       <c r="E22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>10100</v>
       </c>
       <c r="E26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>10100</v>
       </c>
       <c r="E27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>10100</v>
       </c>
       <c r="E28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>10100</v>
       </c>
       <c r="E29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>10100</v>
       </c>
       <c r="E30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>10100</v>
       </c>
       <c r="E31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C3496-325B-4210-9398-1D9307EED52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B5A151-6A7A-49CC-BE7B-3A0945DF6D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1247,7 +1247,7 @@
         <v>10100</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B5A151-6A7A-49CC-BE7B-3A0945DF6D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9398F1-4BF3-4D6A-915A-095031EDE238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,90 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10101:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:20:40:60:100:150:200:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10103:0:20:40:60:100:150:200:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20101:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10501:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:45:90:135:180:225:270:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:45:90:135:225:270:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10301:30:270:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:90:150:220:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10601:90:150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10701:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:2:0:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20301:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:0:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:0:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10902:0:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11002:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10101:0:120:240</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10101:0:20:40:60:80:100:-20:-40:-60:-80:-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10101:0:30:60:90:120:150:180:210:240:270:300:330</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,18 +78,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10200:0:120:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10200:0:90:180:270</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10200:0:20:40:60:80:100:-20:-40:-60:-80:-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10200:0:60:120:180:240:300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,23 +102,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10101:0:20:40:60:80:100:120:140:160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:180:200:220:240:260:280:300:320:340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:40:80:120:160:200:240:280:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:20:60:100:140:180:220:260:300:340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10901:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:25:50:75:100:125:150:175:200:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:25:50:90:115:140:180:205:230:270:295:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:45:135:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:25:50:75:100:205:230:255:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:125:180:305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:70:160:250:340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:80:105:130:155:180:205:230:255:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:32:57:122:147:212:237:302:327</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:25:50:75:100:125:150:175:200:225:250:275:300:325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:45:90:135:224:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:25:50:75:100:180:205:230:255:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:125:155:305:335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:30:60:90:120:150:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:45:90:135:180:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:0:45:90:135:180:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:30:150:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:90:210:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:30:60:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:120:150:180:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:25:50:120:145:170:240:265:290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:85:205:325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:0:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:45:135:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:25:50:75:100:125:150:240:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:180:210:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:45:90:135:180:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:275:360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:25:50:75:100:125:150:175:200:225:250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:90:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:120:150:210:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:120:150:210:240:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:30:60:90:120:150:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001:60:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:30:60:90:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:30:60:210:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001:120:150:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:90:270:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10400:0:45:90:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:25:50:75:100:125:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:180:240:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:210:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:30:150:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:90:210:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:45:90:135:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600:0:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:-15:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:60:90:150:180:210:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:72:-72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600:144:-144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:24:48:96:120:168:-24:-48:-96:-120:-168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10700:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:25:50:75:125:150:175:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10700:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10400:0:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:24:48:96:168:192:240:264:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10700:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10700:0:90:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:60:120:150:210:240:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:165:195</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,9 +514,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -543,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,25 +845,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -616,22 +862,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>10050</v>
+        <v>10100</v>
       </c>
       <c r="E3">
         <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -639,22 +879,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>30030</v>
+        <v>10100</v>
       </c>
       <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -662,19 +896,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>10100</v>
+        <v>20080</v>
       </c>
       <c r="E5">
-        <v>-100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -682,22 +913,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -705,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>10100</v>
@@ -718,9 +946,6 @@
       </c>
       <c r="F7" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -728,10 +953,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>10100</v>
@@ -740,10 +965,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -751,28 +973,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>10100</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>-80</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -780,48 +993,39 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -829,22 +1033,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -852,16 +1053,22 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -869,16 +1076,22 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>10100</v>
       </c>
       <c r="E14">
         <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -886,16 +1099,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -903,22 +1119,22 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
       <c r="D16">
         <v>10100</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -926,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>10100</v>
@@ -935,247 +1151,253 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>20100</v>
+        <v>10100</v>
       </c>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>20100</v>
+        <v>10100</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>20100</v>
+        <v>10100</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>10100</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>10100</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>20100</v>
+        <v>10080</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>20100</v>
+        <v>10100</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>20100</v>
+        <v>10100</v>
       </c>
       <c r="E25">
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>10100</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>10100</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>10100</v>
@@ -1184,21 +1406,24 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
         <v>44</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>10100</v>
@@ -1207,38 +1432,44 @@
         <v>100</v>
       </c>
       <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>10080</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
         <v>46</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>10100</v>
-      </c>
-      <c r="E31">
-        <v>80</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -1247,27 +1478,39 @@
         <v>10100</v>
       </c>
       <c r="E32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>10100</v>
       </c>
       <c r="E33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1281,15 +1524,21 @@
         <v>10100</v>
       </c>
       <c r="E34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -1298,10 +1547,19 @@
         <v>10100</v>
       </c>
       <c r="E35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1309,21 +1567,24 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1332,15 +1593,21 @@
         <v>10100</v>
       </c>
       <c r="E37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1349,83 +1616,113 @@
         <v>10100</v>
       </c>
       <c r="E38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>10100</v>
       </c>
       <c r="E41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>10100</v>
       </c>
       <c r="E42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -1434,49 +1731,76 @@
         <v>10100</v>
       </c>
       <c r="E43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>10100</v>
       </c>
       <c r="E44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>10100</v>
       </c>
       <c r="E45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -1485,168 +1809,243 @@
         <v>10100</v>
       </c>
       <c r="E46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>10100</v>
       </c>
       <c r="E47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>10100</v>
       </c>
       <c r="E48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>10100</v>
       </c>
       <c r="E49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>10100</v>
       </c>
       <c r="E51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>10100</v>
       </c>
       <c r="E52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>10100</v>
       </c>
       <c r="E53">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>10100</v>
       </c>
       <c r="E54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F54" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>10100</v>
       </c>
       <c r="E55">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>10</v>
@@ -1655,27 +2054,42 @@
         <v>10100</v>
       </c>
       <c r="E56">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D57">
         <v>10100</v>
       </c>
       <c r="E57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1683,84 +2097,120 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>10100</v>
       </c>
       <c r="E58">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E59">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D60">
         <v>10100</v>
       </c>
       <c r="E60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F60" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>10100</v>
       </c>
       <c r="E61">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>10100</v>
       </c>
       <c r="E62">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="F62" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1777,7 +2227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9398F1-4BF3-4D6A-915A-095031EDE238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -477,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,11 +794,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,6 +470,22 @@
   </si>
   <si>
     <t>30101:1:165:195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:180:270</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,19 +811,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="31.375" customWidth="1"/>
     <col min="7" max="10" width="19.125" customWidth="1"/>
+    <col min="11" max="12" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -838,8 +855,14 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -856,7 +879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -873,7 +896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -890,7 +913,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -907,7 +930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -927,7 +950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -947,7 +970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -967,7 +990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -987,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1007,7 +1030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1027,7 +1050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1047,7 +1070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1070,7 +1093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1093,7 +1116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1113,7 +1136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2787,7 +2810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2804,7 +2827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2821,7 +2844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2838,7 +2861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2854,8 +2877,14 @@
       <c r="E100">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>115</v>
+      </c>
+      <c r="G100" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186CBB2-72FB-4BE4-865E-0FBDB859C2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="237">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,15 +82,531 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10101:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:45:90:135:180:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:25:50:75:100:125:150:240:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:60:120:150:210:240:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:165:195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:24:48:72:96:120:144:168:192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:24:48:90:114:138:180:204:228:270:294:318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:24:48:96:120:168:192:240:264:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:30:60:120:150:210:240:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10101:45:135:225:315</t>
+  </si>
+  <si>
+    <t>10102:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:24:48:120:144:168:240:264:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:96:180:276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:24:48:72:204:228:252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0</t>
+  </si>
+  <si>
+    <t>10102:40:80:160:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:60:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:45:90:135:224:270:315</t>
+  </si>
+  <si>
+    <t>10101:0:180</t>
+  </si>
+  <si>
+    <t>10200:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:25:50:75:100:180:205:230:255:280</t>
+  </si>
+  <si>
+    <t>10801:125:155:305:335</t>
+  </si>
+  <si>
+    <t>10200:0:30:60:90:120:150:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10102:180</t>
+  </si>
+  <si>
+    <t>20100:0:45:90:135:180:225:270:315</t>
+  </si>
+  <si>
+    <t>10801:0:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:80:105:130:155:180:205:230:255:280</t>
+  </si>
+  <si>
+    <t>10200:0:48:120:168:240:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:0:45:90:135:180:225:270:315</t>
+  </si>
+  <si>
+    <t>10200:0:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>20100:30:150:270</t>
+  </si>
+  <si>
+    <t>20200:90:210:330</t>
+  </si>
+  <si>
+    <t>20100:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10200:45:135:225:315</t>
+  </si>
+  <si>
+    <t>10102:0:30:60:90</t>
+  </si>
+  <si>
+    <t>20200:120:150:180:210</t>
+  </si>
+  <si>
+    <t>10801:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10200:0:160:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:40:80:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:25:50:120:145:170:240:265:290</t>
+  </si>
+  <si>
+    <t>20200:85:205:325</t>
+  </si>
+  <si>
+    <t>20200:0:30:60:90:120:150:180:210:240:270:300:330</t>
+  </si>
+  <si>
     <t>10101:0:30:60:90:120:150:180:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:90:180:270</t>
+  </si>
+  <si>
+    <t>20100:45:135:225:315</t>
+  </si>
+  <si>
+    <t>10801:0:45:90:135:180:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>20200:30:90:150:210:270:330</t>
+  </si>
+  <si>
+    <t>10401:180:210:300:330</t>
+  </si>
+  <si>
+    <t>10401:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:72:144:216:288</t>
+  </si>
+  <si>
+    <t>10102:24:48:96:120:168:192:240:264:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:45:135:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:90:120:150:210:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:60:180:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:40:80:160:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:24:48:96:120:168:192:240:264:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:72:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:144:216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:360</t>
+  </si>
+  <si>
+    <t>30100:1:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:120:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:225</t>
+  </si>
+  <si>
+    <t>10200:0:45:90:135:180:225</t>
+  </si>
+  <si>
+    <t>30101:1:275:360</t>
+  </si>
+  <si>
+    <t>10102:0:275</t>
+  </si>
+  <si>
+    <t>10401:25:50:75:100:125:150:175:200:225:250</t>
+  </si>
+  <si>
+    <t>30101:1:165:195</t>
+  </si>
+  <si>
+    <t>10200:30:60:120:150:210:240:300:330</t>
+  </si>
+  <si>
+    <t>10700:0:90:270</t>
+  </si>
+  <si>
+    <t>10700:120</t>
+  </si>
+  <si>
+    <t>10102:24:48:96:168:192:240:264:312:336</t>
+  </si>
+  <si>
+    <t>10400:0:72:144:216:288</t>
+  </si>
+  <si>
+    <t>10700:100</t>
+  </si>
+  <si>
+    <t>10200:0:25:50:75:125:150:175:200</t>
+  </si>
+  <si>
+    <t>10700:0:180</t>
+  </si>
+  <si>
+    <t>10200:24:48:96:120:168:-24:-48:-96:-120:-168</t>
+  </si>
+  <si>
+    <t>10600:144:-144</t>
+  </si>
+  <si>
+    <t>20300:0:72:-72</t>
+  </si>
+  <si>
+    <t>10200:30:60:90:150:180:210:270:300:330</t>
+  </si>
+  <si>
+    <t>10101:120:240</t>
+  </si>
+  <si>
+    <t>30101:1:-15:15</t>
+  </si>
+  <si>
+    <t>10600:0</t>
+  </si>
+  <si>
+    <t>10600:0:30:60:90:120:150:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10102:45:90:135:225:270:315</t>
+  </si>
+  <si>
+    <t>20300:0:180</t>
+  </si>
+  <si>
+    <t>20100:0:180</t>
+  </si>
+  <si>
+    <t>10200:90:210:330</t>
+  </si>
+  <si>
+    <t>10800:0:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>20300:30:150:270</t>
+  </si>
+  <si>
+    <t>20300:210:300</t>
+  </si>
+  <si>
+    <t>10200:180:240:270:330</t>
+  </si>
+  <si>
+    <t>30101:1:0:150</t>
+  </si>
+  <si>
+    <t>10901:0:25:50:75:100:125:150</t>
+  </si>
+  <si>
+    <t>20300:30:210</t>
   </si>
   <si>
     <t>10101:0:60:120:180:240:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:90:180:270</t>
+  </si>
+  <si>
+    <t>20300:180</t>
+  </si>
+  <si>
+    <t>10400:0:45:90:270:315</t>
+  </si>
+  <si>
+    <t>20300:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10102:0:90:270:180</t>
+  </si>
+  <si>
+    <t>11001:120:150:300:330</t>
+  </si>
+  <si>
+    <t>10901:30:60:210:240</t>
+  </si>
+  <si>
+    <t>10401:150:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10901:0:30:60:90:120</t>
+  </si>
+  <si>
+    <t>30101:1:0:120</t>
+  </si>
+  <si>
+    <t>10200:30:90:150:210:270:330</t>
+  </si>
+  <si>
+    <t>11001:60:180:300</t>
+  </si>
+  <si>
+    <t>10901:0:120:240</t>
+  </si>
+  <si>
+    <t>30101:1:0:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:90:110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:270:290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:180</t>
+  </si>
+  <si>
+    <t>10101:0:30:60:90:120:150:180</t>
+  </si>
+  <si>
+    <t>30101:1:90:270</t>
+  </si>
+  <si>
+    <t>10101:0:90</t>
+  </si>
+  <si>
+    <t>30101:1:0:90</t>
+  </si>
+  <si>
+    <t>20200:180:270</t>
+  </si>
+  <si>
+    <t>10200:120:150:210:240:300:330</t>
+  </si>
+  <si>
+    <t>30101:1:15:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:30:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:60:90:120:150:180:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:195:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:135:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:45:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:285:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:30:60:90:120:180:210:240:270:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:30:60:90:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:180:210:240:270:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:140:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:320:340</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,414 +614,277 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10200:45:135:225:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:0:90:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:30:210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0:120:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>10102:120:144:168:192:216:240:264:288:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:24:48:72:96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:-10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:50:70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:110:130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:170:190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:230:250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:290:310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10102:32:57:122:147:212:237:302:327</t>
+  </si>
+  <si>
+    <t>30101:1:0:96</t>
+  </si>
+  <si>
+    <t>10200:0:96:120:144:288:312:336</t>
+  </si>
+  <si>
+    <t>10401:40:80:200:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:120:160:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:40:80:160:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:90:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:120:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:24:48:72:96:204:228:252:276</t>
+  </si>
+  <si>
+    <t>10101:0:120:180:300</t>
+  </si>
+  <si>
+    <t>20100:150:330</t>
+  </si>
+  <si>
+    <t>10901:45:135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:120:240</t>
+  </si>
+  <si>
+    <t>10902:40:160:280</t>
+  </si>
+  <si>
+    <t>10200:80:200:320</t>
+  </si>
+  <si>
+    <t>20100:40:80:160:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:24:48:72:96:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:192:216:240:264:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:132:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:300:348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:60:150:210:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:90:120:180:240:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:168:216:264:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:144:192:240:288:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:80:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:70:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:40:120:160:200:240:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:45:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:130:140</t>
+  </si>
+  <si>
+    <t>30101:1:130:140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:310:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:30:300:330</t>
+  </si>
+  <si>
+    <t>11002:90:150:210:270</t>
+  </si>
+  <si>
+    <t>10902:60:120:180:240</t>
+  </si>
+  <si>
+    <t>30101:1:70:80</t>
+  </si>
+  <si>
+    <t>30101:1:190:200</t>
+  </si>
+  <si>
+    <t>30101:1:250:260</t>
   </si>
   <si>
     <t>10901:0:120:240</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10101:0:25:50:75:100:125:150:175:200:225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:25:50:90:115:140:180:205:230:270:295:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:90:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:45:135:225:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:25:50:75:100:205:230:255:280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:125:180:305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0:72:144:216:288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:70:160:250:340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:80:105:130:155:180:205:230:255:280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0:90:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:32:57:122:147:212:237:302:327</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:72:144:216:288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0:25:50:75:100:125:150:175:200:225:250:275:300:325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:45:90:135:224:270:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:25:50:75:100:180:205:230:255:280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:125:155:305:335</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:30:60:90:120:150:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:0:45:90:135:180:225:270:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:0:45:90:135:180:225:270:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:30:150:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:90:210:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:30:60:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:120:150:180:210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:25:50:120:145:170:240:265:290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:85:205:325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:0:30:60:90:120:150:180:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0:30:60:90:120:150:180:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:0:30:60:90:120:150:180:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:45:135:225:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:0:90:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:0:60:120:180:240:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:30:90:150:210:270:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:25:50:75:100:125:150:240:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:180:210:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:30:90:150:210:270:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:0:360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:0:225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:45:90:135:180:225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:275:360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:25:50:75:100:125:150:175:200:225:250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:90:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:120:150:210:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:0:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:120:150:210:240:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:30:60:90:120:150:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10901:0:30:60:90:120:150:180:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11001:60:180:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:30:90:150:210:270:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:0:120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10901:0:30:60:90:120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:150:180:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10901:30:60:210:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11001:120:150:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:90:270:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:0:90:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10400:0:45:90:270:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10901:0:25:50:75:100:125:150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:0:150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:180:240:270:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:210:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:30:150:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10800:0:60:120:180:240:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:90:210:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:45:90:135:225:270:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600:0:30:60:90:120:150:180:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:-15:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:120:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:30:60:90:150:180:210:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:0:72:-72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10600:144:-144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:24:48:96:120:168:-24:-48:-96:-120:-168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10700:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:25:50:75:125:150:175:200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10700:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10400:0:72:144:216:288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:24:48:96:168:192:240:264:312:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10700:120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10700:0:90:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:30:60:120:150:210:240:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:165:195</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gimmick6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gimmick7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:0:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:180:270</t>
+    <t>20200:80:200:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:40:160:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:7:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:127:137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:247:257</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,12 +901,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -529,14 +927,232 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -810,17 +1426,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="31.375" customWidth="1"/>
-    <col min="7" max="10" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="7" max="7" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
     <col min="11" max="12" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -856,10 +1475,10 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -870,10 +1489,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>10080</v>
+        <v>10050</v>
       </c>
       <c r="E2">
         <v>80</v>
@@ -887,13 +1506,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -901,16 +1520,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E4">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -918,16 +1537,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>20080</v>
+        <v>10050</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -935,39 +1554,36 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>30080</v>
+      </c>
+      <c r="E6">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>10080</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>10100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -975,19 +1591,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -995,19 +1611,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E9">
-        <v>-80</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1015,19 +1631,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>20100</v>
+        <v>10100</v>
       </c>
       <c r="E10">
-        <v>120</v>
+        <v>-60</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1035,39 +1651,39 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>30100</v>
+      </c>
+      <c r="E11">
+        <v>-100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D11">
-        <v>20100</v>
-      </c>
-      <c r="E11">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>10050</v>
-      </c>
-      <c r="E12">
-        <v>80</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1075,22 +1691,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>10050</v>
+        <v>10100</v>
       </c>
       <c r="E13">
         <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1098,22 +1711,22 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>10100</v>
+        <v>20080</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1121,19 +1734,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="E15">
-        <v>80</v>
+        <v>-60</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1141,53 +1754,53 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>10100</v>
+        <v>30100</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>-120</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>10100</v>
@@ -1196,98 +1809,104 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E19">
         <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>10100</v>
       </c>
       <c r="E20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E21">
-        <v>70</v>
+        <v>-150</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>10100</v>
-      </c>
-      <c r="E22">
-        <v>200</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E22" s="1">
+        <v>80</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -1296,13 +1915,13 @@
         <v>10080</v>
       </c>
       <c r="E23">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1313,113 +1932,113 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>-150</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="E26">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>10100</v>
       </c>
       <c r="E28">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>10100</v>
@@ -1428,134 +2047,125 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>10080</v>
+        <v>30080</v>
       </c>
       <c r="E31">
-        <v>300</v>
+        <v>-120</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>10100</v>
-      </c>
-      <c r="E32">
-        <v>150</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E34">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1563,73 +2173,76 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>10100</v>
       </c>
       <c r="E35">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>10080</v>
       </c>
       <c r="E36">
-        <v>80</v>
+        <v>-200</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E37">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1638,24 +2251,24 @@
         <v>10100</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>10080</v>
@@ -1664,379 +2277,352 @@
         <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="E40">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>10100</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>10100</v>
-      </c>
-      <c r="E42">
-        <v>100</v>
-      </c>
-      <c r="F42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E42" s="1">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E43">
         <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>10100</v>
       </c>
       <c r="E44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E45">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>10100</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>-150</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E47">
         <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>10100</v>
       </c>
       <c r="E49">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>10080</v>
+        <v>10050</v>
       </c>
       <c r="E50">
-        <v>80</v>
+        <v>-150</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <v>10100</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>-150</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>10100</v>
-      </c>
-      <c r="E52">
-        <v>150</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E52" s="1">
+        <v>100</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E53">
         <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" t="s">
-        <v>88</v>
-      </c>
-      <c r="I53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>10100</v>
       </c>
       <c r="E54">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2044,82 +2630,85 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>10100</v>
       </c>
       <c r="E55">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>94</v>
-      </c>
-      <c r="H55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>10100</v>
       </c>
       <c r="E56">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G56" t="s">
+        <v>99</v>
+      </c>
+      <c r="H56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
         <v>4</v>
       </c>
-      <c r="C57">
-        <v>7</v>
-      </c>
       <c r="D57">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E57">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="H57" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="I57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>10100</v>
@@ -2128,281 +2717,380 @@
         <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>102</v>
-      </c>
-      <c r="H58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="E59">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="G59" t="s">
+        <v>150</v>
+      </c>
+      <c r="H59" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E60">
-        <v>100</v>
+        <v>-120</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="G60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="H60" t="s">
+        <v>156</v>
+      </c>
+      <c r="I60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>10100</v>
       </c>
       <c r="E61">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="H61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E62">
-        <v>150</v>
-      </c>
-      <c r="F62" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" t="s">
-        <v>111</v>
-      </c>
-      <c r="H62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E63">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" t="s">
+        <v>158</v>
+      </c>
+      <c r="J63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>10100</v>
       </c>
       <c r="E64">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" t="s">
+        <v>161</v>
+      </c>
+      <c r="H64" t="s">
+        <v>162</v>
+      </c>
+      <c r="I64" t="s">
+        <v>163</v>
+      </c>
+      <c r="J64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>10100</v>
       </c>
       <c r="E66">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" t="s">
+        <v>169</v>
+      </c>
+      <c r="H67" t="s">
+        <v>170</v>
+      </c>
+      <c r="I67" t="s">
+        <v>171</v>
+      </c>
+      <c r="J67" t="s">
+        <v>172</v>
+      </c>
+      <c r="K67" t="s">
+        <v>173</v>
+      </c>
+      <c r="L67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>10100</v>
       </c>
       <c r="E68">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E69">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>179</v>
+      </c>
+      <c r="G69" t="s">
+        <v>180</v>
+      </c>
+      <c r="H69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D70">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E70">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+      <c r="F70" t="s">
+        <v>182</v>
+      </c>
+      <c r="G70" t="s">
+        <v>183</v>
+      </c>
+      <c r="H70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>10100</v>
       </c>
       <c r="E71">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72">
+        <v>-80</v>
+      </c>
+      <c r="F71" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>5</v>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>10100</v>
-      </c>
-      <c r="E72">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E72" s="1">
+        <v>80</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2410,72 +3098,99 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E73">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F73" t="s">
+        <v>186</v>
+      </c>
+      <c r="G73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>10100</v>
       </c>
       <c r="E74">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F74" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" t="s">
+        <v>140</v>
+      </c>
+      <c r="H74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E75">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+      <c r="F75" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D76">
         <v>10100</v>
       </c>
       <c r="E76">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-120</v>
+      </c>
+      <c r="F76" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C77">
         <v>10</v>
@@ -2484,112 +3199,172 @@
         <v>10100</v>
       </c>
       <c r="E77">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E78">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
+        <v>201</v>
+      </c>
+      <c r="G78" t="s">
+        <v>202</v>
+      </c>
+      <c r="H78" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D79">
         <v>10100</v>
       </c>
       <c r="E79">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F79" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79" t="s">
+        <v>137</v>
+      </c>
+      <c r="H79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D80">
         <v>10100</v>
       </c>
       <c r="E80">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-80</v>
+      </c>
+      <c r="F80" t="s">
+        <v>194</v>
+      </c>
+      <c r="G80" t="s">
+        <v>195</v>
+      </c>
+      <c r="H80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <v>10100</v>
       </c>
       <c r="E81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-150</v>
+      </c>
+      <c r="F81" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81" t="s">
+        <v>134</v>
+      </c>
+      <c r="H81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D82">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E82">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>10100</v>
       </c>
       <c r="E83">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F83" t="s">
+        <v>205</v>
+      </c>
+      <c r="G83" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" t="s">
+        <v>207</v>
+      </c>
+      <c r="I83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2597,242 +3372,380 @@
         <v>5</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>10100</v>
+        <v>20080</v>
       </c>
       <c r="E84">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="F84" t="s">
+        <v>209</v>
+      </c>
+      <c r="G84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D85">
         <v>10100</v>
       </c>
       <c r="E85">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>212</v>
+      </c>
+      <c r="G85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E86">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-150</v>
+      </c>
+      <c r="F86" t="s">
+        <v>213</v>
+      </c>
+      <c r="G86" t="s">
+        <v>169</v>
+      </c>
+      <c r="H86" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" t="s">
+        <v>145</v>
+      </c>
+      <c r="J86" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E87">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F87" t="s">
+        <v>216</v>
+      </c>
+      <c r="G87" t="s">
+        <v>217</v>
+      </c>
+      <c r="H87" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>10100</v>
       </c>
       <c r="E88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F88" t="s">
+        <v>219</v>
+      </c>
+      <c r="G88" t="s">
+        <v>220</v>
+      </c>
+      <c r="H88" t="s">
+        <v>221</v>
+      </c>
+      <c r="I88" t="s">
+        <v>223</v>
+      </c>
+      <c r="J88" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E89">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F89" t="s">
+        <v>231</v>
+      </c>
+      <c r="G89" t="s">
+        <v>233</v>
+      </c>
+      <c r="H89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>10100</v>
       </c>
       <c r="E90">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>234</v>
+      </c>
+      <c r="H90" t="s">
+        <v>235</v>
+      </c>
+      <c r="I90" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D91">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E91">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-150</v>
+      </c>
+      <c r="F91" t="s">
+        <v>227</v>
+      </c>
+      <c r="G91" t="s">
+        <v>226</v>
+      </c>
+      <c r="H91" t="s">
+        <v>225</v>
+      </c>
+      <c r="I91" t="s">
+        <v>228</v>
+      </c>
+      <c r="J91" t="s">
+        <v>222</v>
+      </c>
+      <c r="K91" t="s">
+        <v>229</v>
+      </c>
+      <c r="L91" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E92">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>10100</v>
       </c>
       <c r="E93">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F93" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D94">
         <v>10100</v>
       </c>
       <c r="E94">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="F94" t="s">
+        <v>129</v>
+      </c>
+      <c r="G94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>10100</v>
       </c>
       <c r="E95">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F95" t="s">
+        <v>127</v>
+      </c>
+      <c r="G95" t="s">
+        <v>126</v>
+      </c>
+      <c r="H95" t="s">
+        <v>125</v>
+      </c>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D96">
         <v>10100</v>
       </c>
       <c r="E96">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F96" t="s">
+        <v>123</v>
+      </c>
+      <c r="G96" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D97">
         <v>10100</v>
       </c>
       <c r="E97">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F97" t="s">
+        <v>120</v>
+      </c>
+      <c r="G97" t="s">
+        <v>119</v>
+      </c>
+      <c r="H97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>10</v>
@@ -2841,27 +3754,42 @@
         <v>10100</v>
       </c>
       <c r="E98">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D99">
         <v>10100</v>
       </c>
       <c r="E99">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F99" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" t="s">
+        <v>115</v>
+      </c>
+      <c r="H99" t="s">
+        <v>114</v>
+      </c>
+      <c r="I99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2869,41 +3797,2016 @@
         <v>5</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D100">
         <v>10100</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F100" t="s">
+        <v>112</v>
+      </c>
+      <c r="G100" t="s">
+        <v>111</v>
+      </c>
+      <c r="H100" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>10080</v>
+      </c>
+      <c r="E101">
+        <v>80</v>
+      </c>
+      <c r="F101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>10100</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102" t="s">
+        <v>108</v>
+      </c>
+      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>18</v>
+      </c>
+      <c r="D103">
+        <v>10100</v>
+      </c>
+      <c r="E103">
+        <v>80</v>
+      </c>
+      <c r="F103" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" t="s">
+        <v>105</v>
+      </c>
+      <c r="H103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>10100</v>
+      </c>
+      <c r="E104">
+        <v>150</v>
+      </c>
+      <c r="F104" t="s">
+        <v>103</v>
+      </c>
+      <c r="G104" t="s">
+        <v>102</v>
+      </c>
+      <c r="H104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>10100</v>
+      </c>
+      <c r="E105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>10100</v>
+      </c>
+      <c r="E106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>10100</v>
+      </c>
+      <c r="E107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>10100</v>
+      </c>
+      <c r="E108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>10100</v>
+      </c>
+      <c r="E109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>10100</v>
+      </c>
+      <c r="E110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>10100</v>
+      </c>
+      <c r="E111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>10100</v>
+      </c>
+      <c r="E112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>10100</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>10100</v>
+      </c>
+      <c r="E114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>10100</v>
+      </c>
+      <c r="E115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="G100" t="s">
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>10100</v>
+      </c>
+      <c r="E116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>10</v>
-      </c>
-      <c r="D101">
-        <v>10100</v>
-      </c>
-      <c r="E101">
-        <v>30</v>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>10100</v>
+      </c>
+      <c r="E117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>10100</v>
+      </c>
+      <c r="E118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>10100</v>
+      </c>
+      <c r="E119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>10100</v>
+      </c>
+      <c r="E120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>10100</v>
+      </c>
+      <c r="E121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>10100</v>
+      </c>
+      <c r="E122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>10100</v>
+      </c>
+      <c r="E123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>10100</v>
+      </c>
+      <c r="E124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>10100</v>
+      </c>
+      <c r="E125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>10100</v>
+      </c>
+      <c r="E126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>10100</v>
+      </c>
+      <c r="E127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>10100</v>
+      </c>
+      <c r="E128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>10100</v>
+      </c>
+      <c r="E129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>10100</v>
+      </c>
+      <c r="E130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>10100</v>
+      </c>
+      <c r="E131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>10100</v>
+      </c>
+      <c r="E132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>10100</v>
+      </c>
+      <c r="E133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>10100</v>
+      </c>
+      <c r="E134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>10100</v>
+      </c>
+      <c r="E135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>10100</v>
+      </c>
+      <c r="E136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>10</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>10100</v>
+      </c>
+      <c r="E137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>10100</v>
+      </c>
+      <c r="E138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>10100</v>
+      </c>
+      <c r="E139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>10100</v>
+      </c>
+      <c r="E140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>10100</v>
+      </c>
+      <c r="E141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>10100</v>
+      </c>
+      <c r="E142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>10100</v>
+      </c>
+      <c r="E143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>10100</v>
+      </c>
+      <c r="E144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>10100</v>
+      </c>
+      <c r="E145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>10100</v>
+      </c>
+      <c r="E146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>10100</v>
+      </c>
+      <c r="E147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>10100</v>
+      </c>
+      <c r="E148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>10100</v>
+      </c>
+      <c r="E149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>10100</v>
+      </c>
+      <c r="E150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>10100</v>
+      </c>
+      <c r="E151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>10100</v>
+      </c>
+      <c r="E152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>10100</v>
+      </c>
+      <c r="E153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>10100</v>
+      </c>
+      <c r="E154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>10100</v>
+      </c>
+      <c r="E155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>10100</v>
+      </c>
+      <c r="E156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>10100</v>
+      </c>
+      <c r="E157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>10</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>10100</v>
+      </c>
+      <c r="E158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>10</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>10100</v>
+      </c>
+      <c r="E159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>10100</v>
+      </c>
+      <c r="E160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>10100</v>
+      </c>
+      <c r="E161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>10100</v>
+      </c>
+      <c r="E162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>10100</v>
+      </c>
+      <c r="E163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+      <c r="D164">
+        <v>10100</v>
+      </c>
+      <c r="E164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>10100</v>
+      </c>
+      <c r="E165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>10100</v>
+      </c>
+      <c r="E166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>10100</v>
+      </c>
+      <c r="E167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168">
+        <v>10100</v>
+      </c>
+      <c r="E168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>10100</v>
+      </c>
+      <c r="E169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>10</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>10100</v>
+      </c>
+      <c r="E170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>10100</v>
+      </c>
+      <c r="E171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>10</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+      <c r="D172">
+        <v>10100</v>
+      </c>
+      <c r="E172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>10</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>10100</v>
+      </c>
+      <c r="E173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>10100</v>
+      </c>
+      <c r="E174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>10</v>
+      </c>
+      <c r="C175">
+        <v>10</v>
+      </c>
+      <c r="D175">
+        <v>10100</v>
+      </c>
+      <c r="E175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>10</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="D176">
+        <v>10100</v>
+      </c>
+      <c r="E176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>10</v>
+      </c>
+      <c r="D177">
+        <v>10100</v>
+      </c>
+      <c r="E177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>10</v>
+      </c>
+      <c r="C178">
+        <v>10</v>
+      </c>
+      <c r="D178">
+        <v>10100</v>
+      </c>
+      <c r="E178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>10</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179">
+        <v>10100</v>
+      </c>
+      <c r="E179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>10</v>
+      </c>
+      <c r="C180">
+        <v>10</v>
+      </c>
+      <c r="D180">
+        <v>10100</v>
+      </c>
+      <c r="E180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+      <c r="D181">
+        <v>10100</v>
+      </c>
+      <c r="E181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>10</v>
+      </c>
+      <c r="C182">
+        <v>10</v>
+      </c>
+      <c r="D182">
+        <v>10100</v>
+      </c>
+      <c r="E182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>10</v>
+      </c>
+      <c r="D183">
+        <v>10100</v>
+      </c>
+      <c r="E183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>10</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184">
+        <v>10100</v>
+      </c>
+      <c r="E184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>10</v>
+      </c>
+      <c r="C185">
+        <v>10</v>
+      </c>
+      <c r="D185">
+        <v>10100</v>
+      </c>
+      <c r="E185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>10</v>
+      </c>
+      <c r="C186">
+        <v>10</v>
+      </c>
+      <c r="D186">
+        <v>10100</v>
+      </c>
+      <c r="E186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>10</v>
+      </c>
+      <c r="C187">
+        <v>10</v>
+      </c>
+      <c r="D187">
+        <v>10100</v>
+      </c>
+      <c r="E187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>10100</v>
+      </c>
+      <c r="E188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189">
+        <v>10100</v>
+      </c>
+      <c r="E189">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>10</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+      <c r="D190">
+        <v>10100</v>
+      </c>
+      <c r="E190">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>10</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191">
+        <v>10100</v>
+      </c>
+      <c r="E191">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>10</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192">
+        <v>10100</v>
+      </c>
+      <c r="E192">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>10</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193">
+        <v>10100</v>
+      </c>
+      <c r="E193">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>10</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+      <c r="D194">
+        <v>10100</v>
+      </c>
+      <c r="E194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>10</v>
+      </c>
+      <c r="C195">
+        <v>10</v>
+      </c>
+      <c r="D195">
+        <v>10100</v>
+      </c>
+      <c r="E195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>10</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+      <c r="D196">
+        <v>10100</v>
+      </c>
+      <c r="E196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>10</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+      <c r="D197">
+        <v>10100</v>
+      </c>
+      <c r="E197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>10</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+      <c r="D198">
+        <v>10100</v>
+      </c>
+      <c r="E198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+      <c r="D199">
+        <v>10100</v>
+      </c>
+      <c r="E199">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>10</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+      <c r="D200">
+        <v>10100</v>
+      </c>
+      <c r="E200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>10</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <v>10100</v>
+      </c>
+      <c r="E201">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(A1,5)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>MOD(A1,5)=3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6817ACB3-F4BA-4D72-B16C-497360B7FD9E}">
+  <dimension ref="A3:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10050</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>10100</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>10080</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10100</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>10080</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>79</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>10050</v>
+      </c>
+      <c r="E25">
+        <v>-120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="29" priority="7">
+      <formula>MOD(XFD4,5)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="8">
+      <formula>MOD(XFD4,5)=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D18">
+    <cfRule type="expression" dxfId="27" priority="5">
+      <formula>MOD(A9,5)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="6">
+      <formula>MOD(A9,5)=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>MOD(A22,5)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>MOD(A22,5)=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="23" priority="9">
+      <formula>MOD(B3,5)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="10">
+      <formula>MOD(B3,5)=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>MOD(A13,5)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>MOD(A13,5)=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186CBB2-72FB-4BE4-865E-0FBDB859C2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="238">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -878,13 +877,17 @@
   </si>
   <si>
     <t>30101:1:247:257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:0:270:290</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -934,133 +937,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1426,11 +1303,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I206" sqref="I206"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2697,7 +2574,7 @@
         <v>144</v>
       </c>
       <c r="I57" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -5562,10 +5439,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(A1,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>MOD(A1,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5575,7 +5452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6817ACB3-F4BA-4D72-B16C-497360B7FD9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5768,42 +5645,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>MOD(XFD4,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(XFD4,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D18">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>MOD(A9,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(A9,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(A22,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(A22,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>MOD(B3,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>MOD(B3,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(A13,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(A13,5)=3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03668682-8B5A-4F9E-9E43-481CCFE078CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -15,23 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="244">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,18 +472,6 @@
     <t>10901:0:25:50:75:100:125:150</t>
   </si>
   <si>
-    <t>20300:30:210</t>
-  </si>
-  <si>
-    <t>10101:0:60:120:180:240:300</t>
-  </si>
-  <si>
-    <t>20300:180</t>
-  </si>
-  <si>
-    <t>10400:0:45:90:270:315</t>
-  </si>
-  <si>
     <t>20300:0:90:180:270</t>
   </si>
   <si>
@@ -881,13 +859,52 @@
   </si>
   <si>
     <t>30101:0:270:290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:24:96:144:216:264:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10401:0:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:36:108:180:252:324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:45:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:135:315</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -937,7 +954,49 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1303,11 +1362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2565,16 +2624,16 @@
         <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G57" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2594,10 +2653,10 @@
         <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2617,16 +2676,16 @@
         <v>150</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2646,16 +2705,16 @@
         <v>-120</v>
       </c>
       <c r="F60" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I60" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2678,10 +2737,10 @@
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2727,13 +2786,13 @@
         <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J63" t="s">
         <v>26</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2753,19 +2812,19 @@
         <v>100</v>
       </c>
       <c r="F64" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" t="s">
+        <v>159</v>
+      </c>
+      <c r="J64" t="s">
         <v>160</v>
-      </c>
-      <c r="G64" t="s">
-        <v>161</v>
-      </c>
-      <c r="H64" t="s">
-        <v>162</v>
-      </c>
-      <c r="I64" t="s">
-        <v>163</v>
-      </c>
-      <c r="J64" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2785,7 +2844,7 @@
         <v>-50</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2805,10 +2864,10 @@
         <v>-120</v>
       </c>
       <c r="F66" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G66" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -2828,25 +2887,25 @@
         <v>50</v>
       </c>
       <c r="F67" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67" t="s">
+        <v>167</v>
+      </c>
+      <c r="J67" t="s">
         <v>168</v>
       </c>
-      <c r="G67" t="s">
+      <c r="K67" t="s">
         <v>169</v>
       </c>
-      <c r="H67" t="s">
+      <c r="L67" t="s">
         <v>170</v>
-      </c>
-      <c r="I67" t="s">
-        <v>171</v>
-      </c>
-      <c r="J67" t="s">
-        <v>172</v>
-      </c>
-      <c r="K67" t="s">
-        <v>173</v>
-      </c>
-      <c r="L67" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -2866,10 +2925,10 @@
         <v>120</v>
       </c>
       <c r="F68" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -2889,13 +2948,13 @@
         <v>120</v>
       </c>
       <c r="F69" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G69" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H69" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -2915,13 +2974,13 @@
         <v>-200</v>
       </c>
       <c r="F70" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H70" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -2941,10 +3000,10 @@
         <v>-80</v>
       </c>
       <c r="F71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G71" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2964,7 +3023,7 @@
         <v>80</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -2984,10 +3043,10 @@
         <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G73" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3007,13 +3066,13 @@
         <v>120</v>
       </c>
       <c r="F74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G74" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H74" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3033,7 +3092,7 @@
         <v>-100</v>
       </c>
       <c r="F75" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3053,13 +3112,13 @@
         <v>-120</v>
       </c>
       <c r="F76" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G76" t="s">
         <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3079,13 +3138,13 @@
         <v>120</v>
       </c>
       <c r="F77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G77" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H77" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3105,13 +3164,13 @@
         <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G78" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3131,13 +3190,13 @@
         <v>100</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G79" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H79" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3157,13 +3216,13 @@
         <v>-80</v>
       </c>
       <c r="F80" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G80" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H80" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3183,13 +3242,13 @@
         <v>-150</v>
       </c>
       <c r="F81" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G81" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H81" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3209,7 +3268,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -3229,16 +3288,16 @@
         <v>100</v>
       </c>
       <c r="F83" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G83" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H83" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I83" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3258,10 +3317,10 @@
         <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G84" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3281,10 +3340,10 @@
         <v>-120</v>
       </c>
       <c r="F85" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3304,19 +3363,19 @@
         <v>-150</v>
       </c>
       <c r="F86" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H86" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J86" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3336,13 +3395,13 @@
         <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G87" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H87" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3362,19 +3421,19 @@
         <v>100</v>
       </c>
       <c r="F88" t="s">
+        <v>215</v>
+      </c>
+      <c r="G88" t="s">
+        <v>216</v>
+      </c>
+      <c r="H88" t="s">
+        <v>217</v>
+      </c>
+      <c r="I88" t="s">
         <v>219</v>
       </c>
-      <c r="G88" t="s">
+      <c r="J88" t="s">
         <v>220</v>
-      </c>
-      <c r="H88" t="s">
-        <v>221</v>
-      </c>
-      <c r="I88" t="s">
-        <v>223</v>
-      </c>
-      <c r="J88" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -3394,13 +3453,13 @@
         <v>200</v>
       </c>
       <c r="F89" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G89" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -3423,13 +3482,13 @@
         <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H90" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I90" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3449,45 +3508,45 @@
         <v>-150</v>
       </c>
       <c r="F91" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G91" t="s">
+        <v>222</v>
+      </c>
+      <c r="H91" t="s">
+        <v>221</v>
+      </c>
+      <c r="I91" t="s">
+        <v>224</v>
+      </c>
+      <c r="J91" t="s">
+        <v>218</v>
+      </c>
+      <c r="K91" t="s">
+        <v>225</v>
+      </c>
+      <c r="L91" t="s">
         <v>226</v>
       </c>
-      <c r="H91" t="s">
-        <v>225</v>
-      </c>
-      <c r="I91" t="s">
-        <v>228</v>
-      </c>
-      <c r="J91" t="s">
-        <v>222</v>
-      </c>
-      <c r="K91" t="s">
-        <v>229</v>
-      </c>
-      <c r="L91" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92">
+    </row>
+    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>10</v>
-      </c>
-      <c r="C92">
+      <c r="B92" s="1">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1">
         <v>4</v>
       </c>
-      <c r="D92">
-        <v>10080</v>
-      </c>
-      <c r="E92">
+      <c r="D92" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E92" s="1">
         <v>80</v>
       </c>
-      <c r="F92" t="s">
-        <v>132</v>
+      <c r="F92" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3495,22 +3554,22 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E93">
         <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="G93" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -3518,22 +3577,22 @@
         <v>93</v>
       </c>
       <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94">
         <v>6</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
       <c r="D94">
         <v>10100</v>
       </c>
       <c r="E94">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="G94" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -3541,28 +3600,25 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E95">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="G95" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="H95" t="s">
-        <v>125</v>
-      </c>
-      <c r="I95" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -3570,1879 +3626,167 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="E96">
-        <v>200</v>
+        <v>-120</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G96" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="H96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D97">
         <v>10100</v>
       </c>
       <c r="E97">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
-      </c>
-      <c r="H97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E98">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="G98" t="s">
+        <v>43</v>
+      </c>
+      <c r="H98" t="s">
+        <v>166</v>
+      </c>
+      <c r="I98" t="s">
+        <v>168</v>
+      </c>
+      <c r="J98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D99">
         <v>10100</v>
       </c>
       <c r="E99">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F99" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G99" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>10100</v>
+        <v>10050</v>
       </c>
       <c r="E100">
-        <v>100</v>
+        <v>-120</v>
       </c>
       <c r="F100" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C101">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="E101">
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>15</v>
-      </c>
-      <c r="C102">
-        <v>15</v>
-      </c>
-      <c r="D102">
-        <v>10100</v>
-      </c>
-      <c r="E102">
-        <v>100</v>
-      </c>
-      <c r="F102" t="s">
-        <v>108</v>
-      </c>
-      <c r="G102" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>12</v>
-      </c>
-      <c r="C103">
-        <v>18</v>
-      </c>
-      <c r="D103">
-        <v>10100</v>
-      </c>
-      <c r="E103">
-        <v>80</v>
-      </c>
-      <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" t="s">
-        <v>105</v>
-      </c>
-      <c r="H103" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>14</v>
-      </c>
-      <c r="C104">
-        <v>13</v>
-      </c>
-      <c r="D104">
-        <v>10100</v>
-      </c>
-      <c r="E104">
-        <v>150</v>
-      </c>
-      <c r="F104" t="s">
-        <v>103</v>
-      </c>
-      <c r="G104" t="s">
-        <v>102</v>
-      </c>
-      <c r="H104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>10</v>
-      </c>
-      <c r="C105">
-        <v>10</v>
-      </c>
-      <c r="D105">
-        <v>10100</v>
-      </c>
-      <c r="E105">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>10</v>
-      </c>
-      <c r="C106">
-        <v>10</v>
-      </c>
-      <c r="D106">
-        <v>10100</v>
-      </c>
-      <c r="E106">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>10</v>
-      </c>
-      <c r="C107">
-        <v>10</v>
-      </c>
-      <c r="D107">
-        <v>10100</v>
-      </c>
-      <c r="E107">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>10</v>
-      </c>
-      <c r="C108">
-        <v>10</v>
-      </c>
-      <c r="D108">
-        <v>10100</v>
-      </c>
-      <c r="E108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>10</v>
-      </c>
-      <c r="C109">
-        <v>10</v>
-      </c>
-      <c r="D109">
-        <v>10100</v>
-      </c>
-      <c r="E109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>10</v>
-      </c>
-      <c r="C110">
-        <v>10</v>
-      </c>
-      <c r="D110">
-        <v>10100</v>
-      </c>
-      <c r="E110">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>10</v>
-      </c>
-      <c r="C111">
-        <v>10</v>
-      </c>
-      <c r="D111">
-        <v>10100</v>
-      </c>
-      <c r="E111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>10</v>
-      </c>
-      <c r="C112">
-        <v>10</v>
-      </c>
-      <c r="D112">
-        <v>10100</v>
-      </c>
-      <c r="E112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>10</v>
-      </c>
-      <c r="C113">
-        <v>10</v>
-      </c>
-      <c r="D113">
-        <v>10100</v>
-      </c>
-      <c r="E113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>10</v>
-      </c>
-      <c r="C114">
-        <v>10</v>
-      </c>
-      <c r="D114">
-        <v>10100</v>
-      </c>
-      <c r="E114">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>10</v>
-      </c>
-      <c r="C115">
-        <v>10</v>
-      </c>
-      <c r="D115">
-        <v>10100</v>
-      </c>
-      <c r="E115">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>10</v>
-      </c>
-      <c r="C116">
-        <v>10</v>
-      </c>
-      <c r="D116">
-        <v>10100</v>
-      </c>
-      <c r="E116">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>10</v>
-      </c>
-      <c r="C117">
-        <v>10</v>
-      </c>
-      <c r="D117">
-        <v>10100</v>
-      </c>
-      <c r="E117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>10</v>
-      </c>
-      <c r="C118">
-        <v>10</v>
-      </c>
-      <c r="D118">
-        <v>10100</v>
-      </c>
-      <c r="E118">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>10</v>
-      </c>
-      <c r="C119">
-        <v>10</v>
-      </c>
-      <c r="D119">
-        <v>10100</v>
-      </c>
-      <c r="E119">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>10</v>
-      </c>
-      <c r="C120">
-        <v>10</v>
-      </c>
-      <c r="D120">
-        <v>10100</v>
-      </c>
-      <c r="E120">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>10</v>
-      </c>
-      <c r="C121">
-        <v>10</v>
-      </c>
-      <c r="D121">
-        <v>10100</v>
-      </c>
-      <c r="E121">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>10</v>
-      </c>
-      <c r="C122">
-        <v>10</v>
-      </c>
-      <c r="D122">
-        <v>10100</v>
-      </c>
-      <c r="E122">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>10</v>
-      </c>
-      <c r="C123">
-        <v>10</v>
-      </c>
-      <c r="D123">
-        <v>10100</v>
-      </c>
-      <c r="E123">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>10</v>
-      </c>
-      <c r="C124">
-        <v>10</v>
-      </c>
-      <c r="D124">
-        <v>10100</v>
-      </c>
-      <c r="E124">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>10</v>
-      </c>
-      <c r="C125">
-        <v>10</v>
-      </c>
-      <c r="D125">
-        <v>10100</v>
-      </c>
-      <c r="E125">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>10</v>
-      </c>
-      <c r="C126">
-        <v>10</v>
-      </c>
-      <c r="D126">
-        <v>10100</v>
-      </c>
-      <c r="E126">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>10</v>
-      </c>
-      <c r="C127">
-        <v>10</v>
-      </c>
-      <c r="D127">
-        <v>10100</v>
-      </c>
-      <c r="E127">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>10</v>
-      </c>
-      <c r="C128">
-        <v>10</v>
-      </c>
-      <c r="D128">
-        <v>10100</v>
-      </c>
-      <c r="E128">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <v>10</v>
-      </c>
-      <c r="C129">
-        <v>10</v>
-      </c>
-      <c r="D129">
-        <v>10100</v>
-      </c>
-      <c r="E129">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <v>10</v>
-      </c>
-      <c r="C130">
-        <v>10</v>
-      </c>
-      <c r="D130">
-        <v>10100</v>
-      </c>
-      <c r="E130">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>10</v>
-      </c>
-      <c r="C131">
-        <v>10</v>
-      </c>
-      <c r="D131">
-        <v>10100</v>
-      </c>
-      <c r="E131">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>10</v>
-      </c>
-      <c r="C132">
-        <v>10</v>
-      </c>
-      <c r="D132">
-        <v>10100</v>
-      </c>
-      <c r="E132">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>10</v>
-      </c>
-      <c r="C133">
-        <v>10</v>
-      </c>
-      <c r="D133">
-        <v>10100</v>
-      </c>
-      <c r="E133">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <v>10</v>
-      </c>
-      <c r="C134">
-        <v>10</v>
-      </c>
-      <c r="D134">
-        <v>10100</v>
-      </c>
-      <c r="E134">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <v>10</v>
-      </c>
-      <c r="C135">
-        <v>10</v>
-      </c>
-      <c r="D135">
-        <v>10100</v>
-      </c>
-      <c r="E135">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>10</v>
-      </c>
-      <c r="C136">
-        <v>10</v>
-      </c>
-      <c r="D136">
-        <v>10100</v>
-      </c>
-      <c r="E136">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137">
-        <v>10</v>
-      </c>
-      <c r="C137">
-        <v>10</v>
-      </c>
-      <c r="D137">
-        <v>10100</v>
-      </c>
-      <c r="E137">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138">
-        <v>10</v>
-      </c>
-      <c r="C138">
-        <v>10</v>
-      </c>
-      <c r="D138">
-        <v>10100</v>
-      </c>
-      <c r="E138">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <v>10</v>
-      </c>
-      <c r="C139">
-        <v>10</v>
-      </c>
-      <c r="D139">
-        <v>10100</v>
-      </c>
-      <c r="E139">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140">
-        <v>10</v>
-      </c>
-      <c r="C140">
-        <v>10</v>
-      </c>
-      <c r="D140">
-        <v>10100</v>
-      </c>
-      <c r="E140">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <v>10</v>
-      </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-      <c r="D141">
-        <v>10100</v>
-      </c>
-      <c r="E141">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>10</v>
-      </c>
-      <c r="C142">
-        <v>10</v>
-      </c>
-      <c r="D142">
-        <v>10100</v>
-      </c>
-      <c r="E142">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <v>10</v>
-      </c>
-      <c r="C143">
-        <v>10</v>
-      </c>
-      <c r="D143">
-        <v>10100</v>
-      </c>
-      <c r="E143">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <v>10</v>
-      </c>
-      <c r="C144">
-        <v>10</v>
-      </c>
-      <c r="D144">
-        <v>10100</v>
-      </c>
-      <c r="E144">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145">
-        <v>10</v>
-      </c>
-      <c r="C145">
-        <v>10</v>
-      </c>
-      <c r="D145">
-        <v>10100</v>
-      </c>
-      <c r="E145">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146">
-        <v>10</v>
-      </c>
-      <c r="C146">
-        <v>10</v>
-      </c>
-      <c r="D146">
-        <v>10100</v>
-      </c>
-      <c r="E146">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <v>10</v>
-      </c>
-      <c r="C147">
-        <v>10</v>
-      </c>
-      <c r="D147">
-        <v>10100</v>
-      </c>
-      <c r="E147">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148">
-        <v>10</v>
-      </c>
-      <c r="C148">
-        <v>10</v>
-      </c>
-      <c r="D148">
-        <v>10100</v>
-      </c>
-      <c r="E148">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149">
-        <v>10</v>
-      </c>
-      <c r="C149">
-        <v>10</v>
-      </c>
-      <c r="D149">
-        <v>10100</v>
-      </c>
-      <c r="E149">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150">
-        <v>10</v>
-      </c>
-      <c r="C150">
-        <v>10</v>
-      </c>
-      <c r="D150">
-        <v>10100</v>
-      </c>
-      <c r="E150">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <v>10</v>
-      </c>
-      <c r="C151">
-        <v>10</v>
-      </c>
-      <c r="D151">
-        <v>10100</v>
-      </c>
-      <c r="E151">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152">
-        <v>10</v>
-      </c>
-      <c r="C152">
-        <v>10</v>
-      </c>
-      <c r="D152">
-        <v>10100</v>
-      </c>
-      <c r="E152">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153">
-        <v>10</v>
-      </c>
-      <c r="C153">
-        <v>10</v>
-      </c>
-      <c r="D153">
-        <v>10100</v>
-      </c>
-      <c r="E153">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154">
-        <v>10</v>
-      </c>
-      <c r="C154">
-        <v>10</v>
-      </c>
-      <c r="D154">
-        <v>10100</v>
-      </c>
-      <c r="E154">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155">
-        <v>10</v>
-      </c>
-      <c r="C155">
-        <v>10</v>
-      </c>
-      <c r="D155">
-        <v>10100</v>
-      </c>
-      <c r="E155">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156">
-        <v>10</v>
-      </c>
-      <c r="C156">
-        <v>10</v>
-      </c>
-      <c r="D156">
-        <v>10100</v>
-      </c>
-      <c r="E156">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157">
-        <v>10</v>
-      </c>
-      <c r="C157">
-        <v>10</v>
-      </c>
-      <c r="D157">
-        <v>10100</v>
-      </c>
-      <c r="E157">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158">
-        <v>10</v>
-      </c>
-      <c r="C158">
-        <v>10</v>
-      </c>
-      <c r="D158">
-        <v>10100</v>
-      </c>
-      <c r="E158">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159">
-        <v>10</v>
-      </c>
-      <c r="C159">
-        <v>10</v>
-      </c>
-      <c r="D159">
-        <v>10100</v>
-      </c>
-      <c r="E159">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160">
-        <v>10</v>
-      </c>
-      <c r="C160">
-        <v>10</v>
-      </c>
-      <c r="D160">
-        <v>10100</v>
-      </c>
-      <c r="E160">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161">
-        <v>10</v>
-      </c>
-      <c r="C161">
-        <v>10</v>
-      </c>
-      <c r="D161">
-        <v>10100</v>
-      </c>
-      <c r="E161">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162">
-        <v>10</v>
-      </c>
-      <c r="C162">
-        <v>10</v>
-      </c>
-      <c r="D162">
-        <v>10100</v>
-      </c>
-      <c r="E162">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163">
-        <v>10</v>
-      </c>
-      <c r="C163">
-        <v>10</v>
-      </c>
-      <c r="D163">
-        <v>10100</v>
-      </c>
-      <c r="E163">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164">
-        <v>10</v>
-      </c>
-      <c r="C164">
-        <v>10</v>
-      </c>
-      <c r="D164">
-        <v>10100</v>
-      </c>
-      <c r="E164">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165">
-        <v>10</v>
-      </c>
-      <c r="C165">
-        <v>10</v>
-      </c>
-      <c r="D165">
-        <v>10100</v>
-      </c>
-      <c r="E165">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166">
-        <v>10</v>
-      </c>
-      <c r="C166">
-        <v>10</v>
-      </c>
-      <c r="D166">
-        <v>10100</v>
-      </c>
-      <c r="E166">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167">
-        <v>10</v>
-      </c>
-      <c r="C167">
-        <v>10</v>
-      </c>
-      <c r="D167">
-        <v>10100</v>
-      </c>
-      <c r="E167">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168">
-        <v>10</v>
-      </c>
-      <c r="C168">
-        <v>10</v>
-      </c>
-      <c r="D168">
-        <v>10100</v>
-      </c>
-      <c r="E168">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169">
-        <v>10</v>
-      </c>
-      <c r="C169">
-        <v>10</v>
-      </c>
-      <c r="D169">
-        <v>10100</v>
-      </c>
-      <c r="E169">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170">
-        <v>10</v>
-      </c>
-      <c r="C170">
-        <v>10</v>
-      </c>
-      <c r="D170">
-        <v>10100</v>
-      </c>
-      <c r="E170">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171">
-        <v>10</v>
-      </c>
-      <c r="C171">
-        <v>10</v>
-      </c>
-      <c r="D171">
-        <v>10100</v>
-      </c>
-      <c r="E171">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172">
-        <v>10</v>
-      </c>
-      <c r="C172">
-        <v>10</v>
-      </c>
-      <c r="D172">
-        <v>10100</v>
-      </c>
-      <c r="E172">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173">
-        <v>10</v>
-      </c>
-      <c r="C173">
-        <v>10</v>
-      </c>
-      <c r="D173">
-        <v>10100</v>
-      </c>
-      <c r="E173">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174">
-        <v>10</v>
-      </c>
-      <c r="C174">
-        <v>10</v>
-      </c>
-      <c r="D174">
-        <v>10100</v>
-      </c>
-      <c r="E174">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175">
-        <v>10</v>
-      </c>
-      <c r="C175">
-        <v>10</v>
-      </c>
-      <c r="D175">
-        <v>10100</v>
-      </c>
-      <c r="E175">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176">
-        <v>10</v>
-      </c>
-      <c r="C176">
-        <v>10</v>
-      </c>
-      <c r="D176">
-        <v>10100</v>
-      </c>
-      <c r="E176">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177">
-        <v>10</v>
-      </c>
-      <c r="C177">
-        <v>10</v>
-      </c>
-      <c r="D177">
-        <v>10100</v>
-      </c>
-      <c r="E177">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178">
-        <v>10</v>
-      </c>
-      <c r="C178">
-        <v>10</v>
-      </c>
-      <c r="D178">
-        <v>10100</v>
-      </c>
-      <c r="E178">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179">
-        <v>10</v>
-      </c>
-      <c r="C179">
-        <v>10</v>
-      </c>
-      <c r="D179">
-        <v>10100</v>
-      </c>
-      <c r="E179">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180">
-        <v>10</v>
-      </c>
-      <c r="C180">
-        <v>10</v>
-      </c>
-      <c r="D180">
-        <v>10100</v>
-      </c>
-      <c r="E180">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181">
-        <v>10</v>
-      </c>
-      <c r="C181">
-        <v>10</v>
-      </c>
-      <c r="D181">
-        <v>10100</v>
-      </c>
-      <c r="E181">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182">
-        <v>10</v>
-      </c>
-      <c r="C182">
-        <v>10</v>
-      </c>
-      <c r="D182">
-        <v>10100</v>
-      </c>
-      <c r="E182">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183">
-        <v>10</v>
-      </c>
-      <c r="C183">
-        <v>10</v>
-      </c>
-      <c r="D183">
-        <v>10100</v>
-      </c>
-      <c r="E183">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184">
-        <v>10</v>
-      </c>
-      <c r="C184">
-        <v>10</v>
-      </c>
-      <c r="D184">
-        <v>10100</v>
-      </c>
-      <c r="E184">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185">
-        <v>10</v>
-      </c>
-      <c r="C185">
-        <v>10</v>
-      </c>
-      <c r="D185">
-        <v>10100</v>
-      </c>
-      <c r="E185">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186">
-        <v>10</v>
-      </c>
-      <c r="C186">
-        <v>10</v>
-      </c>
-      <c r="D186">
-        <v>10100</v>
-      </c>
-      <c r="E186">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187">
-        <v>10</v>
-      </c>
-      <c r="C187">
-        <v>10</v>
-      </c>
-      <c r="D187">
-        <v>10100</v>
-      </c>
-      <c r="E187">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188">
-        <v>10</v>
-      </c>
-      <c r="C188">
-        <v>10</v>
-      </c>
-      <c r="D188">
-        <v>10100</v>
-      </c>
-      <c r="E188">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189">
-        <v>10</v>
-      </c>
-      <c r="C189">
-        <v>10</v>
-      </c>
-      <c r="D189">
-        <v>10100</v>
-      </c>
-      <c r="E189">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190">
-        <v>10</v>
-      </c>
-      <c r="C190">
-        <v>10</v>
-      </c>
-      <c r="D190">
-        <v>10100</v>
-      </c>
-      <c r="E190">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191">
-        <v>10</v>
-      </c>
-      <c r="C191">
-        <v>10</v>
-      </c>
-      <c r="D191">
-        <v>10100</v>
-      </c>
-      <c r="E191">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192">
-        <v>10</v>
-      </c>
-      <c r="C192">
-        <v>10</v>
-      </c>
-      <c r="D192">
-        <v>10100</v>
-      </c>
-      <c r="E192">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193">
-        <v>10</v>
-      </c>
-      <c r="C193">
-        <v>10</v>
-      </c>
-      <c r="D193">
-        <v>10100</v>
-      </c>
-      <c r="E193">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194">
-        <v>10</v>
-      </c>
-      <c r="C194">
-        <v>10</v>
-      </c>
-      <c r="D194">
-        <v>10100</v>
-      </c>
-      <c r="E194">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195">
-        <v>10</v>
-      </c>
-      <c r="C195">
-        <v>10</v>
-      </c>
-      <c r="D195">
-        <v>10100</v>
-      </c>
-      <c r="E195">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196">
-        <v>10</v>
-      </c>
-      <c r="C196">
-        <v>10</v>
-      </c>
-      <c r="D196">
-        <v>10100</v>
-      </c>
-      <c r="E196">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197">
-        <v>10</v>
-      </c>
-      <c r="C197">
-        <v>10</v>
-      </c>
-      <c r="D197">
-        <v>10100</v>
-      </c>
-      <c r="E197">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198">
-        <v>10</v>
-      </c>
-      <c r="C198">
-        <v>10</v>
-      </c>
-      <c r="D198">
-        <v>10100</v>
-      </c>
-      <c r="E198">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199">
-        <v>10</v>
-      </c>
-      <c r="C199">
-        <v>10</v>
-      </c>
-      <c r="D199">
-        <v>10100</v>
-      </c>
-      <c r="E199">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200">
-        <v>10</v>
-      </c>
-      <c r="C200">
-        <v>10</v>
-      </c>
-      <c r="D200">
-        <v>10100</v>
-      </c>
-      <c r="E200">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201">
-        <v>10</v>
-      </c>
-      <c r="C201">
-        <v>10</v>
-      </c>
-      <c r="D201">
-        <v>10100</v>
-      </c>
-      <c r="E201">
-        <v>100</v>
+        <v>240</v>
+      </c>
+      <c r="G101" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(A1,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(A1,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5452,16 +3796,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
@@ -5630,58 +3975,480 @@
         <v>-120</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>95</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>10100</v>
+      </c>
+      <c r="E29">
         <v>200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>96</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>10100</v>
+      </c>
+      <c r="E30">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>97</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10100</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>98</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>10100</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>99</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>10100</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>10080</v>
+      </c>
+      <c r="E34">
+        <v>80</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>101</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>10100</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>102</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>10100</v>
+      </c>
+      <c r="E36">
+        <v>80</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>103</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>10100</v>
+      </c>
+      <c r="E37">
+        <v>150</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>9</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>11</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>12</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>13</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>14</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>15</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>16</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>17</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>18</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>19</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>20</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>21</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>22</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>23</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>24</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>25</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>MOD(XFD4,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>MOD(XFD4,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D18">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>MOD(A9,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>MOD(A9,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>MOD(A22,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>MOD(A22,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>MOD(A13,5)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>MOD(A13,5)=3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>MOD(B3,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>MOD(B3,5)=3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(A13,5)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>MOD(A13,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03668682-8B5A-4F9E-9E43-481CCFE078CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -904,7 +903,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -954,49 +953,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1362,11 +1319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1439,10 +1396,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>10080</v>
@@ -3783,10 +3740,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(A1,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>MOD(A1,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3796,7 +3753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -4412,42 +4369,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>MOD(XFD4,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(XFD4,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D18">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>MOD(A9,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(A9,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(A22,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(A22,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(A13,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(A13,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>MOD(B3,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>MOD(B3,5)=3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA29C5F0-FEA8-4014-83C2-4882553C89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="387">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,812 +99,1225 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10401:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:25:50:75:100:125:150:240:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:60:120:150:210:240:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:165:195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:24:48:72:96:120:144:168:192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:24:48:90:114:138:180:204:228:270:294:318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:24:48:96:120:168:192:240:264:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:30:60:120:150:210:240:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10101:45:135:225:315</t>
+  </si>
+  <si>
+    <t>10102:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:24:48:120:144:168:240:264:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:96:180:276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:24:48:72:204:228:252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0</t>
+  </si>
+  <si>
+    <t>10102:40:80:160:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:60:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:45:90:135:224:270:315</t>
+  </si>
+  <si>
+    <t>10101:0:180</t>
+  </si>
+  <si>
+    <t>10200:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:25:50:75:100:180:205:230:255:280</t>
+  </si>
+  <si>
+    <t>10801:125:155:305:335</t>
+  </si>
+  <si>
+    <t>10200:0:30:60:90:120:150:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10102:180</t>
+  </si>
+  <si>
+    <t>20100:0:45:90:135:180:225:270:315</t>
+  </si>
+  <si>
+    <t>10801:0:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:80:105:130:155:180:205:230:255:280</t>
+  </si>
+  <si>
+    <t>10200:0:48:120:168:240:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:0:45:90:135:180:225:270:315</t>
+  </si>
+  <si>
+    <t>10200:0:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>20100:30:150:270</t>
+  </si>
+  <si>
+    <t>20200:90:210:330</t>
+  </si>
+  <si>
+    <t>20100:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10200:45:135:225:315</t>
+  </si>
+  <si>
+    <t>10102:0:30:60:90</t>
+  </si>
+  <si>
+    <t>20200:120:150:180:210</t>
+  </si>
+  <si>
+    <t>10801:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10200:0:160:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:40:80:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:25:50:120:145:170:240:265:290</t>
+  </si>
+  <si>
+    <t>20200:85:205:325</t>
+  </si>
+  <si>
+    <t>20200:0:30:60:90:120:150:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10101:0:30:60:90:120:150:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10200:0:90:180:270</t>
+  </si>
+  <si>
+    <t>20100:45:135:225:315</t>
+  </si>
+  <si>
+    <t>10801:0:45:90:135:180:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>20200:30:90:150:210:270:330</t>
+  </si>
+  <si>
+    <t>10401:180:210:300:330</t>
+  </si>
+  <si>
+    <t>10401:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:72:144:216:288</t>
+  </si>
+  <si>
+    <t>10102:24:48:96:120:168:192:240:264:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:45:135:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:90:120:150:210:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:60:180:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:40:80:160:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:24:48:96:120:168:192:240:264:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:72:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:144:216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:360</t>
+  </si>
+  <si>
+    <t>30100:1:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:120:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30100:1:0:225</t>
+  </si>
+  <si>
+    <t>10200:0:45:90:135:180:225</t>
+  </si>
+  <si>
+    <t>30101:1:275:360</t>
+  </si>
+  <si>
+    <t>10102:0:275</t>
+  </si>
+  <si>
+    <t>10401:25:50:75:100:125:150:175:200:225:250</t>
+  </si>
+  <si>
+    <t>10200:30:60:120:150:210:240:300:330</t>
+  </si>
+  <si>
+    <t>10700:120</t>
+  </si>
+  <si>
+    <t>10102:24:48:96:168:192:240:264:312:336</t>
+  </si>
+  <si>
+    <t>10400:0:72:144:216:288</t>
+  </si>
+  <si>
+    <t>10200:0:25:50:75:125:150:175:200</t>
+  </si>
+  <si>
+    <t>10200:24:48:96:120:168:-24:-48:-96:-120:-168</t>
+  </si>
+  <si>
+    <t>10600:144:-144</t>
+  </si>
+  <si>
+    <t>20300:0:72:-72</t>
+  </si>
+  <si>
+    <t>10200:30:60:90:150:180:210:270:300:330</t>
+  </si>
+  <si>
+    <t>10101:120:240</t>
+  </si>
+  <si>
+    <t>30101:1:-15:15</t>
+  </si>
+  <si>
+    <t>10600:0</t>
+  </si>
+  <si>
+    <t>10600:0:30:60:90:120:150:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10102:45:90:135:225:270:315</t>
+  </si>
+  <si>
+    <t>20300:0:180</t>
+  </si>
+  <si>
+    <t>20100:0:180</t>
+  </si>
+  <si>
+    <t>10200:90:210:330</t>
+  </si>
+  <si>
+    <t>10800:0:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>20300:30:150:270</t>
+  </si>
+  <si>
+    <t>20300:210:300</t>
+  </si>
+  <si>
+    <t>10200:180:240:270:330</t>
+  </si>
+  <si>
+    <t>30101:1:0:150</t>
+  </si>
+  <si>
+    <t>10901:0:25:50:75:100:125:150</t>
+  </si>
+  <si>
+    <t>20300:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10102:0:90:270:180</t>
+  </si>
+  <si>
+    <t>11001:120:150:300:330</t>
+  </si>
+  <si>
+    <t>10901:30:60:210:240</t>
+  </si>
+  <si>
+    <t>10401:150:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10901:0:30:60:90:120</t>
+  </si>
+  <si>
+    <t>30101:1:0:120</t>
+  </si>
+  <si>
+    <t>10200:30:90:150:210:270:330</t>
+  </si>
+  <si>
+    <t>11001:60:180:300</t>
+  </si>
+  <si>
+    <t>10901:0:120:240</t>
+  </si>
+  <si>
+    <t>30101:1:0:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:90:110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:270:290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:180</t>
+  </si>
+  <si>
+    <t>10101:0:30:60:90:120:150:180</t>
+  </si>
+  <si>
+    <t>30101:1:90:270</t>
+  </si>
+  <si>
+    <t>10101:0:90</t>
+  </si>
+  <si>
+    <t>30101:1:0:90</t>
+  </si>
+  <si>
+    <t>20200:180:270</t>
+  </si>
+  <si>
+    <t>10200:120:150:210:240:300:330</t>
+  </si>
+  <si>
+    <t>30101:1:15:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:30:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:60:90:120:150:180:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:195:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:135:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:45:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:285:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:30:60:90:120:180:210:240:270:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:30:60:90:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:180:210:240:270:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:140:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:320:340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:120:144:168:192:216:240:264:288:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:24:48:72:96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:-10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:50:70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:110:130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:170:190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:230:250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:290:310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10102:32:57:122:147:212:237:302:327</t>
+  </si>
+  <si>
+    <t>30101:1:0:96</t>
+  </si>
+  <si>
+    <t>10200:0:96:120:144:288:312:336</t>
+  </si>
+  <si>
+    <t>10401:40:80:200:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:120:160:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:40:80:160:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:90:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:120:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:24:48:72:96:204:228:252:276</t>
+  </si>
+  <si>
+    <t>10101:0:120:180:300</t>
+  </si>
+  <si>
+    <t>20100:150:330</t>
+  </si>
+  <si>
+    <t>10401:0:120:240</t>
+  </si>
+  <si>
+    <t>10902:40:160:280</t>
+  </si>
+  <si>
+    <t>10200:80:200:320</t>
+  </si>
+  <si>
+    <t>20100:40:80:160:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:24:48:72:96:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:192:216:240:264:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:132:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:300:348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:60:150:210:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:30:90:120:180:240:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:168:216:264:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:144:192:240:288:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:80:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:70:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:40:120:160:200:240:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:45:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:130:140</t>
+  </si>
+  <si>
+    <t>30101:1:130:140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:310:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:30:300:330</t>
+  </si>
+  <si>
+    <t>11002:90:150:210:270</t>
+  </si>
+  <si>
+    <t>10902:60:120:180:240</t>
+  </si>
+  <si>
+    <t>30101:1:70:80</t>
+  </si>
+  <si>
+    <t>30101:1:190:200</t>
+  </si>
+  <si>
+    <t>30101:1:250:260</t>
+  </si>
+  <si>
+    <t>10901:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:80:200:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:40:160:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:7:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:127:137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:247:257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:0:270:290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10102:30:90:150:210:270:330</t>
+  </si>
+  <si>
+    <t>30101:1:30:90</t>
+  </si>
+  <si>
+    <t>30101:1:150:210</t>
+  </si>
+  <si>
+    <t>30101:1:270:330</t>
+  </si>
+  <si>
+    <t>10101:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
+  </si>
+  <si>
+    <t>30101:1:-5:5</t>
+  </si>
+  <si>
+    <t>30101:1:115:125</t>
+  </si>
+  <si>
+    <t>30101:1:235:245</t>
+  </si>
+  <si>
+    <t>30101:1:55:65</t>
+  </si>
+  <si>
+    <t>30101:1:175:185</t>
+  </si>
+  <si>
+    <t>30101:1:295:305</t>
+  </si>
+  <si>
+    <t>10401:30:60:120:150:210:240:300:330</t>
+  </si>
+  <si>
+    <t>30101:1:85:95</t>
+  </si>
+  <si>
+    <t>30101:1:265:275</t>
+  </si>
+  <si>
+    <t>10102:60:180:300</t>
+  </si>
+  <si>
+    <t>10200:0:120:240</t>
+  </si>
+  <si>
+    <t>30101:1:-35:35</t>
+  </si>
+  <si>
+    <t>30101:1:85:155</t>
+  </si>
+  <si>
+    <t>30101:1:205:275</t>
+  </si>
+  <si>
+    <t>10701:100</t>
+  </si>
+  <si>
+    <t>10701:0</t>
+  </si>
+  <si>
+    <t>10200:90:180:270</t>
+  </si>
+  <si>
+    <t>10102:48:72:96:120:144:168:192:216:240:264:288:312</t>
+  </si>
+  <si>
+    <t>10200:24:336</t>
+  </si>
+  <si>
+    <t>10801:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>10101:30:90:150:210:270:330</t>
+  </si>
+  <si>
+    <t>10701:0:120:240</t>
+  </si>
+  <si>
+    <t>20300:0:120:240</t>
+  </si>
+  <si>
+    <t>10101:30:60:120:150:210:240:300:330</t>
+  </si>
+  <si>
+    <t>10200:24:96:144:216:264:336</t>
+  </si>
+  <si>
+    <t>10801:0:40:80:120:160:200:240:280:320</t>
+  </si>
+  <si>
+    <t>20100:40:80:160:200:280:320</t>
+  </si>
+  <si>
+    <t>20300:36:108:180:252:324</t>
+  </si>
+  <si>
+    <t>10101:60:180:300</t>
+  </si>
+  <si>
+    <t>30101:1:50:70</t>
+  </si>
+  <si>
+    <t>30101:1:170:190</t>
+  </si>
+  <si>
+    <t>30101:1:290:310</t>
+  </si>
+  <si>
+    <t>20300:45:225</t>
+  </si>
+  <si>
+    <t>20200:135:315</t>
+  </si>
+  <si>
+    <t>10801:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
+  </si>
+  <si>
+    <t>20300:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
+  </si>
+  <si>
+    <t>10200:35:325:145:215</t>
+  </si>
+  <si>
+    <t>30101:1:-25:25</t>
+  </si>
+  <si>
+    <t>30101:1:155:205</t>
+  </si>
+  <si>
+    <t>10401:24:48:72:96:144:168:192:216:264:288:312:336</t>
+  </si>
+  <si>
+    <t>10901:180:300</t>
+  </si>
+  <si>
+    <t>11001:60</t>
+  </si>
+  <si>
+    <t>10801:280:0:80</t>
+  </si>
+  <si>
+    <t>10101:40:120:160:200:240:320</t>
+  </si>
+  <si>
+    <t>20300:0:72:144:216:288</t>
+  </si>
+  <si>
+    <t>20100:24:96:168:240:312</t>
+  </si>
+  <si>
+    <t>10200:48:120:192:264:336</t>
+  </si>
+  <si>
+    <t>10801:0:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>30101:1:20:40</t>
+  </si>
+  <si>
+    <t>30101:1:80:100</t>
+  </si>
+  <si>
+    <t>30101:1:140:160</t>
+  </si>
+  <si>
+    <t>30101:1:200:220</t>
+  </si>
+  <si>
+    <t>30101:1:260:280</t>
+  </si>
+  <si>
+    <t>30101:1:320:340</t>
+  </si>
+  <si>
+    <t>10902:0:90:180:270</t>
+  </si>
+  <si>
+    <t>11002:45:135:225:315</t>
+  </si>
+  <si>
+    <t>10401:0:90:180:270</t>
+  </si>
+  <si>
+    <t>20300:30:150:210:330</t>
+  </si>
+  <si>
+    <t>20200:60:120:240:300</t>
+  </si>
+  <si>
+    <t>10902:0:120:240</t>
+  </si>
+  <si>
+    <t>10801:60:180:300</t>
+  </si>
+  <si>
+    <t>30101:1:-20:20</t>
+  </si>
+  <si>
+    <t>30101:1:100:140</t>
+  </si>
+  <si>
+    <t>30101:1:220:260</t>
+  </si>
+  <si>
+    <t>10200:0:45:90:135:180:225:270:315</t>
+  </si>
+  <si>
+    <t>10801:40:80:160:200:280:320</t>
+  </si>
+  <si>
+    <t>20100:30:60:210:240</t>
+  </si>
+  <si>
+    <t>20200:120:150:300:330</t>
+  </si>
+  <si>
+    <t>10101:24:96:144:216:264:336</t>
+  </si>
+  <si>
+    <t>10102:48:72:168:192:288:312</t>
+  </si>
+  <si>
+    <t>10101:0:72:144:216:288</t>
+  </si>
+  <si>
+    <t>10801:24:48:96:120:168:192:240:264:312:336</t>
+  </si>
+  <si>
+    <t>11002:24:144:240:288</t>
+  </si>
+  <si>
+    <t>10902:48:168:264:312</t>
+  </si>
+  <si>
+    <t>10200:336:0:72:96:120:192:216</t>
+  </si>
+  <si>
+    <t>20100:0:72:144:216:288</t>
+  </si>
+  <si>
+    <t>30101:1:67:77</t>
+  </si>
+  <si>
+    <t>30101:1:139:149</t>
+  </si>
+  <si>
+    <t>30101:1:211:221</t>
+  </si>
+  <si>
+    <t>30101:1:283:293</t>
+  </si>
+  <si>
+    <t>20200:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10200:0:150</t>
+  </si>
+  <si>
+    <t>10801:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10701:0:180</t>
+  </si>
+  <si>
+    <t>10701:180:270</t>
+  </si>
+  <si>
+    <t>20100:90:180:270</t>
+  </si>
+  <si>
+    <t>10701:90:180:270</t>
+  </si>
+  <si>
+    <t>10200:24:48:96:120:168:192:240:264:312:336</t>
+  </si>
+  <si>
+    <t>10902:0</t>
+  </si>
+  <si>
+    <t>10701:72:216:288</t>
+  </si>
+  <si>
+    <t>20300:72:216:288</t>
+  </si>
+  <si>
+    <t>10901:144</t>
+  </si>
+  <si>
+    <t>10401:0:40:80:120</t>
+  </si>
+  <si>
+    <t>30101:1:20:100</t>
+  </si>
+  <si>
+    <t>10701:240</t>
+  </si>
+  <si>
+    <t>10200:50:170:290</t>
+  </si>
+  <si>
+    <t>30101:1:50:120</t>
+  </si>
+  <si>
+    <t>30101:1:170:240</t>
+  </si>
+  <si>
+    <t>30101:1:-70:0</t>
+  </si>
+  <si>
+    <t>10102:0:180</t>
+  </si>
+  <si>
+    <t>10801:40:140:220:320</t>
+  </si>
+  <si>
+    <t>20200:24:96:168:240:312</t>
+  </si>
+  <si>
+    <t>30101:1:7:17</t>
+  </si>
+  <si>
+    <t>30101:1:79:89</t>
+  </si>
+  <si>
+    <t>30101:1:149:159</t>
+  </si>
+  <si>
+    <t>30101:1:223:233</t>
+  </si>
+  <si>
+    <t>20300:30:90:150:210:270:330</t>
+  </si>
+  <si>
+    <t>11002:24:144:264</t>
+  </si>
+  <si>
+    <t>10200:48:72:96:168:192:216:288:312:336</t>
+  </si>
+  <si>
+    <t>10200:50:115:180:245:310</t>
+  </si>
+  <si>
+    <t>30101:1:50:310</t>
+  </si>
+  <si>
+    <t>20100:0</t>
+  </si>
+  <si>
+    <t>10801:0:60:90:150:180:210:270:300</t>
+  </si>
+  <si>
+    <t>10200:30:120:240:330</t>
+  </si>
+  <si>
+    <t>30101:1:-15:165</t>
+  </si>
+  <si>
+    <t>10102:0:30:60:90:120:150</t>
+  </si>
+  <si>
+    <t>10101:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>10401:0:24:168:192:336</t>
+  </si>
+  <si>
+    <t>10901:48:96:144:216:264:312</t>
+  </si>
+  <si>
+    <t>10200:72:120:240:288</t>
+  </si>
+  <si>
+    <t>30101:1:40:152</t>
+  </si>
+  <si>
+    <t>30101:1:208:320</t>
+  </si>
+  <si>
+    <t>20300:40:160:280</t>
+  </si>
+  <si>
+    <t>30101:1:10:30</t>
+  </si>
+  <si>
+    <t>30101:1:130:150</t>
+  </si>
+  <si>
+    <t>30101:1:250:270</t>
+  </si>
+  <si>
+    <t>10801:80:200:320</t>
+  </si>
+  <si>
+    <t>20100:0:120:240</t>
+  </si>
+  <si>
+    <t>10200:0:45:90:135:180</t>
+  </si>
+  <si>
+    <t>20200:210:240:300:330</t>
+  </si>
+  <si>
+    <t>10701:270</t>
+  </si>
+  <si>
+    <t>10401:24:48:96:120:168:192:240:264:312:336</t>
+  </si>
+  <si>
+    <t>10200:0:72:144:216:288</t>
+  </si>
+  <si>
+    <t>10102:0:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>10901:30:90:150:210:270:330</t>
+  </si>
+  <si>
+    <t>20100:40:80</t>
+  </si>
+  <si>
+    <t>20200:160:200</t>
+  </si>
+  <si>
+    <t>20300:280:320</t>
+  </si>
+  <si>
+    <t>30101:1:140:220</t>
+  </si>
+  <si>
+    <t>30101:1:260:340</t>
+  </si>
+  <si>
+    <t>10200:24:72:120:240:288:336</t>
+  </si>
+  <si>
+    <t>10801:312:0:48</t>
+  </si>
+  <si>
+    <t>10701:96:264</t>
+  </si>
+  <si>
+    <t>10401:144:216:168:192</t>
+  </si>
+  <si>
+    <t>30101:1:120:240</t>
+  </si>
+  <si>
+    <t>10801:45:135:225:315</t>
+  </si>
+  <si>
+    <t>20300:45:135:225:315</t>
+  </si>
+  <si>
+    <t>10902:0:30:120:150:240:270</t>
+  </si>
+  <si>
+    <t>11002:60:90:180:210:300:330</t>
+  </si>
+  <si>
+    <t>10700:72:144:216:288</t>
+  </si>
+  <si>
+    <t>10102:0:30:60:90:120:150:180:210:240:270:300:330</t>
+  </si>
+  <si>
+    <t>30101:1:5:25</t>
+  </si>
+  <si>
+    <t>30101:1:185:205</t>
+  </si>
+  <si>
     <t>10102:0:72:144:216:288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:0:45:90:135:180:225:270:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:0:90:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:0:60:120:180:240:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:25:50:75:100:125:150:240:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:30:90:150:210:270:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:30:60:120:150:210:240:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:165:195</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gimmick6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gimmick7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:24:48:72:96:120:144:168:192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:24:48:90:114:138:180:204:228:270:294:318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:24:48:96:120:168:192:240:264:312:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:30:60:120:150:210:240:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:90:180:270</t>
-  </si>
-  <si>
-    <t>10101:45:135:225:315</t>
-  </si>
-  <si>
-    <t>10102:30:60:90:120:150:180:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:24:48:120:144:168:240:264:288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:96:180:276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:24:48:72:204:228:252</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0</t>
-  </si>
-  <si>
-    <t>10102:40:80:160:200:280:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:120:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:60:180:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:45:90:135:224:270:315</t>
-  </si>
-  <si>
-    <t>10101:0:180</t>
-  </si>
-  <si>
-    <t>10200:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:25:50:75:100:180:205:230:255:280</t>
-  </si>
-  <si>
-    <t>10801:125:155:305:335</t>
-  </si>
-  <si>
-    <t>10200:0:30:60:90:120:150:210:240:270:300:330</t>
-  </si>
-  <si>
-    <t>10102:180</t>
-  </si>
-  <si>
-    <t>20100:0:45:90:135:180:225:270:315</t>
-  </si>
-  <si>
-    <t>10801:0:40:80:120:160:200:240:280:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:80:105:130:155:180:205:230:255:280</t>
-  </si>
-  <si>
-    <t>10200:0:48:120:168:240:288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:0:45:90:135:180:225:270:315</t>
-  </si>
-  <si>
-    <t>10200:0:60:120:180:240:300</t>
-  </si>
-  <si>
-    <t>20100:30:150:270</t>
-  </si>
-  <si>
-    <t>20200:90:210:330</t>
-  </si>
-  <si>
-    <t>20100:0:90:180:270</t>
-  </si>
-  <si>
-    <t>10200:45:135:225:315</t>
-  </si>
-  <si>
-    <t>10102:0:30:60:90</t>
-  </si>
-  <si>
-    <t>20200:120:150:180:210</t>
-  </si>
-  <si>
-    <t>10801:240:270:300:330</t>
-  </si>
-  <si>
-    <t>10200:0:160:280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:40:80:120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:25:50:120:145:170:240:265:290</t>
-  </si>
-  <si>
-    <t>20200:85:205:325</t>
-  </si>
-  <si>
-    <t>20200:0:30:60:90:120:150:180:210:240:270:300:330</t>
-  </si>
-  <si>
-    <t>10101:0:30:60:90:120:150:180:210:240:270:300:330</t>
-  </si>
-  <si>
-    <t>10200:0:90:180:270</t>
-  </si>
-  <si>
-    <t>20100:45:135:225:315</t>
-  </si>
-  <si>
-    <t>10801:0:45:90:135:180:225:270:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:0:90:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:0:60:120:180:240:300</t>
-  </si>
-  <si>
-    <t>20200:30:90:150:210:270:330</t>
-  </si>
-  <si>
-    <t>10401:180:210:300:330</t>
-  </si>
-  <si>
-    <t>10401:0:120:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:0:72:144:216:288</t>
-  </si>
-  <si>
-    <t>10102:24:48:96:120:168:192:240:264:312:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:45:135:225:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:30:90:120:150:210:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:60:180:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:40:80:160:200:280:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:24:48:96:120:168:192:240:264:312:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:72:288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:0:144:216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:0:360</t>
-  </si>
-  <si>
-    <t>30100:1:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:0:60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:120:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:240:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30100:1:0:225</t>
-  </si>
-  <si>
-    <t>10200:0:45:90:135:180:225</t>
-  </si>
-  <si>
-    <t>30101:1:275:360</t>
-  </si>
-  <si>
-    <t>10102:0:275</t>
-  </si>
-  <si>
-    <t>10401:25:50:75:100:125:150:175:200:225:250</t>
-  </si>
-  <si>
-    <t>30101:1:165:195</t>
-  </si>
-  <si>
-    <t>10200:30:60:120:150:210:240:300:330</t>
-  </si>
-  <si>
-    <t>10700:0:90:270</t>
-  </si>
-  <si>
-    <t>10700:120</t>
-  </si>
-  <si>
-    <t>10102:24:48:96:168:192:240:264:312:336</t>
-  </si>
-  <si>
-    <t>10400:0:72:144:216:288</t>
-  </si>
-  <si>
-    <t>10700:100</t>
-  </si>
-  <si>
-    <t>10200:0:25:50:75:125:150:175:200</t>
-  </si>
-  <si>
-    <t>10700:0:180</t>
-  </si>
-  <si>
-    <t>10200:24:48:96:120:168:-24:-48:-96:-120:-168</t>
-  </si>
-  <si>
-    <t>10600:144:-144</t>
-  </si>
-  <si>
-    <t>20300:0:72:-72</t>
-  </si>
-  <si>
-    <t>10200:30:60:90:150:180:210:270:300:330</t>
-  </si>
-  <si>
-    <t>10101:120:240</t>
-  </si>
-  <si>
-    <t>30101:1:-15:15</t>
-  </si>
-  <si>
-    <t>10600:0</t>
-  </si>
-  <si>
-    <t>10600:0:30:60:90:120:150:180:210:240:270:300:330</t>
-  </si>
-  <si>
-    <t>10102:45:90:135:225:270:315</t>
-  </si>
-  <si>
-    <t>20300:0:180</t>
-  </si>
-  <si>
-    <t>20100:0:180</t>
-  </si>
-  <si>
-    <t>10200:90:210:330</t>
-  </si>
-  <si>
-    <t>10800:0:60:120:180:240:300</t>
-  </si>
-  <si>
-    <t>20300:30:150:270</t>
-  </si>
-  <si>
-    <t>20300:210:300</t>
-  </si>
-  <si>
-    <t>10200:180:240:270:330</t>
-  </si>
-  <si>
-    <t>30101:1:0:150</t>
-  </si>
-  <si>
-    <t>10901:0:25:50:75:100:125:150</t>
-  </si>
-  <si>
-    <t>20300:0:90:180:270</t>
-  </si>
-  <si>
-    <t>10102:0:90:270:180</t>
-  </si>
-  <si>
-    <t>11001:120:150:300:330</t>
-  </si>
-  <si>
-    <t>10901:30:60:210:240</t>
-  </si>
-  <si>
-    <t>10401:150:180:210:240:270:300:330</t>
-  </si>
-  <si>
-    <t>10901:0:30:60:90:120</t>
-  </si>
-  <si>
-    <t>30101:1:0:120</t>
-  </si>
-  <si>
-    <t>10200:30:90:150:210:270:330</t>
-  </si>
-  <si>
-    <t>11001:60:180:300</t>
-  </si>
-  <si>
-    <t>10901:0:120:240</t>
-  </si>
-  <si>
-    <t>30101:1:0:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:90:110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:180:200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:270:290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:0:180</t>
-  </si>
-  <si>
-    <t>10101:0:30:60:90:120:150:180</t>
-  </si>
-  <si>
-    <t>30101:1:90:270</t>
-  </si>
-  <si>
-    <t>10101:0:90</t>
-  </si>
-  <si>
-    <t>30101:1:0:90</t>
-  </si>
-  <si>
-    <t>20200:180:270</t>
-  </si>
-  <si>
-    <t>10200:120:150:210:240:300:330</t>
-  </si>
-  <si>
-    <t>30101:1:15:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:30:210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:60:90:120:150:180:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:195:225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:135:225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:45:75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:285:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:0:30:60:90:120:180:210:240:270:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:0:30:60:90:120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:180:210:240:270:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:140:160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:320:340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:60:120:180:240:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:120:144:168:192:216:240:264:288:312:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:0:24:48:72:96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:0:60:120:180:240:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:-10:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:50:70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:110:130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:170:190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:230:250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:290:310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0:90:180:270</t>
-  </si>
-  <si>
-    <t>10102:32:57:122:147:212:237:302:327</t>
-  </si>
-  <si>
-    <t>30101:1:0:96</t>
-  </si>
-  <si>
-    <t>10200:0:96:120:144:288:312:336</t>
-  </si>
-  <si>
-    <t>10401:40:80:200:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:120:160:280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:0:360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:30:60:90:120:150:180:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10901:0:40:80:120:160:200:240:280:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10901:0:60:120:180:240:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11001:30:90:150:210:270:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10902:40:80:160:200:280:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11002:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10902:90:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:0:60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:180:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:120:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:24:48:72:96:204:228:252:276</t>
-  </si>
-  <si>
-    <t>10101:0:120:180:300</t>
-  </si>
-  <si>
-    <t>20100:150:330</t>
+  </si>
+  <si>
+    <t>10902:0:90</t>
+  </si>
+  <si>
+    <t>11002:180:270</t>
   </si>
   <si>
     <t>10901:45:135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10902:0:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11002:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11001:225:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:0:120:240</t>
-  </si>
-  <si>
-    <t>10902:40:160:280</t>
-  </si>
-  <si>
-    <t>10200:80:200:320</t>
-  </si>
-  <si>
-    <t>20100:40:80:160:200:280:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:24:48:72:96:120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:192:216:240:264:288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:132:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:300:348</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:0:60:150:210:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:30:90:120:180:240:270:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:168:216:264:312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101:144:192:240:288:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10902:0:80:280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:70:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:40:120:160:200:240:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0:60:120:180:240:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102:30:90:150:210:270:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100:0:120:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:0:90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:45:225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:130:140</t>
-  </si>
-  <si>
-    <t>30101:1:130:140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:310:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:0:30:300:330</t>
-  </si>
-  <si>
-    <t>11002:90:150:210:270</t>
-  </si>
-  <si>
-    <t>10902:60:120:180:240</t>
-  </si>
-  <si>
-    <t>30101:1:70:80</t>
-  </si>
-  <si>
-    <t>30101:1:190:200</t>
-  </si>
-  <si>
-    <t>30101:1:250:260</t>
-  </si>
-  <si>
-    <t>10901:0:120:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:80:200:320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10401:40:160:280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:7:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:127:137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:1:247:257</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30101:0:270:290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:0:120:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:0:90:180:270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10200:24:96:144:216:264:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10901:0:90:180:270</t>
-  </si>
-  <si>
-    <t>10401:0:72:144:216:288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:36:108:180:252:324</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10801:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:0:24:48:72:96:120:144:168:192:216:240:264:288:312:336</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:45:225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200:135:315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1319,11 +1733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1368,10 +1782,10 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1516,7 +1930,7 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1536,7 +1950,7 @@
         <v>-60</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1556,7 +1970,7 @@
         <v>-100</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1616,7 +2030,7 @@
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1659,7 +2073,7 @@
         <v>-120</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -1702,7 +2116,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1722,7 +2136,7 @@
         <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -1745,10 +2159,10 @@
         <v>-80</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1771,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1811,7 +2225,7 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1831,10 +2245,10 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1854,10 +2268,10 @@
         <v>-150</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1877,10 +2291,10 @@
         <v>-100</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1900,7 +2314,7 @@
         <v>180</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1920,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1940,10 +2354,10 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1980,16 +2394,16 @@
         <v>-120</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2009,7 +2423,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2029,7 +2443,7 @@
         <v>200</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2049,13 +2463,13 @@
         <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2075,10 +2489,10 @@
         <v>-100</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2098,13 +2512,13 @@
         <v>-200</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2124,10 +2538,10 @@
         <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2147,10 +2561,10 @@
         <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2170,10 +2584,10 @@
         <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2193,13 +2607,13 @@
         <v>-100</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2219,10 +2633,10 @@
         <v>-200</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2242,7 +2656,7 @@
         <v>100</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2262,7 +2676,7 @@
         <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2282,10 +2696,10 @@
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2305,7 +2719,7 @@
         <v>-100</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2325,10 +2739,10 @@
         <v>-150</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2348,10 +2762,10 @@
         <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2371,10 +2785,10 @@
         <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2394,10 +2808,10 @@
         <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2417,7 +2831,7 @@
         <v>-150</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -2440,13 +2854,13 @@
         <v>-150</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2466,7 +2880,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2486,7 +2900,7 @@
         <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2506,13 +2920,13 @@
         <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2532,10 +2946,10 @@
         <v>-100</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2555,13 +2969,13 @@
         <v>-100</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2581,16 +2995,16 @@
         <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I57" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2610,10 +3024,10 @@
         <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G58" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2633,16 +3047,16 @@
         <v>150</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G59" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H59" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I59" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2662,16 +3076,16 @@
         <v>-120</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H60" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I60" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2691,13 +3105,13 @@
         <v>-100</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H61" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2737,19 +3151,19 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>147</v>
+      </c>
+      <c r="J63" t="s">
         <v>24</v>
       </c>
-      <c r="I63" t="s">
-        <v>154</v>
-      </c>
-      <c r="J63" t="s">
-        <v>26</v>
-      </c>
       <c r="K63" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2769,19 +3183,19 @@
         <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G64" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H64" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I64" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J64" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2801,7 +3215,7 @@
         <v>-50</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2821,10 +3235,10 @@
         <v>-120</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G66" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -2844,25 +3258,25 @@
         <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H67" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I67" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J67" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K67" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L67" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -2882,10 +3296,10 @@
         <v>120</v>
       </c>
       <c r="F68" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G68" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -2905,13 +3319,13 @@
         <v>120</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H69" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -2931,13 +3345,13 @@
         <v>-200</v>
       </c>
       <c r="F70" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G70" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H70" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -2957,10 +3371,10 @@
         <v>-80</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G71" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2980,7 +3394,7 @@
         <v>80</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3000,10 +3414,10 @@
         <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G73" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3023,13 +3437,13 @@
         <v>120</v>
       </c>
       <c r="F74" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H74" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3049,7 +3463,7 @@
         <v>-100</v>
       </c>
       <c r="F75" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3069,13 +3483,13 @@
         <v>-120</v>
       </c>
       <c r="F76" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H76" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3095,13 +3509,13 @@
         <v>120</v>
       </c>
       <c r="F77" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G77" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H77" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3121,13 +3535,13 @@
         <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G78" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H78" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3147,13 +3561,13 @@
         <v>100</v>
       </c>
       <c r="F79" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H79" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3173,13 +3587,13 @@
         <v>-80</v>
       </c>
       <c r="F80" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H80" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3199,13 +3613,13 @@
         <v>-150</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G81" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H81" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3225,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -3245,16 +3659,16 @@
         <v>100</v>
       </c>
       <c r="F83" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G83" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H83" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="I83" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3274,10 +3688,10 @@
         <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G84" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3297,10 +3711,10 @@
         <v>-120</v>
       </c>
       <c r="F85" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G85" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3320,19 +3734,19 @@
         <v>-150</v>
       </c>
       <c r="F86" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G86" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H86" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="I86" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J86" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3352,13 +3766,13 @@
         <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G87" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H87" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3378,19 +3792,19 @@
         <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G88" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H88" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I88" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J88" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -3410,13 +3824,13 @@
         <v>200</v>
       </c>
       <c r="F89" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G89" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H89" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -3436,16 +3850,16 @@
         <v>-100</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H90" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I90" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3465,25 +3879,25 @@
         <v>-150</v>
       </c>
       <c r="F91" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G91" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H91" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I91" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="J91" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K91" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="L91" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3503,7 +3917,7 @@
         <v>80</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3523,10 +3937,10 @@
         <v>100</v>
       </c>
       <c r="F93" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -3543,13 +3957,13 @@
         <v>10100</v>
       </c>
       <c r="E94">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G94" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -3569,13 +3983,13 @@
         <v>-50</v>
       </c>
       <c r="F95" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="G95" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H95" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -3595,16 +4009,16 @@
         <v>-120</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="H96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3621,13 +4035,13 @@
         <v>-100</v>
       </c>
       <c r="F97" t="s">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3644,22 +4058,22 @@
         <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="H98" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="I98" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="J98" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3676,19 +4090,19 @@
         <v>120</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3705,16 +4119,16 @@
         <v>-120</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="H100" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3731,10 +4145,1385 @@
         <v>-80</v>
       </c>
       <c r="F101" t="s">
+        <v>263</v>
+      </c>
+      <c r="G101" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>10050</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" t="s">
+        <v>266</v>
+      </c>
+      <c r="H102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>24</v>
+      </c>
+      <c r="D103">
+        <v>10100</v>
+      </c>
+      <c r="E103">
+        <v>120</v>
+      </c>
+      <c r="F103" t="s">
+        <v>268</v>
+      </c>
+      <c r="G103" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>10080</v>
+      </c>
+      <c r="E104">
+        <v>80</v>
+      </c>
+      <c r="F104" t="s">
+        <v>269</v>
+      </c>
+      <c r="G104" t="s">
+        <v>270</v>
+      </c>
+      <c r="H104" t="s">
+        <v>224</v>
+      </c>
+      <c r="I104" t="s">
+        <v>225</v>
+      </c>
+      <c r="J104" t="s">
+        <v>226</v>
+      </c>
+      <c r="K104" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+      <c r="D105">
+        <v>10050</v>
+      </c>
+      <c r="E105">
+        <v>-120</v>
+      </c>
+      <c r="F105" t="s">
+        <v>271</v>
+      </c>
+      <c r="G105" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>10100</v>
+      </c>
+      <c r="E106">
+        <v>-50</v>
+      </c>
+      <c r="F106" t="s">
+        <v>273</v>
+      </c>
+      <c r="G106" t="s">
+        <v>274</v>
+      </c>
+      <c r="H106" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>10080</v>
+      </c>
+      <c r="E107">
+        <v>100</v>
+      </c>
+      <c r="F107" t="s">
+        <v>276</v>
+      </c>
+      <c r="G107" t="s">
+        <v>277</v>
+      </c>
+      <c r="H107" t="s">
+        <v>278</v>
+      </c>
+      <c r="I107" t="s">
+        <v>279</v>
+      </c>
+      <c r="J107" t="s">
+        <v>280</v>
+      </c>
+      <c r="K107" t="s">
+        <v>281</v>
+      </c>
+      <c r="L107" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>32</v>
+      </c>
+      <c r="D108">
+        <v>10050</v>
+      </c>
+      <c r="E108">
+        <v>120</v>
+      </c>
+      <c r="F108" t="s">
+        <v>283</v>
+      </c>
+      <c r="G108" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>10100</v>
+      </c>
+      <c r="E109">
+        <v>180</v>
+      </c>
+      <c r="F109" t="s">
+        <v>285</v>
+      </c>
+      <c r="G109" t="s">
+        <v>286</v>
+      </c>
+      <c r="H109" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>10050</v>
+      </c>
+      <c r="E110">
+        <v>-100</v>
+      </c>
+      <c r="F110" t="s">
+        <v>288</v>
+      </c>
+      <c r="G110" t="s">
+        <v>289</v>
+      </c>
+      <c r="H110" t="s">
+        <v>290</v>
+      </c>
+      <c r="I110" t="s">
+        <v>291</v>
+      </c>
+      <c r="J110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>10080</v>
+      </c>
+      <c r="E111">
+        <v>-50</v>
+      </c>
+      <c r="F111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>22</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <v>10050</v>
+      </c>
+      <c r="E112">
+        <v>120</v>
+      </c>
+      <c r="F112" t="s">
+        <v>294</v>
+      </c>
+      <c r="G112" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>10100</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
+      </c>
+      <c r="F113" t="s">
+        <v>228</v>
+      </c>
+      <c r="G113" t="s">
+        <v>229</v>
+      </c>
+      <c r="H113" t="s">
+        <v>230</v>
+      </c>
+      <c r="I113" t="s">
+        <v>231</v>
+      </c>
+      <c r="J113" t="s">
+        <v>232</v>
+      </c>
+      <c r="K113" t="s">
+        <v>233</v>
+      </c>
+      <c r="L113" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>10080</v>
+      </c>
+      <c r="E114">
+        <v>100</v>
+      </c>
+      <c r="F114" t="s">
+        <v>70</v>
+      </c>
+      <c r="G114" t="s">
+        <v>295</v>
+      </c>
+      <c r="H114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>33</v>
+      </c>
+      <c r="D115">
+        <v>10100</v>
+      </c>
+      <c r="E115">
+        <v>-100</v>
+      </c>
+      <c r="F115" t="s">
+        <v>239</v>
+      </c>
+      <c r="G115" t="s">
+        <v>297</v>
+      </c>
+      <c r="H115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>16</v>
+      </c>
+      <c r="D116">
+        <v>10080</v>
+      </c>
+      <c r="E116">
+        <v>-120</v>
+      </c>
+      <c r="F116" t="s">
+        <v>235</v>
+      </c>
+      <c r="G116" t="s">
+        <v>223</v>
+      </c>
+      <c r="H116" t="s">
+        <v>229</v>
+      </c>
+      <c r="I116" t="s">
+        <v>236</v>
+      </c>
+      <c r="J116" t="s">
+        <v>233</v>
+      </c>
+      <c r="K116" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>10100</v>
+      </c>
+      <c r="E117">
+        <v>120</v>
+      </c>
+      <c r="F117" t="s">
+        <v>299</v>
+      </c>
+      <c r="G117" t="s">
+        <v>273</v>
+      </c>
+      <c r="H117" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>28</v>
+      </c>
+      <c r="D118">
+        <v>10100</v>
+      </c>
+      <c r="E118">
+        <v>100</v>
+      </c>
+      <c r="F118" t="s">
+        <v>301</v>
+      </c>
+      <c r="G118" t="s">
+        <v>302</v>
+      </c>
+      <c r="H118" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>10050</v>
+      </c>
+      <c r="E119">
+        <v>80</v>
+      </c>
+      <c r="F119" t="s">
+        <v>238</v>
+      </c>
+      <c r="G119" t="s">
+        <v>239</v>
+      </c>
+      <c r="H119" t="s">
         <v>240</v>
       </c>
-      <c r="G101" t="s">
+      <c r="I119" t="s">
         <v>241</v>
+      </c>
+      <c r="J119" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>10100</v>
+      </c>
+      <c r="E120">
+        <v>-50</v>
+      </c>
+      <c r="F120" t="s">
+        <v>304</v>
+      </c>
+      <c r="G120" t="s">
+        <v>256</v>
+      </c>
+      <c r="H120" t="s">
+        <v>229</v>
+      </c>
+      <c r="I120" t="s">
+        <v>305</v>
+      </c>
+      <c r="J120" t="s">
+        <v>306</v>
+      </c>
+      <c r="K120" t="s">
+        <v>307</v>
+      </c>
+      <c r="L120" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>34</v>
+      </c>
+      <c r="C121">
+        <v>18</v>
+      </c>
+      <c r="D121">
+        <v>10080</v>
+      </c>
+      <c r="E121">
+        <v>-200</v>
+      </c>
+      <c r="F121" t="s">
+        <v>119</v>
+      </c>
+      <c r="G121" t="s">
+        <v>309</v>
+      </c>
+      <c r="H121" t="s">
+        <v>310</v>
+      </c>
+      <c r="I121" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122">
+        <v>10050</v>
+      </c>
+      <c r="E122">
+        <v>80</v>
+      </c>
+      <c r="F122" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>20</v>
+      </c>
+      <c r="D123">
+        <v>10100</v>
+      </c>
+      <c r="E123">
+        <v>100</v>
+      </c>
+      <c r="F123" t="s">
+        <v>102</v>
+      </c>
+      <c r="G123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>25</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+      <c r="D124">
+        <v>10080</v>
+      </c>
+      <c r="E124">
+        <v>100</v>
+      </c>
+      <c r="F124" t="s">
+        <v>244</v>
+      </c>
+      <c r="G124" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>10100</v>
+      </c>
+      <c r="E125">
+        <v>100</v>
+      </c>
+      <c r="F125" t="s">
+        <v>246</v>
+      </c>
+      <c r="G125" t="s">
+        <v>244</v>
+      </c>
+      <c r="H125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>22</v>
+      </c>
+      <c r="C126">
+        <v>17</v>
+      </c>
+      <c r="D126">
+        <v>10080</v>
+      </c>
+      <c r="E126">
+        <v>-120</v>
+      </c>
+      <c r="F126" t="s">
+        <v>244</v>
+      </c>
+      <c r="G126" t="s">
+        <v>248</v>
+      </c>
+      <c r="H126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>24</v>
+      </c>
+      <c r="C127">
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <v>10050</v>
+      </c>
+      <c r="E127">
+        <v>120</v>
+      </c>
+      <c r="F127" t="s">
+        <v>139</v>
+      </c>
+      <c r="G127" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>13</v>
+      </c>
+      <c r="D128">
+        <v>10080</v>
+      </c>
+      <c r="E128">
+        <v>80</v>
+      </c>
+      <c r="F128" t="s">
+        <v>314</v>
+      </c>
+      <c r="G128" t="s">
+        <v>98</v>
+      </c>
+      <c r="H128" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>13</v>
+      </c>
+      <c r="C129">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>10100</v>
+      </c>
+      <c r="E129">
+        <v>100</v>
+      </c>
+      <c r="F129" t="s">
+        <v>316</v>
+      </c>
+      <c r="G129" t="s">
+        <v>317</v>
+      </c>
+      <c r="H129" t="s">
+        <v>318</v>
+      </c>
+      <c r="I129" t="s">
+        <v>319</v>
+      </c>
+      <c r="J129" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>16</v>
+      </c>
+      <c r="C130">
+        <v>13</v>
+      </c>
+      <c r="D130">
+        <v>10050</v>
+      </c>
+      <c r="E130">
+        <v>-120</v>
+      </c>
+      <c r="F130" t="s">
+        <v>321</v>
+      </c>
+      <c r="G130" t="s">
+        <v>322</v>
+      </c>
+      <c r="H130" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>60</v>
+      </c>
+      <c r="C131">
+        <v>32</v>
+      </c>
+      <c r="D131">
+        <v>10080</v>
+      </c>
+      <c r="E131">
+        <v>-80</v>
+      </c>
+      <c r="F131" t="s">
+        <v>250</v>
+      </c>
+      <c r="G131" t="s">
+        <v>324</v>
+      </c>
+      <c r="H131" t="s">
+        <v>325</v>
+      </c>
+      <c r="I131" t="s">
+        <v>326</v>
+      </c>
+      <c r="J131" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132">
+        <v>16</v>
+      </c>
+      <c r="D132">
+        <v>10050</v>
+      </c>
+      <c r="E132">
+        <v>100</v>
+      </c>
+      <c r="F132" t="s">
+        <v>328</v>
+      </c>
+      <c r="G132" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>11</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>10100</v>
+      </c>
+      <c r="E133">
+        <v>100</v>
+      </c>
+      <c r="F133" t="s">
+        <v>304</v>
+      </c>
+      <c r="G133" t="s">
+        <v>330</v>
+      </c>
+      <c r="H133" t="s">
+        <v>331</v>
+      </c>
+      <c r="I133" t="s">
+        <v>332</v>
+      </c>
+      <c r="J133" t="s">
+        <v>333</v>
+      </c>
+      <c r="K133" t="s">
+        <v>334</v>
+      </c>
+      <c r="L133" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>10080</v>
+      </c>
+      <c r="E134">
+        <v>120</v>
+      </c>
+      <c r="F134" t="s">
+        <v>74</v>
+      </c>
+      <c r="G134" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>21</v>
+      </c>
+      <c r="D135">
+        <v>10100</v>
+      </c>
+      <c r="E135">
+        <v>-100</v>
+      </c>
+      <c r="F135" t="s">
+        <v>336</v>
+      </c>
+      <c r="G135" t="s">
+        <v>288</v>
+      </c>
+      <c r="H135" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>16</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>10050</v>
+      </c>
+      <c r="E136">
+        <v>-80</v>
+      </c>
+      <c r="F136" t="s">
+        <v>338</v>
+      </c>
+      <c r="G136" t="s">
+        <v>244</v>
+      </c>
+      <c r="H136" t="s">
+        <v>339</v>
+      </c>
+      <c r="I136" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>25</v>
+      </c>
+      <c r="D137">
+        <v>10080</v>
+      </c>
+      <c r="E137">
+        <v>120</v>
+      </c>
+      <c r="F137" t="s">
+        <v>341</v>
+      </c>
+      <c r="G137" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>15</v>
+      </c>
+      <c r="D138">
+        <v>10080</v>
+      </c>
+      <c r="E138">
+        <v>100</v>
+      </c>
+      <c r="F138" t="s">
+        <v>343</v>
+      </c>
+      <c r="G138" t="s">
+        <v>344</v>
+      </c>
+      <c r="H138" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>17</v>
+      </c>
+      <c r="D139">
+        <v>10100</v>
+      </c>
+      <c r="E139">
+        <v>100</v>
+      </c>
+      <c r="F139" t="s">
+        <v>346</v>
+      </c>
+      <c r="G139" t="s">
+        <v>347</v>
+      </c>
+      <c r="H139" t="s">
+        <v>348</v>
+      </c>
+      <c r="I139" t="s">
+        <v>349</v>
+      </c>
+      <c r="J139" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>10050</v>
+      </c>
+      <c r="E140">
+        <v>-100</v>
+      </c>
+      <c r="F140" t="s">
+        <v>351</v>
+      </c>
+      <c r="G140" t="s">
+        <v>352</v>
+      </c>
+      <c r="H140" t="s">
+        <v>353</v>
+      </c>
+      <c r="I140" t="s">
+        <v>354</v>
+      </c>
+      <c r="J140" t="s">
+        <v>355</v>
+      </c>
+      <c r="K140" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>21</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+      <c r="D141">
+        <v>10080</v>
+      </c>
+      <c r="E141">
+        <v>-170</v>
+      </c>
+      <c r="F141" t="s">
+        <v>357</v>
+      </c>
+      <c r="G141" t="s">
+        <v>358</v>
+      </c>
+      <c r="H141" t="s">
+        <v>135</v>
+      </c>
+      <c r="I141" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>32</v>
+      </c>
+      <c r="C142">
+        <v>35</v>
+      </c>
+      <c r="D142">
+        <v>10050</v>
+      </c>
+      <c r="E142">
+        <v>100</v>
+      </c>
+      <c r="F142" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>25</v>
+      </c>
+      <c r="D143">
+        <v>10100</v>
+      </c>
+      <c r="E143">
+        <v>100</v>
+      </c>
+      <c r="F143" t="s">
+        <v>360</v>
+      </c>
+      <c r="G143" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>23</v>
+      </c>
+      <c r="C144">
+        <v>40</v>
+      </c>
+      <c r="D144">
+        <v>10080</v>
+      </c>
+      <c r="E144">
+        <v>80</v>
+      </c>
+      <c r="F144" t="s">
+        <v>362</v>
+      </c>
+      <c r="G144" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>18</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>10050</v>
+      </c>
+      <c r="E145">
+        <v>-100</v>
+      </c>
+      <c r="F145" t="s">
+        <v>364</v>
+      </c>
+      <c r="G145" t="s">
+        <v>365</v>
+      </c>
+      <c r="H145" t="s">
+        <v>366</v>
+      </c>
+      <c r="I145" t="s">
+        <v>322</v>
+      </c>
+      <c r="J145" t="s">
+        <v>367</v>
+      </c>
+      <c r="K145" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>39</v>
+      </c>
+      <c r="C146">
+        <v>24</v>
+      </c>
+      <c r="D146">
+        <v>10100</v>
+      </c>
+      <c r="E146">
+        <v>-70</v>
+      </c>
+      <c r="F146" t="s">
+        <v>369</v>
+      </c>
+      <c r="G146" t="s">
+        <v>370</v>
+      </c>
+      <c r="H146" t="s">
+        <v>371</v>
+      </c>
+      <c r="I146" t="s">
+        <v>372</v>
+      </c>
+      <c r="J146" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>10050</v>
+      </c>
+      <c r="E147">
+        <v>120</v>
+      </c>
+      <c r="F147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G147" t="s">
+        <v>374</v>
+      </c>
+      <c r="H147" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>20</v>
+      </c>
+      <c r="C148">
+        <v>44</v>
+      </c>
+      <c r="D148">
+        <v>10080</v>
+      </c>
+      <c r="E148">
+        <v>100</v>
+      </c>
+      <c r="F148" t="s">
+        <v>376</v>
+      </c>
+      <c r="G148" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>15</v>
+      </c>
+      <c r="C149">
+        <v>19</v>
+      </c>
+      <c r="D149">
+        <v>10100</v>
+      </c>
+      <c r="E149">
+        <v>120</v>
+      </c>
+      <c r="F149" t="s">
+        <v>378</v>
+      </c>
+      <c r="G149" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>14</v>
+      </c>
+      <c r="D150">
+        <v>10080</v>
+      </c>
+      <c r="E150">
+        <v>-100</v>
+      </c>
+      <c r="F150" t="s">
+        <v>379</v>
+      </c>
+      <c r="G150" t="s">
+        <v>380</v>
+      </c>
+      <c r="H150" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>24</v>
+      </c>
+      <c r="C151">
+        <v>15</v>
+      </c>
+      <c r="D151">
+        <v>10050</v>
+      </c>
+      <c r="E151">
+        <v>-70</v>
+      </c>
+      <c r="F151" t="s">
+        <v>250</v>
+      </c>
+      <c r="G151" t="s">
+        <v>356</v>
+      </c>
+      <c r="H151" t="s">
+        <v>258</v>
+      </c>
+      <c r="I151" t="s">
+        <v>259</v>
+      </c>
+      <c r="J151" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3753,11 +5542,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3787,10 +5576,10 @@
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3832,7 +5621,7 @@
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3857,7 +5646,7 @@
         <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3892,7 +5681,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3909,10 +5698,10 @@
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3932,16 +5721,16 @@
         <v>-120</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>383</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>384</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>385</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3961,13 +5750,13 @@
         <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3987,13 +5776,13 @@
         <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -4013,7 +5802,7 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4033,19 +5822,19 @@
         <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>99</v>
       </c>
@@ -4062,59 +5851,16 @@
         <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>100</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>25</v>
-      </c>
-      <c r="D34">
-        <v>10080</v>
-      </c>
-      <c r="E34">
-        <v>80</v>
-      </c>
-      <c r="F34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>101</v>
-      </c>
-      <c r="B35">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>15</v>
-      </c>
-      <c r="D35">
-        <v>10100</v>
-      </c>
-      <c r="E35">
-        <v>100</v>
-      </c>
-      <c r="F35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>102</v>
       </c>
@@ -4131,239 +5877,27 @@
         <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>103</v>
-      </c>
-      <c r="B37">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>13</v>
-      </c>
-      <c r="D37">
-        <v>10100</v>
-      </c>
-      <c r="E37">
-        <v>150</v>
-      </c>
-      <c r="F37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K45">
-        <v>3</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K46">
-        <v>4</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K47">
-        <v>5</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K48">
-        <v>6</v>
-      </c>
-      <c r="L48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K49">
-        <v>7</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K50">
-        <v>8</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K51">
-        <v>9</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K52">
-        <v>10</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K53">
-        <v>11</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K54">
-        <v>12</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K55">
-        <v>13</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K56">
-        <v>14</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K57">
-        <v>15</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K58">
-        <v>16</v>
-      </c>
-      <c r="L58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K59">
-        <v>17</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K60">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>28</v>
+      </c>
+      <c r="C41">
         <v>18</v>
       </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K61">
-        <v>19</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K62">
-        <v>20</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K63">
-        <v>21</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K64">
-        <v>22</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K65">
-        <v>23</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K66">
-        <v>24</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K67">
-        <v>25</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
+      <c r="D41">
+        <v>10080</v>
+      </c>
+      <c r="E41">
+        <v>-200</v>
       </c>
     </row>
   </sheetData>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA29C5F0-FEA8-4014-83C2-4882553C89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AA34D-1514-4661-874D-E80ACD114444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="394">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1312,6 +1312,27 @@
   </si>
   <si>
     <t>11001:225:315</t>
+  </si>
+  <si>
+    <t>10501:0:120:240</t>
+  </si>
+  <si>
+    <t>10501:0:90:180:270</t>
+  </si>
+  <si>
+    <t>10501:0:60:120:180:240:300</t>
+  </si>
+  <si>
+    <t>10801:30:90:150:210:270:330</t>
+  </si>
+  <si>
+    <t>10200:0:144:168:192:216:240:264:288:312:336</t>
+  </si>
+  <si>
+    <t>10501:48:96</t>
+  </si>
+  <si>
+    <t>10501:90:270</t>
   </si>
 </sst>
 </file>
@@ -1734,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5524,6 +5545,843 @@
       </c>
       <c r="J151" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <v>10050</v>
+      </c>
+      <c r="E152">
+        <v>81</v>
+      </c>
+      <c r="F152" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>10080</v>
+      </c>
+      <c r="E153">
+        <v>100</v>
+      </c>
+      <c r="F153" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>18</v>
+      </c>
+      <c r="C154">
+        <v>12</v>
+      </c>
+      <c r="D154">
+        <v>10080</v>
+      </c>
+      <c r="E154">
+        <v>120</v>
+      </c>
+      <c r="F154" t="s">
+        <v>389</v>
+      </c>
+      <c r="G154" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>10100</v>
+      </c>
+      <c r="E155">
+        <v>-100</v>
+      </c>
+      <c r="F155" t="s">
+        <v>391</v>
+      </c>
+      <c r="G155" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>10080</v>
+      </c>
+      <c r="E156">
+        <v>-100</v>
+      </c>
+      <c r="F156" t="s">
+        <v>98</v>
+      </c>
+      <c r="G156" t="s">
+        <v>328</v>
+      </c>
+      <c r="H156" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AA34D-1514-4661-874D-E80ACD114444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA954A5-5074-44EF-9B88-45FFE1F76A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,17 +11,28 @@
     <sheet name="levels" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="535">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,6 +1344,570 @@
   </si>
   <si>
     <t>10501:90:270</t>
+  </si>
+  <si>
+    <t>10501:0:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:90:120:150:180:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:30:60:210:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:0:144:216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:72:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:45:135:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:120:200:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:40:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:160:240:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:48:72:96:168:192:216:288:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:24:144:264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:60:120:180:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:25:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:85:95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:145:155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:205:215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:265:275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:325:335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:0:40:80:120:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:40:80:120:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:30:60:90:210:240:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:15:105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:195:285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:150:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:300:0:120:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:45:135:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:40:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:220:230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:90:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:72:192:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:48:96:168:216:288:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:24:120:144:240:264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:30:60:120:150:210:240:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:20:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:80:240:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:40:120:200:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:120:144:168:192:216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:240:264:288:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:60:120:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:70:140:210:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:24:48:96:120:168:192:240:264:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:60:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:40:120:160:240:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:80:200:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:130:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:250:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:30:60:210:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:120:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002:72:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:144:216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:20:140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:300:340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:30:60:120:150:210:240:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:80:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:260:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:45:90:135:180:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:336:24:96:144:216:264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:0:120:240:48:72:168:192:288:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:40:120:0:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:30:120:210:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:30:120:210:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:40:80:125:170:215:260:310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:60:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:-20:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:100:140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:220:260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:24:66:114:156:204:246:294:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002:40:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:30:60:120:150:210:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:15:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:105:165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:195:255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:0:48:96:144:192:240:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:24:72:120:168:216:264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:30:60:90:180:210:240:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:120:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:36:108:180:252:324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:24:168:192:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:36:156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:72:120:240:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:48:96:144:216:264:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:204:324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:-40:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:80:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:200:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:60:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:30:90:150:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:60:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:60:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:59:155:239:335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:83:131:263:311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:107:287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:-1:35:179:215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:40:120:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:48:72:96:120:144:168:192:216:240:264:288:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:0:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:0:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:48:72:96:120:144:168:192:216:240:264:288:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1388,7 +1963,21 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1757,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4743,23 +5332,23 @@
         <v>311</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="122" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>15</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>20</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>10050</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="1">
         <v>80</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5547,23 +6136,23 @@
         <v>260</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="152" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <v>6</v>
       </c>
-      <c r="C152">
-        <v>13</v>
-      </c>
-      <c r="D152">
+      <c r="C152" s="1">
+        <v>12</v>
+      </c>
+      <c r="D152" s="1">
         <v>10050</v>
       </c>
-      <c r="E152">
-        <v>81</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="E152" s="1">
+        <v>80</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5663,258 +6252,1296 @@
       <c r="A157">
         <v>156</v>
       </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>10050</v>
+      </c>
+      <c r="E157">
+        <v>100</v>
+      </c>
+      <c r="F157" t="s">
+        <v>394</v>
+      </c>
+      <c r="G157" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
+      <c r="B158">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>10080</v>
+      </c>
+      <c r="E158">
+        <v>100</v>
+      </c>
+      <c r="F158" t="s">
+        <v>396</v>
+      </c>
+      <c r="G158" t="s">
+        <v>204</v>
+      </c>
+      <c r="H158" t="s">
+        <v>205</v>
+      </c>
+      <c r="I158" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
+      <c r="B159">
+        <v>9</v>
+      </c>
+      <c r="C159">
+        <v>17</v>
+      </c>
+      <c r="D159">
+        <v>10100</v>
+      </c>
+      <c r="E159">
+        <v>100</v>
+      </c>
+      <c r="F159" t="s">
+        <v>85</v>
+      </c>
+      <c r="G159" t="s">
+        <v>398</v>
+      </c>
+      <c r="H159" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>10080</v>
+      </c>
+      <c r="E160">
+        <v>-100</v>
+      </c>
+      <c r="F160" t="s">
+        <v>400</v>
+      </c>
+      <c r="G160" t="s">
+        <v>401</v>
+      </c>
+      <c r="H160" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>16</v>
+      </c>
+      <c r="D161">
+        <v>10050</v>
+      </c>
+      <c r="E161">
+        <v>-120</v>
+      </c>
+      <c r="F161" t="s">
+        <v>403</v>
+      </c>
+      <c r="G161" t="s">
+        <v>404</v>
+      </c>
+      <c r="H161" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>15</v>
+      </c>
+      <c r="D162">
+        <v>10100</v>
+      </c>
+      <c r="E162">
+        <v>100</v>
+      </c>
+      <c r="F162" t="s">
+        <v>407</v>
+      </c>
+      <c r="G162" t="s">
+        <v>408</v>
+      </c>
+      <c r="H162" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>20</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>10080</v>
+      </c>
+      <c r="E163">
+        <v>100</v>
+      </c>
+      <c r="F163" t="s">
+        <v>409</v>
+      </c>
+      <c r="G163" t="s">
+        <v>410</v>
+      </c>
+      <c r="H163" t="s">
+        <v>411</v>
+      </c>
+      <c r="I163" t="s">
+        <v>412</v>
+      </c>
+      <c r="J163" t="s">
+        <v>413</v>
+      </c>
+      <c r="K163" t="s">
+        <v>414</v>
+      </c>
+      <c r="L163" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>14</v>
+      </c>
+      <c r="C164">
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>10050</v>
+      </c>
+      <c r="E164">
+        <v>120</v>
+      </c>
+      <c r="F164" t="s">
+        <v>416</v>
+      </c>
+      <c r="G164" t="s">
+        <v>417</v>
+      </c>
+      <c r="H164" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>9</v>
+      </c>
+      <c r="D165">
+        <v>10100</v>
+      </c>
+      <c r="E165">
+        <v>-80</v>
+      </c>
+      <c r="F165" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>50</v>
+      </c>
+      <c r="C166">
+        <v>32</v>
+      </c>
+      <c r="D166">
+        <v>10080</v>
+      </c>
+      <c r="E166">
+        <v>-120</v>
+      </c>
+      <c r="F166" t="s">
+        <v>420</v>
+      </c>
+      <c r="G166" t="s">
+        <v>421</v>
+      </c>
+      <c r="H166" t="s">
+        <v>422</v>
+      </c>
+      <c r="I166" t="s">
+        <v>424</v>
+      </c>
+      <c r="J166" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+      <c r="D167">
+        <v>10050</v>
+      </c>
+      <c r="E167">
+        <v>100</v>
+      </c>
+      <c r="F167" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>16</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>10100</v>
+      </c>
+      <c r="E168">
+        <v>150</v>
+      </c>
+      <c r="F168" t="s">
+        <v>425</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" t="s">
+        <v>426</v>
+      </c>
+      <c r="I168" t="s">
+        <v>208</v>
+      </c>
+      <c r="J168" t="s">
+        <v>427</v>
+      </c>
+      <c r="K168" t="s">
+        <v>209</v>
+      </c>
+      <c r="L168" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>13</v>
+      </c>
+      <c r="C169">
+        <v>21</v>
+      </c>
+      <c r="D169">
+        <v>10100</v>
+      </c>
+      <c r="E169">
+        <v>80</v>
+      </c>
+      <c r="F169" t="s">
+        <v>431</v>
+      </c>
+      <c r="G169" t="s">
+        <v>429</v>
+      </c>
+      <c r="H169" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>16</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>10080</v>
+      </c>
+      <c r="E170">
+        <v>-100</v>
+      </c>
+      <c r="F170" t="s">
+        <v>400</v>
+      </c>
+      <c r="G170" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>23</v>
+      </c>
+      <c r="C171">
+        <v>16</v>
+      </c>
+      <c r="D171">
+        <v>10050</v>
+      </c>
+      <c r="E171">
+        <v>-100</v>
+      </c>
+      <c r="F171" t="s">
+        <v>433</v>
+      </c>
+      <c r="G171" t="s">
+        <v>436</v>
+      </c>
+      <c r="H171" t="s">
+        <v>434</v>
+      </c>
+      <c r="I171" t="s">
+        <v>435</v>
+      </c>
+      <c r="J171" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>30</v>
+      </c>
+      <c r="D172">
+        <v>10100</v>
+      </c>
+      <c r="E172">
+        <v>100</v>
+      </c>
+      <c r="F172" t="s">
+        <v>156</v>
+      </c>
+      <c r="G172" t="s">
+        <v>438</v>
+      </c>
+      <c r="H172" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>12</v>
+      </c>
+      <c r="D173">
+        <v>10080</v>
+      </c>
+      <c r="E173">
+        <v>100</v>
+      </c>
+      <c r="F173" t="s">
+        <v>201</v>
+      </c>
+      <c r="G173" t="s">
+        <v>441</v>
+      </c>
+      <c r="H173" t="s">
+        <v>440</v>
+      </c>
+      <c r="I173" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>16</v>
+      </c>
+      <c r="C174">
+        <v>9</v>
+      </c>
+      <c r="D174">
+        <v>10050</v>
+      </c>
+      <c r="E174">
+        <v>100</v>
+      </c>
+      <c r="F174" t="s">
+        <v>443</v>
+      </c>
+      <c r="G174" t="s">
+        <v>445</v>
+      </c>
+      <c r="H174" t="s">
+        <v>444</v>
+      </c>
+      <c r="I174" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>40</v>
+      </c>
+      <c r="C175">
+        <v>40</v>
+      </c>
+      <c r="D175">
+        <v>10100</v>
+      </c>
+      <c r="E175">
+        <v>-100</v>
+      </c>
+      <c r="F175" t="s">
+        <v>447</v>
+      </c>
+      <c r="G175" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>20</v>
+      </c>
+      <c r="C176">
+        <v>15</v>
+      </c>
+      <c r="D176">
+        <v>10080</v>
+      </c>
+      <c r="E176">
+        <v>-100</v>
+      </c>
+      <c r="F176" t="s">
+        <v>451</v>
+      </c>
+      <c r="G176" t="s">
+        <v>450</v>
+      </c>
+      <c r="H176" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>9</v>
+      </c>
+      <c r="D177">
+        <v>10050</v>
+      </c>
+      <c r="E177">
+        <v>150</v>
+      </c>
+      <c r="F177" t="s">
+        <v>453</v>
+      </c>
+      <c r="G177" t="s">
+        <v>454</v>
+      </c>
+      <c r="H177" t="s">
+        <v>455</v>
+      </c>
+      <c r="I177" t="s">
+        <v>456</v>
+      </c>
+      <c r="J177" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>14</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178">
+        <v>10080</v>
+      </c>
+      <c r="E178">
+        <v>120</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>458</v>
+      </c>
+      <c r="H178" t="s">
+        <v>459</v>
+      </c>
+      <c r="I178" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>15</v>
+      </c>
+      <c r="D179">
+        <v>10100</v>
+      </c>
+      <c r="E179">
+        <v>150</v>
+      </c>
+      <c r="F179" t="s">
+        <v>462</v>
+      </c>
+      <c r="G179" t="s">
+        <v>461</v>
+      </c>
+      <c r="H179" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>16</v>
+      </c>
+      <c r="C180">
+        <v>14</v>
+      </c>
+      <c r="D180">
+        <v>10050</v>
+      </c>
+      <c r="E180">
+        <v>-120</v>
+      </c>
+      <c r="F180" t="s">
+        <v>466</v>
+      </c>
+      <c r="G180" t="s">
+        <v>463</v>
+      </c>
+      <c r="H180" t="s">
+        <v>464</v>
+      </c>
+      <c r="I180" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>13</v>
+      </c>
+      <c r="C181">
+        <v>20</v>
+      </c>
+      <c r="D181">
+        <v>10080</v>
+      </c>
+      <c r="E181">
+        <v>-120</v>
+      </c>
+      <c r="F181" t="s">
+        <v>467</v>
+      </c>
+      <c r="G181" t="s">
+        <v>400</v>
+      </c>
+      <c r="H181" t="s">
+        <v>469</v>
+      </c>
+      <c r="I181" t="s">
+        <v>161</v>
+      </c>
+      <c r="J181" t="s">
+        <v>470</v>
+      </c>
+      <c r="K181" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>16</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>10050</v>
+      </c>
+      <c r="E182">
+        <v>80</v>
+      </c>
+      <c r="F182" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>14</v>
+      </c>
+      <c r="C183">
+        <v>24</v>
+      </c>
+      <c r="D183">
+        <v>10100</v>
+      </c>
+      <c r="E183">
+        <v>80</v>
+      </c>
+      <c r="F183" t="s">
+        <v>472</v>
+      </c>
+      <c r="G183" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>26</v>
+      </c>
+      <c r="C184">
+        <v>21</v>
+      </c>
+      <c r="D184">
+        <v>10050</v>
+      </c>
+      <c r="E184">
+        <v>120</v>
+      </c>
+      <c r="F184" t="s">
+        <v>477</v>
+      </c>
+      <c r="G184" t="s">
+        <v>474</v>
+      </c>
+      <c r="H184" t="s">
+        <v>475</v>
+      </c>
+      <c r="I184" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>9</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>10080</v>
+      </c>
+      <c r="E185">
+        <v>-100</v>
+      </c>
+      <c r="F185" t="s">
+        <v>11</v>
+      </c>
+      <c r="G185" t="s">
+        <v>428</v>
+      </c>
+      <c r="H185" t="s">
+        <v>478</v>
+      </c>
+      <c r="I185" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>16</v>
+      </c>
+      <c r="C186">
+        <v>16</v>
+      </c>
+      <c r="D186">
+        <v>10100</v>
+      </c>
+      <c r="E186">
+        <v>-50</v>
+      </c>
+      <c r="F186" t="s">
+        <v>480</v>
+      </c>
+      <c r="G186" t="s">
+        <v>481</v>
+      </c>
+      <c r="H186" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>40</v>
+      </c>
+      <c r="C187">
+        <v>20</v>
+      </c>
+      <c r="D187">
+        <v>10080</v>
+      </c>
+      <c r="E187">
+        <v>120</v>
+      </c>
+      <c r="F187" t="s">
+        <v>483</v>
+      </c>
+      <c r="G187" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+      <c r="D188">
+        <v>10050</v>
+      </c>
+      <c r="E188">
+        <v>150</v>
+      </c>
+      <c r="F188" t="s">
+        <v>407</v>
+      </c>
+      <c r="G188" t="s">
+        <v>485</v>
+      </c>
+      <c r="H188" t="s">
+        <v>486</v>
+      </c>
+      <c r="I188" t="s">
+        <v>487</v>
+      </c>
+      <c r="J188" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>20</v>
+      </c>
+      <c r="C189">
+        <v>16</v>
+      </c>
+      <c r="D189">
+        <v>10100</v>
+      </c>
+      <c r="E189">
+        <v>150</v>
+      </c>
+      <c r="F189" t="s">
+        <v>401</v>
+      </c>
+      <c r="G189" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>15</v>
+      </c>
+      <c r="D190">
+        <v>10050</v>
+      </c>
+      <c r="E190">
+        <v>-100</v>
+      </c>
+      <c r="F190" t="s">
+        <v>490</v>
+      </c>
+      <c r="G190" t="s">
+        <v>491</v>
+      </c>
+      <c r="H190" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>45</v>
+      </c>
+      <c r="C191">
+        <v>28</v>
+      </c>
+      <c r="D191">
+        <v>10080</v>
+      </c>
+      <c r="E191">
+        <v>-80</v>
+      </c>
+      <c r="F191" t="s">
+        <v>493</v>
+      </c>
+      <c r="G191" t="s">
+        <v>494</v>
+      </c>
+      <c r="H191" t="s">
+        <v>495</v>
+      </c>
+      <c r="I191" t="s">
+        <v>496</v>
+      </c>
+      <c r="J191" t="s">
+        <v>13</v>
+      </c>
+      <c r="K191" t="s">
+        <v>497</v>
+      </c>
+      <c r="L191" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>22</v>
+      </c>
+      <c r="C192">
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <v>10100</v>
+      </c>
+      <c r="E192">
+        <v>100</v>
+      </c>
+      <c r="F192" t="s">
+        <v>499</v>
+      </c>
+      <c r="G192" t="s">
+        <v>500</v>
+      </c>
+      <c r="H192" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>26</v>
+      </c>
+      <c r="C193">
+        <v>37</v>
+      </c>
+      <c r="D193">
+        <v>10080</v>
+      </c>
+      <c r="E193">
+        <v>100</v>
+      </c>
+      <c r="F193" t="s">
+        <v>502</v>
+      </c>
+      <c r="G193" t="s">
+        <v>503</v>
+      </c>
+      <c r="H193" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194">
+        <v>10050</v>
+      </c>
+      <c r="E194">
+        <v>50</v>
+      </c>
+      <c r="F194" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>11</v>
+      </c>
+      <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195">
+        <v>10080</v>
+      </c>
+      <c r="E195">
+        <v>-120</v>
+      </c>
+      <c r="F195" t="s">
+        <v>505</v>
+      </c>
+      <c r="G195" t="s">
+        <v>506</v>
+      </c>
+      <c r="H195" t="s">
+        <v>158</v>
+      </c>
+      <c r="I195" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>40</v>
+      </c>
+      <c r="C196">
+        <v>31</v>
+      </c>
+      <c r="D196">
+        <v>10100</v>
+      </c>
+      <c r="E196">
+        <v>-100</v>
+      </c>
+      <c r="F196" t="s">
+        <v>511</v>
+      </c>
+      <c r="G196" t="s">
+        <v>510</v>
+      </c>
+      <c r="H196" t="s">
+        <v>508</v>
+      </c>
+      <c r="I196" t="s">
+        <v>468</v>
+      </c>
+      <c r="J196" t="s">
+        <v>509</v>
+      </c>
+      <c r="K196" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>16</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>10050</v>
+      </c>
+      <c r="E197">
+        <v>80</v>
+      </c>
+      <c r="F197" t="s">
+        <v>449</v>
+      </c>
+      <c r="G197" t="s">
+        <v>513</v>
+      </c>
+      <c r="H197" t="s">
+        <v>514</v>
+      </c>
+      <c r="I197" t="s">
+        <v>515</v>
+      </c>
+      <c r="J197" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>28</v>
+      </c>
+      <c r="C198">
+        <v>24</v>
+      </c>
+      <c r="D198">
+        <v>10080</v>
+      </c>
+      <c r="E198">
+        <v>60</v>
+      </c>
+      <c r="F198" t="s">
+        <v>449</v>
+      </c>
+      <c r="G198" t="s">
+        <v>517</v>
+      </c>
+      <c r="H198" t="s">
+        <v>518</v>
+      </c>
+      <c r="I198" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>10100</v>
+      </c>
+      <c r="E199">
+        <v>80</v>
+      </c>
+      <c r="F199" t="s">
+        <v>525</v>
+      </c>
+      <c r="G199" t="s">
+        <v>520</v>
+      </c>
+      <c r="H199" t="s">
+        <v>521</v>
+      </c>
+      <c r="I199" t="s">
+        <v>522</v>
+      </c>
+      <c r="J199" t="s">
+        <v>523</v>
+      </c>
+      <c r="K199" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>9</v>
+      </c>
+      <c r="C200">
+        <v>13</v>
+      </c>
+      <c r="D200">
+        <v>10050</v>
+      </c>
+      <c r="E200">
+        <v>-150</v>
+      </c>
+      <c r="F200" t="s">
+        <v>526</v>
+      </c>
+      <c r="G200" t="s">
+        <v>527</v>
+      </c>
+      <c r="H200" t="s">
+        <v>528</v>
+      </c>
+      <c r="I200" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="B201">
+        <v>145</v>
+      </c>
+      <c r="C201">
+        <v>70</v>
+      </c>
+      <c r="D201">
+        <v>10100</v>
+      </c>
+      <c r="E201">
+        <v>-120</v>
+      </c>
+      <c r="F201" t="s">
+        <v>171</v>
+      </c>
+      <c r="G201" t="s">
+        <v>531</v>
+      </c>
+      <c r="H201" t="s">
+        <v>530</v>
+      </c>
+      <c r="I201" t="s">
+        <v>532</v>
+      </c>
+      <c r="J201" t="s">
+        <v>533</v>
+      </c>
+      <c r="K201" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6387,10 +8014,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(A1,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(A1,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6403,8 +8030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6761,42 +8388,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>MOD(XFD4,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>MOD(XFD4,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D18">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>MOD(A9,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>MOD(A9,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>MOD(A22,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>MOD(A22,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(A13,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(A13,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>MOD(B3,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>MOD(B3,5)=3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA954A5-5074-44EF-9B88-45FFE1F76A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="540">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1907,13 +1906,33 @@
   </si>
   <si>
     <t>10401:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1963,21 +1982,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2343,11 +2348,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2358,9 +2363,10 @@
     <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.125" customWidth="1"/>
     <col min="11" max="12" width="18.125" customWidth="1"/>
+    <col min="13" max="17" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2397,8 +2403,23 @@
       <c r="L1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>535</v>
+      </c>
+      <c r="N1" t="s">
+        <v>539</v>
+      </c>
+      <c r="O1" t="s">
+        <v>538</v>
+      </c>
+      <c r="P1" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2415,7 +2436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2432,7 +2453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2449,7 +2470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2466,7 +2487,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2483,7 +2504,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2503,7 +2524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2523,7 +2544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2543,7 +2564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2563,7 +2584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2583,7 +2604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2603,7 +2624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2623,7 +2644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2646,7 +2667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2666,7 +2687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8014,10 +8035,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(A1,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>MOD(A1,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8027,7 +8048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -8388,42 +8409,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>MOD(XFD4,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(XFD4,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D18">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>MOD(A9,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(A9,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(A22,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(A22,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(A13,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(A13,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>MOD(B3,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>MOD(B3,5)=3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006AC50-882A-4E56-BFD2-326374119E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="713">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1926,13 +1927,705 @@
   </si>
   <si>
     <t>gimmick9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30201:1:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:0:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:180:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:0:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:60:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:120:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:180:220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:240:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:300:340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:50:110:170:230:290:350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10201:135:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:0:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:240:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:80:120:200:240:320:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:5:120:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:15:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:105:165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:195:255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:285:345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:60:117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:243:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:90:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:40:80:120:160:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:20:220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:0:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:120:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:90:210:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:150:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:252:276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:204:228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:72:96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:24:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:2:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:51:69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:99:201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:231:249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:279:360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:24:72:96:144:168:192:240:264:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:48:120:216:288:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:45:90:135:180:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:60:75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:105:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:150:165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:195:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:240:255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:285:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:330:345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:45:90:135:180:225:270:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:30:60:120:150:180:240:270:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:95:215:335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:30:60:90:120:150:180:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:10:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:70:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:190:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:250:260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:30:90:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:210:270:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:48:192:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:24:216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:120:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:72:96:144:168:264:288:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:160:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:90:270:330:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:160:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:-140:140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:30:120:210:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001:60:150:240:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:96:192:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:48:144:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:24:72:120:168:216:264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:300:348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:40:80:160:200:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:24:48:72:96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:120:144:168:192:216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:0:216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:45:90:135:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:210:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:80:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:40:160:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002:120:240:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:192:336:72:96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:0:48:144:216:264:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:24:120:168:240:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:80:160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:200:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:-40:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:0:120:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:60:180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:60:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:120:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:180:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:240:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:75:195:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:120:150:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:30:60:210:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:10:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:100:170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:190:260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:280:350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:45:225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:0:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:120:180:240:300:360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:40:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:120:360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:60:90:120:240:270:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:30:150:210:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:120:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:0:40:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:0:24:72:96:144:168:216:240:288:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:48:120:192:264:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:0:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:72:96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:144:168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:216:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:288:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:72:144:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:36:108:180:252:324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:40:80:120:160:200:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:90:120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:180:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:270:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:30:90:210:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:0:120:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:60:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:30:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:120:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:210:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:0:48:96:168:216:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:24:72:120:144:192:240:264:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:45:135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:60:120:240:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:210:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:45:135:225:315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:38:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:128:142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:218:232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:308:322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10501:0:24:48:144:168:192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:72:96:120:216:240:264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:288:312:336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:15:285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:60:120:180:240:0:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:30:120:210:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10401:60:150:240:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:0:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:40:70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:80:110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:160:190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:200:230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:240:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:280:310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30202:1:320:350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:45:105:165:225:285:345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100:0:48:168:216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:96:288</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1982,7 +2675,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1994,6 +2687,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2348,11 +3055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J251" sqref="J251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7262,7 +7969,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7288,7 +7995,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7308,7 +8015,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7337,7 +8044,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7372,7 +8079,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7404,7 +8111,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7433,7 +8140,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7468,7 +8175,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7497,7 +8204,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7532,514 +8239,1521 @@
         <v>534</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B202" s="1">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1">
+        <v>10</v>
+      </c>
+      <c r="D202" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E202" s="1">
+        <v>80</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>8</v>
+      </c>
+      <c r="D203">
+        <v>10080</v>
+      </c>
+      <c r="E203">
+        <v>100</v>
+      </c>
+      <c r="F203" t="s">
+        <v>541</v>
+      </c>
+      <c r="G203" t="s">
+        <v>542</v>
+      </c>
+      <c r="H203" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>18</v>
+      </c>
+      <c r="C204">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>10100</v>
+      </c>
+      <c r="E204">
+        <v>100</v>
+      </c>
+      <c r="F204" t="s">
+        <v>543</v>
+      </c>
+      <c r="G204" t="s">
+        <v>544</v>
+      </c>
+      <c r="H204" t="s">
+        <v>545</v>
+      </c>
+      <c r="I204" t="s">
+        <v>546</v>
+      </c>
+      <c r="J204" t="s">
+        <v>547</v>
+      </c>
+      <c r="K204" t="s">
+        <v>548</v>
+      </c>
+      <c r="L204" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>9</v>
+      </c>
+      <c r="D205">
+        <v>10050</v>
+      </c>
+      <c r="E205">
+        <v>-120</v>
+      </c>
+      <c r="F205" t="s">
+        <v>551</v>
+      </c>
+      <c r="G205" t="s">
+        <v>554</v>
+      </c>
+      <c r="H205" t="s">
+        <v>552</v>
+      </c>
+      <c r="I205" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>10080</v>
+      </c>
+      <c r="E206">
+        <v>-80</v>
+      </c>
+      <c r="F206" t="s">
+        <v>555</v>
+      </c>
+      <c r="G206" t="s">
+        <v>556</v>
+      </c>
+      <c r="H206" t="s">
+        <v>557</v>
+      </c>
+      <c r="I206" t="s">
+        <v>558</v>
+      </c>
+      <c r="J206" t="s">
+        <v>467</v>
+      </c>
+      <c r="K206" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>20</v>
+      </c>
+      <c r="C207">
+        <v>11</v>
+      </c>
+      <c r="D207">
+        <v>10100</v>
+      </c>
+      <c r="E207">
+        <v>80</v>
+      </c>
+      <c r="F207" t="s">
+        <v>561</v>
+      </c>
+      <c r="G207" t="s">
+        <v>559</v>
+      </c>
+      <c r="H207" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>16</v>
+      </c>
+      <c r="C208">
+        <v>18</v>
+      </c>
+      <c r="D208">
+        <v>10080</v>
+      </c>
+      <c r="E208">
+        <v>100</v>
+      </c>
+      <c r="F208" t="s">
+        <v>555</v>
+      </c>
+      <c r="G208" t="s">
+        <v>556</v>
+      </c>
+      <c r="H208" t="s">
+        <v>557</v>
+      </c>
+      <c r="I208" t="s">
+        <v>558</v>
+      </c>
+      <c r="J208" t="s">
+        <v>564</v>
+      </c>
+      <c r="K208" t="s">
+        <v>81</v>
+      </c>
+      <c r="L208" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>8</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>10050</v>
+      </c>
+      <c r="E209">
+        <v>120</v>
+      </c>
+      <c r="F209" t="s">
+        <v>566</v>
+      </c>
+      <c r="G209" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>7</v>
+      </c>
+      <c r="D210">
+        <v>10080</v>
+      </c>
+      <c r="E210">
+        <v>-100</v>
+      </c>
+      <c r="F210" t="s">
+        <v>567</v>
+      </c>
+      <c r="G210" t="s">
+        <v>568</v>
+      </c>
+      <c r="H210" t="s">
+        <v>560</v>
+      </c>
+      <c r="I210" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>32</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211">
+        <v>10100</v>
+      </c>
+      <c r="E211">
+        <v>-120</v>
+      </c>
+      <c r="F211" t="s">
+        <v>575</v>
+      </c>
+      <c r="G211" t="s">
+        <v>576</v>
+      </c>
+      <c r="H211" t="s">
+        <v>577</v>
+      </c>
+      <c r="I211" t="s">
+        <v>578</v>
+      </c>
+      <c r="J211" t="s">
+        <v>579</v>
+      </c>
+      <c r="K211" t="s">
+        <v>423</v>
+      </c>
+      <c r="L211" t="s">
+        <v>570</v>
+      </c>
+      <c r="M211" t="s">
+        <v>574</v>
+      </c>
+      <c r="N211" t="s">
+        <v>573</v>
+      </c>
+      <c r="O211" t="s">
+        <v>572</v>
+      </c>
+      <c r="P211" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>11</v>
+      </c>
+      <c r="D212">
+        <v>10050</v>
+      </c>
+      <c r="E212">
+        <v>120</v>
+      </c>
+      <c r="F212" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>14</v>
+      </c>
+      <c r="C213">
+        <v>22</v>
+      </c>
+      <c r="D213">
+        <v>10100</v>
+      </c>
+      <c r="E213">
+        <v>100</v>
+      </c>
+      <c r="F213" t="s">
+        <v>581</v>
+      </c>
+      <c r="G213" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>17</v>
+      </c>
+      <c r="C214">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>10080</v>
+      </c>
+      <c r="E214">
+        <v>80</v>
+      </c>
+      <c r="F214" t="s">
+        <v>582</v>
+      </c>
+      <c r="G214" t="s">
+        <v>590</v>
+      </c>
+      <c r="H214" t="s">
+        <v>583</v>
+      </c>
+      <c r="I214" t="s">
+        <v>584</v>
+      </c>
+      <c r="J214" t="s">
+        <v>585</v>
+      </c>
+      <c r="K214" t="s">
+        <v>586</v>
+      </c>
+      <c r="L214" t="s">
+        <v>587</v>
+      </c>
+      <c r="M214" t="s">
+        <v>588</v>
+      </c>
+      <c r="N214" t="s">
+        <v>589</v>
+      </c>
+      <c r="O214" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>6</v>
+      </c>
+      <c r="C215">
+        <v>7</v>
+      </c>
+      <c r="D215">
+        <v>10050</v>
+      </c>
+      <c r="E215">
+        <v>-100</v>
+      </c>
+      <c r="F215" t="s">
+        <v>407</v>
+      </c>
+      <c r="G215" t="s">
+        <v>592</v>
+      </c>
+      <c r="H215" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>27</v>
+      </c>
+      <c r="C216">
+        <v>18</v>
+      </c>
+      <c r="D216">
+        <v>10100</v>
+      </c>
+      <c r="E216">
+        <v>-80</v>
+      </c>
+      <c r="F216" t="s">
+        <v>567</v>
+      </c>
+      <c r="G216" t="s">
+        <v>568</v>
+      </c>
+      <c r="H216" t="s">
+        <v>560</v>
+      </c>
+      <c r="I216" t="s">
+        <v>593</v>
+      </c>
+      <c r="J216" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>12</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>10080</v>
+      </c>
+      <c r="E217">
+        <v>100</v>
+      </c>
+      <c r="F217" t="s">
+        <v>600</v>
+      </c>
+      <c r="G217" t="s">
+        <v>601</v>
+      </c>
+      <c r="H217" t="s">
+        <v>596</v>
+      </c>
+      <c r="I217" t="s">
+        <v>597</v>
+      </c>
+      <c r="J217" t="s">
+        <v>208</v>
+      </c>
+      <c r="K217" t="s">
+        <v>598</v>
+      </c>
+      <c r="L217" t="s">
+        <v>599</v>
+      </c>
+      <c r="M217" t="s">
+        <v>209</v>
+      </c>
+      <c r="N217" t="s">
+        <v>409</v>
+      </c>
+      <c r="O217" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>28</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+      <c r="D218">
+        <v>10100</v>
+      </c>
+      <c r="E218">
+        <v>100</v>
+      </c>
+      <c r="F218" t="s">
+        <v>602</v>
+      </c>
+      <c r="G218" t="s">
+        <v>603</v>
+      </c>
+      <c r="H218" t="s">
+        <v>605</v>
+      </c>
+      <c r="I218" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+      <c r="D219">
+        <v>10050</v>
+      </c>
+      <c r="E219">
+        <v>150</v>
+      </c>
+      <c r="F219" t="s">
+        <v>607</v>
+      </c>
+      <c r="G219" t="s">
+        <v>608</v>
+      </c>
+      <c r="H219" t="s">
+        <v>610</v>
+      </c>
+      <c r="I219" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>14</v>
+      </c>
+      <c r="C220">
+        <v>20</v>
+      </c>
+      <c r="D220">
+        <v>10080</v>
+      </c>
+      <c r="E220">
+        <v>-100</v>
+      </c>
+      <c r="F220" t="s">
+        <v>400</v>
+      </c>
+      <c r="G220" t="s">
+        <v>611</v>
+      </c>
+      <c r="H220" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>16</v>
+      </c>
+      <c r="C221">
+        <v>25</v>
+      </c>
+      <c r="D221">
+        <v>10100</v>
+      </c>
+      <c r="E221">
+        <v>-120</v>
+      </c>
+      <c r="F221" t="s">
+        <v>613</v>
+      </c>
+      <c r="G221" t="s">
+        <v>614</v>
+      </c>
+      <c r="H221" t="s">
+        <v>615</v>
+      </c>
+      <c r="I221" t="s">
+        <v>616</v>
+      </c>
+      <c r="J221" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>25</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>10050</v>
+      </c>
+      <c r="E222">
+        <v>80</v>
+      </c>
+      <c r="F222" t="s">
+        <v>171</v>
+      </c>
+      <c r="G222" t="s">
+        <v>618</v>
+      </c>
+      <c r="H222" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>19</v>
+      </c>
+      <c r="D223">
+        <v>10100</v>
+      </c>
+      <c r="E223">
+        <v>100</v>
+      </c>
+      <c r="F223" t="s">
+        <v>619</v>
+      </c>
+      <c r="G223" t="s">
+        <v>620</v>
+      </c>
+      <c r="H223" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>16</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <v>10080</v>
+      </c>
+      <c r="E224">
+        <v>100</v>
+      </c>
+      <c r="F224" t="s">
+        <v>622</v>
+      </c>
+      <c r="G224" t="s">
+        <v>623</v>
+      </c>
+      <c r="H224" t="s">
+        <v>624</v>
+      </c>
+      <c r="I224" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>10</v>
+      </c>
+      <c r="C225">
+        <v>21</v>
+      </c>
+      <c r="D225">
+        <v>10050</v>
+      </c>
+      <c r="E225">
+        <v>-150</v>
+      </c>
+      <c r="F225" t="s">
+        <v>625</v>
+      </c>
+      <c r="G225" t="s">
+        <v>626</v>
+      </c>
+      <c r="H225" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>11</v>
+      </c>
+      <c r="C226">
+        <v>18</v>
+      </c>
+      <c r="D226">
+        <v>10100</v>
+      </c>
+      <c r="E226">
+        <v>-80</v>
+      </c>
+      <c r="F226" t="s">
+        <v>629</v>
+      </c>
+      <c r="G226" t="s">
+        <v>630</v>
+      </c>
+      <c r="H226" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>21</v>
+      </c>
+      <c r="C227">
+        <v>12</v>
+      </c>
+      <c r="D227">
+        <v>10050</v>
+      </c>
+      <c r="E227">
+        <v>100</v>
+      </c>
+      <c r="F227" t="s">
+        <v>49</v>
+      </c>
+      <c r="G227" t="s">
+        <v>203</v>
+      </c>
+      <c r="H227" t="s">
+        <v>631</v>
+      </c>
+      <c r="I227" t="s">
+        <v>632</v>
+      </c>
+      <c r="J227" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>17</v>
+      </c>
+      <c r="D228">
+        <v>10080</v>
+      </c>
+      <c r="E228">
+        <v>120</v>
+      </c>
+      <c r="F228" t="s">
+        <v>634</v>
+      </c>
+      <c r="G228" t="s">
+        <v>636</v>
+      </c>
+      <c r="H228" t="s">
+        <v>22</v>
+      </c>
+      <c r="I228" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>24</v>
+      </c>
+      <c r="C229">
+        <v>13</v>
+      </c>
+      <c r="D229">
+        <v>10100</v>
+      </c>
+      <c r="E229">
+        <v>60</v>
+      </c>
+      <c r="F229" t="s">
+        <v>637</v>
+      </c>
+      <c r="G229" t="s">
+        <v>638</v>
+      </c>
+      <c r="H229" t="s">
+        <v>639</v>
+      </c>
+      <c r="I229" t="s">
+        <v>640</v>
+      </c>
+      <c r="J229" t="s">
+        <v>641</v>
+      </c>
+      <c r="K229" t="s">
+        <v>642</v>
+      </c>
+      <c r="L229" t="s">
+        <v>710</v>
+      </c>
+      <c r="M229" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>21</v>
+      </c>
+      <c r="C230">
+        <v>22</v>
+      </c>
+      <c r="D230">
+        <v>10080</v>
+      </c>
+      <c r="E230">
+        <v>-60</v>
+      </c>
+      <c r="F230" t="s">
+        <v>644</v>
+      </c>
+      <c r="G230" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>12</v>
+      </c>
+      <c r="C231">
+        <v>15</v>
+      </c>
+      <c r="D231">
+        <v>10050</v>
+      </c>
+      <c r="E231">
+        <v>-100</v>
+      </c>
+      <c r="F231" t="s">
+        <v>646</v>
+      </c>
+      <c r="G231" t="s">
+        <v>647</v>
+      </c>
+      <c r="H231" t="s">
+        <v>648</v>
+      </c>
+      <c r="I231" t="s">
+        <v>649</v>
+      </c>
+      <c r="J231" t="s">
+        <v>652</v>
+      </c>
+      <c r="K231" t="s">
+        <v>650</v>
+      </c>
+      <c r="L231" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>10</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>10100</v>
+      </c>
+      <c r="E232">
+        <v>60</v>
+      </c>
+      <c r="F232" t="s">
+        <v>653</v>
+      </c>
+      <c r="G232" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>12</v>
+      </c>
+      <c r="C233">
+        <v>7</v>
+      </c>
+      <c r="D233">
+        <v>10050</v>
+      </c>
+      <c r="E233">
+        <v>80</v>
+      </c>
+      <c r="F233" t="s">
+        <v>654</v>
+      </c>
+      <c r="G233" t="s">
+        <v>655</v>
+      </c>
+      <c r="H233" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>26</v>
+      </c>
+      <c r="C234">
+        <v>22</v>
+      </c>
+      <c r="D234">
+        <v>10080</v>
+      </c>
+      <c r="E234">
+        <v>120</v>
+      </c>
+      <c r="F234" t="s">
+        <v>178</v>
+      </c>
+      <c r="G234" t="s">
+        <v>657</v>
+      </c>
+      <c r="H234" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>24</v>
+      </c>
+      <c r="C235">
+        <v>20</v>
+      </c>
+      <c r="D235">
+        <v>10050</v>
+      </c>
+      <c r="E235">
+        <v>-100</v>
+      </c>
+      <c r="F235" t="s">
+        <v>659</v>
+      </c>
+      <c r="G235" t="s">
+        <v>661</v>
+      </c>
+      <c r="H235" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>31</v>
+      </c>
+      <c r="C236">
+        <v>20</v>
+      </c>
+      <c r="D236">
+        <v>10100</v>
+      </c>
+      <c r="E236">
+        <v>-80</v>
+      </c>
+      <c r="F236" t="s">
+        <v>662</v>
+      </c>
+      <c r="G236" t="s">
+        <v>663</v>
+      </c>
+      <c r="H236" t="s">
+        <v>664</v>
+      </c>
+      <c r="I236" t="s">
+        <v>665</v>
+      </c>
+      <c r="J236" t="s">
+        <v>666</v>
+      </c>
+      <c r="K236" t="s">
+        <v>667</v>
+      </c>
+      <c r="L236" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+      <c r="D237">
+        <v>10050</v>
+      </c>
+      <c r="E237">
+        <v>120</v>
+      </c>
+      <c r="F237" t="s">
+        <v>84</v>
+      </c>
+      <c r="G237" t="s">
+        <v>407</v>
+      </c>
+      <c r="H237" t="s">
+        <v>592</v>
+      </c>
+      <c r="I237" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>10</v>
+      </c>
+      <c r="C238">
+        <v>10</v>
+      </c>
+      <c r="D238">
+        <v>10080</v>
+      </c>
+      <c r="E238">
+        <v>50</v>
+      </c>
+      <c r="F238" t="s">
+        <v>22</v>
+      </c>
+      <c r="G238" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>13</v>
+      </c>
+      <c r="D239">
+        <v>10100</v>
+      </c>
+      <c r="E239">
+        <v>50</v>
+      </c>
+      <c r="F239" t="s">
+        <v>669</v>
+      </c>
+      <c r="G239" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>35</v>
+      </c>
+      <c r="C240">
+        <v>25</v>
+      </c>
+      <c r="D240">
+        <v>10050</v>
+      </c>
+      <c r="E240">
+        <v>-120</v>
+      </c>
+      <c r="F240" t="s">
+        <v>671</v>
+      </c>
+      <c r="G240" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>24</v>
+      </c>
+      <c r="C241">
+        <v>20</v>
+      </c>
+      <c r="D241">
+        <v>10080</v>
+      </c>
+      <c r="E241">
+        <v>-100</v>
+      </c>
+      <c r="F241" t="s">
+        <v>676</v>
+      </c>
+      <c r="G241" t="s">
+        <v>423</v>
+      </c>
+      <c r="H241" t="s">
+        <v>637</v>
+      </c>
+      <c r="I241" t="s">
+        <v>672</v>
+      </c>
+      <c r="J241" t="s">
+        <v>673</v>
+      </c>
+      <c r="K241" t="s">
+        <v>674</v>
+      </c>
+      <c r="L241" t="s">
+        <v>675</v>
+      </c>
+      <c r="M241" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>14</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>10050</v>
+      </c>
+      <c r="E242">
+        <v>100</v>
+      </c>
+      <c r="F242" t="s">
+        <v>618</v>
+      </c>
+      <c r="G242" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>14</v>
+      </c>
+      <c r="C243">
+        <v>24</v>
+      </c>
+      <c r="D243">
+        <v>10080</v>
+      </c>
+      <c r="E243">
+        <v>100</v>
+      </c>
+      <c r="F243" t="s">
+        <v>175</v>
+      </c>
+      <c r="G243" t="s">
+        <v>176</v>
+      </c>
+      <c r="H243" t="s">
+        <v>678</v>
+      </c>
+      <c r="I243" t="s">
+        <v>679</v>
+      </c>
+      <c r="J243" t="s">
+        <v>680</v>
+      </c>
+      <c r="K243" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>7</v>
+      </c>
+      <c r="C244">
+        <v>12</v>
+      </c>
+      <c r="D244">
+        <v>10100</v>
+      </c>
+      <c r="E244">
+        <v>50</v>
+      </c>
+      <c r="F244" t="s">
+        <v>681</v>
+      </c>
+      <c r="G244" t="s">
+        <v>682</v>
+      </c>
+      <c r="H244" t="s">
+        <v>711</v>
+      </c>
+      <c r="I244" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>30</v>
+      </c>
+      <c r="C245">
+        <v>17</v>
+      </c>
+      <c r="D245">
+        <v>10080</v>
+      </c>
+      <c r="E245">
+        <v>-100</v>
+      </c>
+      <c r="F245" t="s">
+        <v>683</v>
+      </c>
+      <c r="G245" t="s">
+        <v>684</v>
+      </c>
+      <c r="H245" t="s">
+        <v>685</v>
+      </c>
+      <c r="I245" t="s">
+        <v>43</v>
+      </c>
+      <c r="J245" t="s">
+        <v>686</v>
+      </c>
+      <c r="K245" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>17</v>
+      </c>
+      <c r="C246">
+        <v>16</v>
+      </c>
+      <c r="D246">
+        <v>10050</v>
+      </c>
+      <c r="E246">
+        <v>-150</v>
+      </c>
+      <c r="F246" t="s">
+        <v>13</v>
+      </c>
+      <c r="G246" t="s">
+        <v>688</v>
+      </c>
+      <c r="H246" t="s">
+        <v>689</v>
+      </c>
+      <c r="I246" t="s">
+        <v>690</v>
+      </c>
+      <c r="J246" t="s">
+        <v>691</v>
+      </c>
+      <c r="K246" t="s">
+        <v>692</v>
+      </c>
+      <c r="L246" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>19</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <v>10080</v>
+      </c>
+      <c r="E247">
+        <v>80</v>
+      </c>
+      <c r="F247" t="s">
+        <v>696</v>
+      </c>
+      <c r="G247" t="s">
+        <v>697</v>
+      </c>
+      <c r="H247" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>13</v>
+      </c>
+      <c r="D248">
+        <v>10100</v>
+      </c>
+      <c r="E248">
+        <v>100</v>
+      </c>
+      <c r="F248" t="s">
+        <v>693</v>
+      </c>
+      <c r="G248" t="s">
+        <v>694</v>
+      </c>
+      <c r="H248" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>7</v>
+      </c>
+      <c r="C249">
+        <v>6</v>
+      </c>
+      <c r="D249">
+        <v>10050</v>
+      </c>
+      <c r="E249">
+        <v>100</v>
+      </c>
+      <c r="F249" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>18</v>
+      </c>
+      <c r="C250">
+        <v>28</v>
+      </c>
+      <c r="D250">
+        <v>10080</v>
+      </c>
+      <c r="E250">
+        <v>-100</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" t="s">
+        <v>698</v>
+      </c>
+      <c r="H250" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>300</v>
+      <c r="B251">
+        <v>20</v>
+      </c>
+      <c r="C251">
+        <v>20</v>
+      </c>
+      <c r="D251">
+        <v>10100</v>
+      </c>
+      <c r="E251">
+        <v>-50</v>
+      </c>
+      <c r="F251" t="s">
+        <v>700</v>
+      </c>
+      <c r="G251" t="s">
+        <v>701</v>
+      </c>
+      <c r="H251" t="s">
+        <v>702</v>
+      </c>
+      <c r="I251" t="s">
+        <v>679</v>
+      </c>
+      <c r="J251" t="s">
+        <v>703</v>
+      </c>
+      <c r="K251" t="s">
+        <v>704</v>
+      </c>
+      <c r="L251" t="s">
+        <v>705</v>
+      </c>
+      <c r="M251" t="s">
+        <v>706</v>
+      </c>
+      <c r="N251" t="s">
+        <v>707</v>
+      </c>
+      <c r="O251" t="s">
+        <v>708</v>
+      </c>
+      <c r="P251" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>MOD(A1,5)=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(A1,5)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>MOD(A1,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8048,7 +9762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -8409,42 +10123,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>MOD(XFD4,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>MOD(XFD4,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D18">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>MOD(A9,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>MOD(A9,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>MOD(A22,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>MOD(A22,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(A13,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(A13,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>MOD(B3,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>MOD(B3,5)=3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006AC50-882A-4E56-BFD2-326374119E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2625,7 +2624,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2675,7 +2674,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2687,20 +2686,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3055,11 +3040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J251" sqref="J251"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9749,11 +9734,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>MOD(A1,5)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>MOD(A1,5)=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>MOD(A1,5)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9762,7 +9747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -10123,42 +10108,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>MOD(XFD4,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(XFD4,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D18">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>MOD(A9,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(A9,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(A22,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(A22,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(A13,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(A13,5)=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>MOD(B3,5)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>MOD(B3,5)=3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/casual1/Assets/Resources/LevelDB.xlsx
+++ b/casual1/Assets/Resources/LevelDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF889FA2-B7AA-4659-80B9-FA9E92F8245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -15,23 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="719">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,10 +729,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10902:0:80:280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30101:1:70:90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,12 +775,6 @@
     <t>10200:0:30:300:330</t>
   </si>
   <si>
-    <t>11002:90:150:210:270</t>
-  </si>
-  <si>
-    <t>10902:60:120:180:240</t>
-  </si>
-  <si>
     <t>30101:1:70:80</t>
   </si>
   <si>
@@ -804,18 +784,10 @@
     <t>30101:1:250:260</t>
   </si>
   <si>
-    <t>10901:0:120:240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20200:80:200:320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10401:40:160:280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30101:1:7:17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1066,12 +1038,6 @@
     <t>10801:24:48:96:120:168:192:240:264:312:336</t>
   </si>
   <si>
-    <t>11002:24:144:240:288</t>
-  </si>
-  <si>
-    <t>10902:48:168:264:312</t>
-  </si>
-  <si>
     <t>10200:336:0:72:96:120:192:216</t>
   </si>
   <si>
@@ -1291,12 +1257,6 @@
     <t>20300:45:135:225:315</t>
   </si>
   <si>
-    <t>10902:0:30:120:150:240:270</t>
-  </si>
-  <si>
-    <t>11002:60:90:180:210:300:330</t>
-  </si>
-  <si>
     <t>10700:72:144:216:288</t>
   </si>
   <si>
@@ -2193,10 +2153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30101:1:0:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20200:160:200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2257,18 +2213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10200:0:45:90:135:180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10701:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20300:210:240:270:300:330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10200:0:80:200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2385,10 +2329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10200:120:180:240:300:360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20100:40:80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2449,10 +2389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10501:36:108:180:252:324</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10801:40:80:120:160:200:240:280:320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2561,10 +2497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10902:30:120:210:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10401:60:150:240:330</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2618,13 +2550,101 @@
   </si>
   <si>
     <t>20200:96:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:80:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:40:160:280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:60:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002:120:180:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:90:150:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001:24:144:240:288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:48:168:264:312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:0:30:120:150:240:270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001:60:90:180:210:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:0:52:105:157:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300:240:270:300:330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200:120:180:300:360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200:60:180:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101:1:0:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102:50:100:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101:240:280:320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10901:30:210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10902:120:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10801:36:108:180:252:324</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3040,11 +3060,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D251" sqref="D251"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3096,19 +3116,19 @@
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="N1" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="O1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="P1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="Q1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,7 +3654,7 @@
         <v>10050</v>
       </c>
       <c r="E27">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
         <v>49</v>
@@ -3832,7 +3852,7 @@
         <v>10080</v>
       </c>
       <c r="E36">
-        <v>-200</v>
+        <v>-160</v>
       </c>
       <c r="F36" t="s">
         <v>61</v>
@@ -3953,7 +3973,7 @@
         <v>10100</v>
       </c>
       <c r="E41">
-        <v>-200</v>
+        <v>-150</v>
       </c>
       <c r="F41" t="s">
         <v>68</v>
@@ -3990,7 +4010,7 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>10080</v>
@@ -4214,7 +4234,7 @@
         <v>20</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>10080</v>
@@ -4327,7 +4347,7 @@
         <v>133</v>
       </c>
       <c r="I57" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4829,7 +4849,7 @@
         <v>10100</v>
       </c>
       <c r="E77">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F77" t="s">
         <v>180</v>
@@ -4919,7 +4939,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4933,7 +4953,7 @@
         <v>10100</v>
       </c>
       <c r="E81">
-        <v>-150</v>
+        <v>-120</v>
       </c>
       <c r="F81" t="s">
         <v>124</v>
@@ -4945,7 +4965,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4965,7 +4985,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4994,7 +5014,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5017,7 +5037,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5040,12 +5060,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C86">
         <v>15</v>
@@ -5054,25 +5074,25 @@
         <v>10050</v>
       </c>
       <c r="E86">
-        <v>-150</v>
+        <v>-120</v>
       </c>
       <c r="F86" t="s">
-        <v>198</v>
+        <v>697</v>
       </c>
       <c r="G86" t="s">
         <v>158</v>
       </c>
       <c r="H86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I86" t="s">
         <v>134</v>
       </c>
       <c r="J86" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5089,16 +5109,16 @@
         <v>100</v>
       </c>
       <c r="F87" t="s">
+        <v>200</v>
+      </c>
+      <c r="G87" t="s">
         <v>201</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>202</v>
       </c>
-      <c r="H87" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5115,48 +5135,48 @@
         <v>100</v>
       </c>
       <c r="F88" t="s">
+        <v>203</v>
+      </c>
+      <c r="G88" t="s">
         <v>204</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>205</v>
       </c>
-      <c r="H88" t="s">
-        <v>206</v>
-      </c>
       <c r="I88" t="s">
+        <v>207</v>
+      </c>
+      <c r="J88" t="s">
         <v>208</v>
       </c>
-      <c r="J88" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D89">
         <v>10050</v>
       </c>
       <c r="E89">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s">
-        <v>218</v>
+        <v>698</v>
       </c>
       <c r="H89" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5176,54 +5196,57 @@
         <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H90" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C91">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D91">
         <v>10080</v>
       </c>
       <c r="E91">
-        <v>-150</v>
+        <v>-120</v>
       </c>
       <c r="F91" t="s">
+        <v>700</v>
+      </c>
+      <c r="G91" t="s">
+        <v>701</v>
+      </c>
+      <c r="H91" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" t="s">
+        <v>210</v>
+      </c>
+      <c r="J91" t="s">
+        <v>206</v>
+      </c>
+      <c r="K91" t="s">
+        <v>211</v>
+      </c>
+      <c r="L91" t="s">
         <v>212</v>
       </c>
-      <c r="G91" t="s">
-        <v>211</v>
-      </c>
-      <c r="H91" t="s">
-        <v>210</v>
-      </c>
-      <c r="I91" t="s">
-        <v>213</v>
-      </c>
-      <c r="J91" t="s">
-        <v>207</v>
-      </c>
-      <c r="K91" t="s">
-        <v>214</v>
-      </c>
-      <c r="L91" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M91" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5240,10 +5263,10 @@
         <v>80</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5263,10 +5286,10 @@
         <v>121</v>
       </c>
       <c r="G93" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5283,13 +5306,13 @@
         <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G94" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5306,16 +5329,16 @@
         <v>-50</v>
       </c>
       <c r="F95" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G95" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H95" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5335,7 +5358,7 @@
         <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H96" t="s">
         <v>98</v>
@@ -5361,7 +5384,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5381,19 +5404,19 @@
         <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G98" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H98" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I98" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J98" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5445,10 +5468,10 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H100" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5468,10 +5491,10 @@
         <v>-80</v>
       </c>
       <c r="F101" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G101" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -5491,13 +5514,13 @@
         <v>100</v>
       </c>
       <c r="F102" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G102" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H102" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -5517,10 +5540,10 @@
         <v>120</v>
       </c>
       <c r="F103" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G103" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -5540,22 +5563,22 @@
         <v>80</v>
       </c>
       <c r="F104" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G104" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H104" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I104" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J104" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K104" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -5575,10 +5598,10 @@
         <v>-120</v>
       </c>
       <c r="F105" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G105" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -5598,13 +5621,13 @@
         <v>-50</v>
       </c>
       <c r="F106" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G106" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H106" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -5624,25 +5647,25 @@
         <v>100</v>
       </c>
       <c r="F107" t="s">
+        <v>271</v>
+      </c>
+      <c r="G107" t="s">
+        <v>272</v>
+      </c>
+      <c r="H107" t="s">
+        <v>273</v>
+      </c>
+      <c r="I107" t="s">
+        <v>274</v>
+      </c>
+      <c r="J107" t="s">
+        <v>275</v>
+      </c>
+      <c r="K107" t="s">
         <v>276</v>
       </c>
-      <c r="G107" t="s">
+      <c r="L107" t="s">
         <v>277</v>
-      </c>
-      <c r="H107" t="s">
-        <v>278</v>
-      </c>
-      <c r="I107" t="s">
-        <v>279</v>
-      </c>
-      <c r="J107" t="s">
-        <v>280</v>
-      </c>
-      <c r="K107" t="s">
-        <v>281</v>
-      </c>
-      <c r="L107" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -5662,10 +5685,10 @@
         <v>120</v>
       </c>
       <c r="F108" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G108" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -5682,16 +5705,16 @@
         <v>10100</v>
       </c>
       <c r="E109">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F109" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G109" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H109" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -5711,19 +5734,19 @@
         <v>-100</v>
       </c>
       <c r="F110" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G110" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H110" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I110" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J110" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -5743,7 +5766,7 @@
         <v>-50</v>
       </c>
       <c r="F111" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -5763,10 +5786,10 @@
         <v>120</v>
       </c>
       <c r="F112" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G112" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -5786,25 +5809,25 @@
         <v>100</v>
       </c>
       <c r="F113" t="s">
+        <v>223</v>
+      </c>
+      <c r="G113" t="s">
+        <v>224</v>
+      </c>
+      <c r="H113" t="s">
+        <v>225</v>
+      </c>
+      <c r="I113" t="s">
+        <v>226</v>
+      </c>
+      <c r="J113" t="s">
+        <v>227</v>
+      </c>
+      <c r="K113" t="s">
         <v>228</v>
       </c>
-      <c r="G113" t="s">
+      <c r="L113" t="s">
         <v>229</v>
-      </c>
-      <c r="H113" t="s">
-        <v>230</v>
-      </c>
-      <c r="I113" t="s">
-        <v>231</v>
-      </c>
-      <c r="J113" t="s">
-        <v>232</v>
-      </c>
-      <c r="K113" t="s">
-        <v>233</v>
-      </c>
-      <c r="L113" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -5827,10 +5850,10 @@
         <v>70</v>
       </c>
       <c r="G114" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H114" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -5850,13 +5873,13 @@
         <v>-100</v>
       </c>
       <c r="F115" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G115" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H115" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -5876,22 +5899,22 @@
         <v>-120</v>
       </c>
       <c r="F116" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G116" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H116" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I116" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J116" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K116" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -5911,13 +5934,13 @@
         <v>120</v>
       </c>
       <c r="F117" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G117" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H117" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -5928,7 +5951,7 @@
         <v>12</v>
       </c>
       <c r="C118">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D118">
         <v>10100</v>
@@ -5937,13 +5960,13 @@
         <v>100</v>
       </c>
       <c r="F118" t="s">
-        <v>301</v>
+        <v>702</v>
       </c>
       <c r="G118" t="s">
-        <v>302</v>
+        <v>703</v>
       </c>
       <c r="H118" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -5963,19 +5986,19 @@
         <v>80</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G119" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H119" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I119" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J119" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5995,25 +6018,25 @@
         <v>-50</v>
       </c>
       <c r="F120" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G120" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H120" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I120" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J120" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K120" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L120" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -6036,13 +6059,13 @@
         <v>119</v>
       </c>
       <c r="G121" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H121" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I121" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6062,7 +6085,7 @@
         <v>80</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -6085,7 +6108,7 @@
         <v>102</v>
       </c>
       <c r="G123" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -6105,10 +6128,10 @@
         <v>100</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G124" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -6128,13 +6151,13 @@
         <v>100</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G125" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H125" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -6154,13 +6177,13 @@
         <v>-120</v>
       </c>
       <c r="F126" t="s">
+        <v>239</v>
+      </c>
+      <c r="G126" t="s">
+        <v>243</v>
+      </c>
+      <c r="H126" t="s">
         <v>244</v>
-      </c>
-      <c r="G126" t="s">
-        <v>248</v>
-      </c>
-      <c r="H126" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -6183,7 +6206,7 @@
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -6203,13 +6226,13 @@
         <v>80</v>
       </c>
       <c r="F128" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G128" t="s">
         <v>98</v>
       </c>
       <c r="H128" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -6229,19 +6252,19 @@
         <v>100</v>
       </c>
       <c r="F129" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G129" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H129" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I129" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J129" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -6261,13 +6284,13 @@
         <v>-120</v>
       </c>
       <c r="F130" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G130" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H130" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -6287,19 +6310,19 @@
         <v>-80</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G131" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H131" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I131" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J131" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -6319,10 +6342,10 @@
         <v>100</v>
       </c>
       <c r="F132" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G132" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -6342,25 +6365,25 @@
         <v>100</v>
       </c>
       <c r="F133" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G133" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H133" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I133" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J133" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K133" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L133" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -6383,7 +6406,7 @@
         <v>74</v>
       </c>
       <c r="G134" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -6403,13 +6426,13 @@
         <v>-100</v>
       </c>
       <c r="F135" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G135" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H135" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -6429,16 +6452,16 @@
         <v>-80</v>
       </c>
       <c r="F136" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G136" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H136" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I136" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -6458,10 +6481,10 @@
         <v>120</v>
       </c>
       <c r="F137" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G137" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -6481,13 +6504,13 @@
         <v>100</v>
       </c>
       <c r="F138" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G138" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H138" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -6507,19 +6530,19 @@
         <v>100</v>
       </c>
       <c r="F139" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G139" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H139" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I139" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J139" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -6539,22 +6562,22 @@
         <v>-100</v>
       </c>
       <c r="F140" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G140" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H140" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I140" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J140" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K140" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -6574,16 +6597,16 @@
         <v>-170</v>
       </c>
       <c r="F141" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G141" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H141" t="s">
         <v>135</v>
       </c>
       <c r="I141" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -6603,7 +6626,7 @@
         <v>100</v>
       </c>
       <c r="F142" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -6623,10 +6646,10 @@
         <v>100</v>
       </c>
       <c r="F143" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G143" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -6646,10 +6669,10 @@
         <v>80</v>
       </c>
       <c r="F144" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G144" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -6669,22 +6692,22 @@
         <v>-100</v>
       </c>
       <c r="F145" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G145" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H145" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I145" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J145" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K145" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -6704,19 +6727,19 @@
         <v>-70</v>
       </c>
       <c r="F146" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G146" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H146" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="I146" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J146" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -6739,10 +6762,10 @@
         <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H147" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -6753,7 +6776,7 @@
         <v>20</v>
       </c>
       <c r="C148">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D148">
         <v>10080</v>
@@ -6762,10 +6785,10 @@
         <v>100</v>
       </c>
       <c r="F148" t="s">
-        <v>376</v>
+        <v>704</v>
       </c>
       <c r="G148" t="s">
-        <v>377</v>
+        <v>705</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -6785,10 +6808,10 @@
         <v>120</v>
       </c>
       <c r="F149" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G149" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -6808,13 +6831,13 @@
         <v>-100</v>
       </c>
       <c r="F150" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G150" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H150" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -6834,19 +6857,19 @@
         <v>-70</v>
       </c>
       <c r="F151" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G151" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H151" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I151" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J151" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6866,7 +6889,7 @@
         <v>80</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -6886,7 +6909,7 @@
         <v>100</v>
       </c>
       <c r="F153" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -6906,10 +6929,10 @@
         <v>120</v>
       </c>
       <c r="F154" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G154" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -6929,10 +6952,10 @@
         <v>-100</v>
       </c>
       <c r="F155" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G155" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -6955,10 +6978,10 @@
         <v>98</v>
       </c>
       <c r="G156" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H156" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -6978,10 +7001,10 @@
         <v>100</v>
       </c>
       <c r="F157" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G157" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -7001,16 +7024,16 @@
         <v>100</v>
       </c>
       <c r="F158" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G158" t="s">
+        <v>203</v>
+      </c>
+      <c r="H158" t="s">
         <v>204</v>
       </c>
-      <c r="H158" t="s">
-        <v>205</v>
-      </c>
       <c r="I158" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -7033,10 +7056,10 @@
         <v>85</v>
       </c>
       <c r="G159" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H159" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -7056,13 +7079,13 @@
         <v>-100</v>
       </c>
       <c r="F160" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G160" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H160" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -7082,13 +7105,13 @@
         <v>-120</v>
       </c>
       <c r="F161" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G161" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="H161" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -7108,13 +7131,13 @@
         <v>100</v>
       </c>
       <c r="F162" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G162" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H162" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -7134,25 +7157,25 @@
         <v>100</v>
       </c>
       <c r="F163" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="G163" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H163" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="I163" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="J163" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K163" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L163" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -7172,13 +7195,13 @@
         <v>120</v>
       </c>
       <c r="F164" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G164" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H164" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -7198,7 +7221,7 @@
         <v>-80</v>
       </c>
       <c r="F165" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -7218,19 +7241,19 @@
         <v>-120</v>
       </c>
       <c r="F166" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G166" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H166" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="I166" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="J166" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -7250,7 +7273,7 @@
         <v>100</v>
       </c>
       <c r="F167" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -7270,25 +7293,25 @@
         <v>150</v>
       </c>
       <c r="F168" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G168" t="s">
         <v>18</v>
       </c>
       <c r="H168" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="I168" t="s">
+        <v>207</v>
+      </c>
+      <c r="J168" t="s">
+        <v>418</v>
+      </c>
+      <c r="K168" t="s">
         <v>208</v>
       </c>
-      <c r="J168" t="s">
-        <v>427</v>
-      </c>
-      <c r="K168" t="s">
-        <v>209</v>
-      </c>
       <c r="L168" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -7308,13 +7331,13 @@
         <v>80</v>
       </c>
       <c r="F169" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G169" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H169" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -7334,10 +7357,10 @@
         <v>-100</v>
       </c>
       <c r="F170" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G170" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -7357,19 +7380,19 @@
         <v>-100</v>
       </c>
       <c r="F171" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G171" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="H171" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="I171" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="J171" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -7392,10 +7415,10 @@
         <v>156</v>
       </c>
       <c r="G172" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H172" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -7415,16 +7438,16 @@
         <v>100</v>
       </c>
       <c r="F173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G173" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H173" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I173" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -7444,16 +7467,16 @@
         <v>100</v>
       </c>
       <c r="F174" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G174" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H174" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="I174" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -7473,10 +7496,10 @@
         <v>-100</v>
       </c>
       <c r="F175" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G175" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -7496,13 +7519,13 @@
         <v>-100</v>
       </c>
       <c r="F176" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G176" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="H176" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -7522,19 +7545,19 @@
         <v>150</v>
       </c>
       <c r="F177" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G177" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H177" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="I177" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="J177" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -7557,13 +7580,13 @@
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H178" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="I178" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -7583,10 +7606,10 @@
         <v>150</v>
       </c>
       <c r="F179" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G179" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="H179" t="s">
         <v>85</v>
@@ -7609,16 +7632,16 @@
         <v>-120</v>
       </c>
       <c r="F180" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G180" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H180" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="I180" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -7638,19 +7661,19 @@
         <v>-120</v>
       </c>
       <c r="F181" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G181" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H181" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="I181" t="s">
         <v>161</v>
       </c>
       <c r="J181" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="K181" t="s">
         <v>158</v>
@@ -7673,7 +7696,7 @@
         <v>80</v>
       </c>
       <c r="F182" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -7693,10 +7716,10 @@
         <v>80</v>
       </c>
       <c r="F183" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G183" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -7716,16 +7739,16 @@
         <v>120</v>
       </c>
       <c r="F184" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G184" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H184" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="I184" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -7748,13 +7771,13 @@
         <v>11</v>
       </c>
       <c r="G185" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="H185" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="I185" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -7774,13 +7797,13 @@
         <v>-50</v>
       </c>
       <c r="F186" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G186" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="H186" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -7800,10 +7823,10 @@
         <v>120</v>
       </c>
       <c r="F187" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="G187" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -7823,19 +7846,19 @@
         <v>150</v>
       </c>
       <c r="F188" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G188" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H188" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I188" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="J188" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -7855,13 +7878,13 @@
         <v>150</v>
       </c>
       <c r="F189" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G189" t="s">
         <v>18</v>
       </c>
       <c r="H189" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -7881,13 +7904,13 @@
         <v>-100</v>
       </c>
       <c r="F190" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G190" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H190" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -7907,25 +7930,25 @@
         <v>-80</v>
       </c>
       <c r="F191" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G191" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H191" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="I191" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="J191" t="s">
         <v>13</v>
       </c>
       <c r="K191" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="L191" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -7945,13 +7968,13 @@
         <v>100</v>
       </c>
       <c r="F192" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G192" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H192" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -7971,13 +7994,13 @@
         <v>100</v>
       </c>
       <c r="F193" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G193" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="H193" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -8017,16 +8040,16 @@
         <v>-120</v>
       </c>
       <c r="F195" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="G195" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="H195" t="s">
         <v>158</v>
       </c>
       <c r="I195" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -8046,22 +8069,22 @@
         <v>-100</v>
       </c>
       <c r="F196" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="G196" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="H196" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="I196" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="J196" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="K196" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -8081,19 +8104,19 @@
         <v>80</v>
       </c>
       <c r="F197" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G197" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="H197" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="I197" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="J197" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -8113,16 +8136,16 @@
         <v>60</v>
       </c>
       <c r="F198" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G198" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="H198" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I198" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -8142,22 +8165,22 @@
         <v>80</v>
       </c>
       <c r="F199" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G199" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H199" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I199" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="J199" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="K199" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -8177,16 +8200,16 @@
         <v>-150</v>
       </c>
       <c r="F200" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G200" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H200" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="I200" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -8209,19 +8232,19 @@
         <v>171</v>
       </c>
       <c r="G201" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H201" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="I201" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="J201" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="K201" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="202" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8241,7 +8264,7 @@
         <v>80</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -8261,13 +8284,13 @@
         <v>100</v>
       </c>
       <c r="F203" t="s">
+        <v>532</v>
+      </c>
+      <c r="G203" t="s">
+        <v>533</v>
+      </c>
+      <c r="H203" t="s">
         <v>541</v>
-      </c>
-      <c r="G203" t="s">
-        <v>542</v>
-      </c>
-      <c r="H203" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -8287,25 +8310,25 @@
         <v>100</v>
       </c>
       <c r="F204" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="G204" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H204" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I204" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="J204" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="K204" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="L204" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -8325,16 +8348,16 @@
         <v>-120</v>
       </c>
       <c r="F205" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G205" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="H205" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="I205" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -8354,19 +8377,19 @@
         <v>-80</v>
       </c>
       <c r="F206" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="G206" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H206" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="I206" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="J206" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="K206" t="s">
         <v>73</v>
@@ -8389,13 +8412,13 @@
         <v>80</v>
       </c>
       <c r="F207" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="G207" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="H207" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -8415,25 +8438,25 @@
         <v>100</v>
       </c>
       <c r="F208" t="s">
+        <v>546</v>
+      </c>
+      <c r="G208" t="s">
+        <v>547</v>
+      </c>
+      <c r="H208" t="s">
+        <v>548</v>
+      </c>
+      <c r="I208" t="s">
+        <v>549</v>
+      </c>
+      <c r="J208" t="s">
         <v>555</v>
-      </c>
-      <c r="G208" t="s">
-        <v>556</v>
-      </c>
-      <c r="H208" t="s">
-        <v>557</v>
-      </c>
-      <c r="I208" t="s">
-        <v>558</v>
-      </c>
-      <c r="J208" t="s">
-        <v>564</v>
       </c>
       <c r="K208" t="s">
         <v>81</v>
       </c>
       <c r="L208" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.3">
@@ -8453,10 +8476,10 @@
         <v>120</v>
       </c>
       <c r="F209" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G209" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.3">
@@ -8476,16 +8499,16 @@
         <v>-100</v>
       </c>
       <c r="F210" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="G210" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="H210" t="s">
+        <v>551</v>
+      </c>
+      <c r="I210" t="s">
         <v>560</v>
-      </c>
-      <c r="I210" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.3">
@@ -8505,37 +8528,37 @@
         <v>-120</v>
       </c>
       <c r="F211" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="G211" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="H211" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="I211" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="J211" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="K211" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="L211" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="M211" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="N211" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="O211" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="P211" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
@@ -8555,7 +8578,7 @@
         <v>120</v>
       </c>
       <c r="F212" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.3">
@@ -8575,10 +8598,10 @@
         <v>100</v>
       </c>
       <c r="F213" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G213" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.3">
@@ -8586,46 +8609,46 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C214">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214">
         <v>10080</v>
       </c>
       <c r="E214">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F214" t="s">
+        <v>573</v>
+      </c>
+      <c r="G214" t="s">
+        <v>581</v>
+      </c>
+      <c r="H214" t="s">
+        <v>574</v>
+      </c>
+      <c r="I214" t="s">
+        <v>575</v>
+      </c>
+      <c r="J214" t="s">
+        <v>576</v>
+      </c>
+      <c r="K214" t="s">
+        <v>577</v>
+      </c>
+      <c r="L214" t="s">
+        <v>578</v>
+      </c>
+      <c r="M214" t="s">
+        <v>579</v>
+      </c>
+      <c r="N214" t="s">
+        <v>580</v>
+      </c>
+      <c r="O214" t="s">
         <v>582</v>
-      </c>
-      <c r="G214" t="s">
-        <v>590</v>
-      </c>
-      <c r="H214" t="s">
-        <v>583</v>
-      </c>
-      <c r="I214" t="s">
-        <v>584</v>
-      </c>
-      <c r="J214" t="s">
-        <v>585</v>
-      </c>
-      <c r="K214" t="s">
-        <v>586</v>
-      </c>
-      <c r="L214" t="s">
-        <v>587</v>
-      </c>
-      <c r="M214" t="s">
-        <v>588</v>
-      </c>
-      <c r="N214" t="s">
-        <v>589</v>
-      </c>
-      <c r="O214" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.3">
@@ -8645,10 +8668,10 @@
         <v>-100</v>
       </c>
       <c r="F215" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G215" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="H215" t="s">
         <v>39</v>
@@ -8671,19 +8694,19 @@
         <v>-80</v>
       </c>
       <c r="F216" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="G216" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="H216" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="I216" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="J216" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.3">
@@ -8703,34 +8726,34 @@
         <v>100</v>
       </c>
       <c r="F217" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G217" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="H217" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="I217" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="J217" t="s">
+        <v>207</v>
+      </c>
+      <c r="K217" t="s">
+        <v>589</v>
+      </c>
+      <c r="L217" t="s">
+        <v>590</v>
+      </c>
+      <c r="M217" t="s">
         <v>208</v>
       </c>
-      <c r="K217" t="s">
-        <v>598</v>
-      </c>
-      <c r="L217" t="s">
-        <v>599</v>
-      </c>
-      <c r="M217" t="s">
-        <v>209</v>
-      </c>
       <c r="N217" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="O217" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.3">
@@ -8750,16 +8773,16 @@
         <v>100</v>
       </c>
       <c r="F218" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G218" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="H218" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I218" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.3">
@@ -8776,19 +8799,19 @@
         <v>10050</v>
       </c>
       <c r="E219">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F219" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="G219" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="H219" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="I219" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.3">
@@ -8808,13 +8831,13 @@
         <v>-100</v>
       </c>
       <c r="F220" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G220" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H220" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.3">
@@ -8834,19 +8857,19 @@
         <v>-120</v>
       </c>
       <c r="F221" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G221" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="H221" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="I221" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="J221" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.3">
@@ -8869,10 +8892,10 @@
         <v>171</v>
       </c>
       <c r="G222" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="H222" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.3">
@@ -8892,13 +8915,13 @@
         <v>100</v>
       </c>
       <c r="F223" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="G223" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="H223" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.3">
@@ -8915,19 +8938,19 @@
         <v>10080</v>
       </c>
       <c r="E224">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F224" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="G224" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="H224" t="s">
-        <v>624</v>
+        <v>709</v>
       </c>
       <c r="I224" t="s">
-        <v>606</v>
+        <v>708</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -8947,13 +8970,13 @@
         <v>-150</v>
       </c>
       <c r="F225" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="G225" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="H225" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
@@ -8973,13 +8996,13 @@
         <v>-80</v>
       </c>
       <c r="F226" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="G226" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="H226" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
@@ -9002,16 +9025,16 @@
         <v>49</v>
       </c>
       <c r="G227" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H227" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="I227" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="J227" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
@@ -9031,16 +9054,16 @@
         <v>120</v>
       </c>
       <c r="F228" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="G228" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="H228" t="s">
         <v>22</v>
       </c>
       <c r="I228" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -9060,28 +9083,28 @@
         <v>60</v>
       </c>
       <c r="F229" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="G229" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="H229" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="I229" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="J229" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="K229" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="L229" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="M229" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
@@ -9101,10 +9124,10 @@
         <v>-60</v>
       </c>
       <c r="F230" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G230" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
@@ -9124,25 +9147,25 @@
         <v>-100</v>
       </c>
       <c r="F231" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="G231" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="H231" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="I231" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="J231" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="K231" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="L231" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
@@ -9162,7 +9185,7 @@
         <v>60</v>
       </c>
       <c r="F232" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="G232" t="s">
         <v>85</v>
@@ -9173,10 +9196,10 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C233">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D233">
         <v>10050</v>
@@ -9185,13 +9208,16 @@
         <v>80</v>
       </c>
       <c r="F233" t="s">
-        <v>654</v>
+        <v>711</v>
       </c>
       <c r="G233" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="H233" t="s">
-        <v>656</v>
+        <v>642</v>
+      </c>
+      <c r="I233" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
@@ -9208,16 +9234,16 @@
         <v>10080</v>
       </c>
       <c r="E234">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F234" t="s">
         <v>178</v>
       </c>
       <c r="G234" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="H234" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
@@ -9237,13 +9263,13 @@
         <v>-100</v>
       </c>
       <c r="F235" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="G235" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="H235" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
@@ -9263,25 +9289,25 @@
         <v>-80</v>
       </c>
       <c r="F236" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="G236" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="H236" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="I236" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="J236" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="K236" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="L236" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
@@ -9304,10 +9330,10 @@
         <v>84</v>
       </c>
       <c r="G237" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H237" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="I237" t="s">
         <v>171</v>
@@ -9333,7 +9359,10 @@
         <v>22</v>
       </c>
       <c r="G238" t="s">
-        <v>157</v>
+        <v>202</v>
+      </c>
+      <c r="H238" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
@@ -9341,22 +9370,22 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C239">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D239">
         <v>10100</v>
       </c>
       <c r="E239">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F239" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="G239" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
@@ -9376,7 +9405,7 @@
         <v>-120</v>
       </c>
       <c r="F240" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="G240" t="s">
         <v>80</v>
@@ -9399,28 +9428,28 @@
         <v>-100</v>
       </c>
       <c r="F241" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G241" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H241" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="I241" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="J241" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="K241" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="L241" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="M241" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.3">
@@ -9440,10 +9469,10 @@
         <v>100</v>
       </c>
       <c r="F242" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G242" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.3">
@@ -9469,16 +9498,16 @@
         <v>176</v>
       </c>
       <c r="H243" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="I243" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="J243" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="K243" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
@@ -9498,16 +9527,16 @@
         <v>50</v>
       </c>
       <c r="F244" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="G244" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="H244" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="I244" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
@@ -9527,22 +9556,22 @@
         <v>-100</v>
       </c>
       <c r="F245" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="G245" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="H245" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="I245" t="s">
         <v>43</v>
       </c>
       <c r="J245" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="K245" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
@@ -9565,22 +9594,22 @@
         <v>13</v>
       </c>
       <c r="G246" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="H246" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="I246" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="J246" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="K246" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="L246" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
@@ -9600,13 +9629,13 @@
         <v>80</v>
       </c>
       <c r="F247" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="G247" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="H247" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
@@ -9626,13 +9655,13 @@
         <v>100</v>
       </c>
       <c r="F248" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="G248" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="H248" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
@@ -9640,19 +9669,25 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C249">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D249">
         <v>10050</v>
       </c>
       <c r="E249">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F249" t="s">
-        <v>154</v>
+        <v>713</v>
+      </c>
+      <c r="G249" t="s">
+        <v>714</v>
+      </c>
+      <c r="H249" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
@@ -9663,7 +9698,7 @@
         <v>18</v>
       </c>
       <c r="C250">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D250">
         <v>10080</v>
@@ -9675,10 +9710,13 @@
         <v>13</v>
       </c>
       <c r="G250" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="H250" t="s">
-        <v>699</v>
+        <v>683</v>
+      </c>
+      <c r="I250" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
@@ -9698,37 +9736,37 @@
         <v>-50</v>
       </c>
       <c r="F251" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G251" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="H251" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="I251" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="J251" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="K251" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="L251" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="M251" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="N251" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="O251" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="P251" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -9747,7 +9785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -9826,7 +9864,7 @@
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -9903,10 +9941,10 @@
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -9926,16 +9964,16 @@
         <v>-120</v>
       </c>
       <c r="F25" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G25" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H25" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="I25" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
